--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
   <si>
     <t>Encoding U$</t>
   </si>
@@ -175,66 +175,63 @@
     <t>Galinha pintadinha 2: Sapo Cururu</t>
   </si>
   <si>
+    <t>Incêndios</t>
+  </si>
+  <si>
+    <t>O Que Eu Mais Desejo</t>
+  </si>
+  <si>
+    <t>Qual Queijo Você Quer?</t>
+  </si>
+  <si>
+    <t>Sonhos em Movimento</t>
+  </si>
+  <si>
+    <t>War, Inc.</t>
+  </si>
+  <si>
+    <t>Amour</t>
+  </si>
+  <si>
+    <t>Paris-Manhattan</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>Adeus Berthe</t>
+  </si>
+  <si>
+    <t>Cesare deve morire</t>
+  </si>
+  <si>
+    <t>Meus 533 filhos</t>
+  </si>
+  <si>
+    <t>The Royal affair</t>
+  </si>
+  <si>
+    <t>Angel's share</t>
+  </si>
+  <si>
+    <t>Love is all you need</t>
+  </si>
+  <si>
+    <t>Um alguém apaixonado</t>
+  </si>
+  <si>
+    <t>A separation</t>
+  </si>
+  <si>
+    <t>Depois de Maio</t>
+  </si>
+  <si>
+    <t>FOXFIRE</t>
+  </si>
+  <si>
     <t>Headhunters</t>
   </si>
   <si>
-    <t>Incêndios</t>
-  </si>
-  <si>
-    <t>O Que Eu Mais Desejo</t>
-  </si>
-  <si>
-    <t>Qual Queijo Você Quer?</t>
-  </si>
-  <si>
-    <t>Sonhos em Movimento</t>
-  </si>
-  <si>
-    <t>War, Inc.</t>
-  </si>
-  <si>
-    <t>Amour</t>
-  </si>
-  <si>
-    <t>Paris-Manhattan</t>
-  </si>
-  <si>
-    <t>Boca</t>
-  </si>
-  <si>
-    <t>Adeus Berthe</t>
-  </si>
-  <si>
-    <t>Cesare deve morire</t>
-  </si>
-  <si>
-    <t>Meus 533 filhos</t>
-  </si>
-  <si>
-    <t>The Royal Affair</t>
-  </si>
-  <si>
-    <t>Angel's share</t>
-  </si>
-  <si>
-    <t>Love is all you need</t>
-  </si>
-  <si>
-    <t>Um alguém apaixonado</t>
-  </si>
-  <si>
-    <t>A separation</t>
-  </si>
-  <si>
-    <t>Cesare Deve Morire</t>
-  </si>
-  <si>
-    <t>Depois de Maio</t>
-  </si>
-  <si>
-    <t>FOXFIRE</t>
-  </si>
-  <si>
     <t>Hoje</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Reality</t>
   </si>
   <si>
-    <t>The Royal affair</t>
-  </si>
-  <si>
     <t>Adeus Minha Rainha</t>
   </si>
   <si>
@@ -475,21 +469,21 @@
     <t>Blindside</t>
   </si>
   <si>
-    <t>Dabba</t>
-  </si>
-  <si>
     <t>Jackie</t>
   </si>
   <si>
     <t>Le Grand Boucle</t>
   </si>
   <si>
-    <t>Les Garçons et Guillaume, à table </t>
+    <t>Les Garçons et Guillaume, à table</t>
   </si>
   <si>
     <t>Les gamins</t>
   </si>
   <si>
+    <t>Lunchbox</t>
+  </si>
+  <si>
     <t>L´image man quante</t>
   </si>
   <si>
@@ -544,13 +538,31 @@
     <t>Um Plain Parfait</t>
   </si>
   <si>
+    <t>Avanti Popolo</t>
+  </si>
+  <si>
+    <t>Em busca de Iara</t>
+  </si>
+  <si>
+    <t>Getúlio</t>
+  </si>
+  <si>
     <t>In the blood</t>
   </si>
   <si>
+    <t>Out in the dark</t>
+  </si>
+  <si>
     <t>Pelo Malo</t>
   </si>
   <si>
+    <t>Primeiro Tempo</t>
+  </si>
+  <si>
     <t>Quando eu era vivo</t>
+  </si>
+  <si>
+    <t>Tarja Branca</t>
   </si>
   <si>
     <t>Tag Cultural</t>
@@ -963,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3">
-        <v>-924.010256410256</v>
+        <v>-924.01</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>-924.010256410256</v>
+        <v>-924.01</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1017,16 +1029,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3">
-        <v>-692.282051282051</v>
+        <v>-692.28</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>-692.282051282051</v>
+        <v>-692.28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1037,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3">
         <v>-1035</v>
@@ -1057,16 +1069,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3">
-        <v>-589.74358974359</v>
+        <v>-589.74</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>-589.74358974359</v>
+        <v>-589.74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1077,16 +1089,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3">
-        <v>-352.533333333333</v>
+        <v>-352.53</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>-352.533333333333</v>
+        <v>-352.53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1097,16 +1109,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D7" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1117,16 +1129,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D8" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1137,16 +1149,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D9" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1157,16 +1169,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D10" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1177,16 +1189,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1197,16 +1209,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1217,16 +1229,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1237,16 +1249,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D14" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1257,16 +1269,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D15" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1277,16 +1289,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D16" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1297,16 +1309,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1317,16 +1329,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D18" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1337,16 +1349,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D19" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1357,16 +1369,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D20" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1377,16 +1389,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D21" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1397,16 +1409,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D22" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1417,16 +1429,16 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D23" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1437,16 +1449,16 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D24" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1457,16 +1469,16 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D25" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1477,16 +1489,16 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D26" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1497,16 +1509,16 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D27" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1517,16 +1529,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D28" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1537,16 +1549,16 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D29" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1557,16 +1569,16 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D30" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1577,16 +1589,16 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D31" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1597,16 +1609,16 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D32" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1617,16 +1629,16 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D33" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1637,16 +1649,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D34" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1657,16 +1669,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D35" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1677,16 +1689,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D36" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1697,16 +1709,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D37" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1717,16 +1729,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D38" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1737,16 +1749,16 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D39" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1757,16 +1769,16 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D40" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1777,16 +1789,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D41" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1797,16 +1809,16 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D42" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1817,16 +1829,16 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D43" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1837,16 +1849,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D44" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1857,16 +1869,16 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D45" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1877,16 +1889,16 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D46" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1897,16 +1909,16 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D47" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1917,16 +1929,16 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D48" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>-27.7230769230769</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1940,13 +1952,13 @@
         <v>183</v>
       </c>
       <c r="D49" s="3">
-        <v>-200</v>
+        <v>-857.92</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>-200</v>
+        <v>-857.92</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1957,16 +1969,16 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D50" s="3">
-        <v>-857.917948717949</v>
+        <v>-962.44</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>-857.917948717949</v>
+        <v>-962.44</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1977,16 +1989,16 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D51" s="3">
-        <v>-962.435897435897</v>
+        <v>-45.69</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="3">
-        <v>-962.435897435897</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1997,16 +2009,16 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D52" s="3">
-        <v>-45.6923076923077</v>
+        <v>-25.03</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>-45.6923076923077</v>
+        <v>-25.03</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2017,36 +2029,36 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D53" s="3">
-        <v>-25.0307692307692</v>
+        <v>-1035</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>-25.0307692307692</v>
+        <v>-1035</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D54" s="3">
-        <v>-1035</v>
+        <v>-785.97</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>-1035</v>
+        <v>-785.97</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2057,56 +2069,56 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D55" s="3">
-        <v>-785.974358974359</v>
+        <v>-692.28</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>-785.974358974359</v>
+        <v>-692.28</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D56" s="3">
-        <v>-692.282051282051</v>
+        <v>-589.74</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>-692.282051282051</v>
+        <v>-589.74</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3">
-        <v>-589.74358974359</v>
+        <v>-645.91</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>-589.74358974359</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2117,16 +2129,16 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D58" s="3">
-        <v>-645.909090909091</v>
+        <v>-308.91</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>-645.909090909091</v>
+        <v>-308.91</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2137,16 +2149,16 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D59" s="3">
-        <v>-308.913043478261</v>
+        <v>-922.17</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>-308.913043478261</v>
+        <v>-922.17</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2157,21 +2169,21 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3">
-        <v>-922.173913043478</v>
+        <v>-308.91</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>-922.173913043478</v>
+        <v>-308.91</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>65</v>
@@ -2180,13 +2192,13 @@
         <v>183</v>
       </c>
       <c r="D61" s="3">
-        <v>-308.913043478261</v>
+        <v>-1106.57</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>-308.913043478261</v>
+        <v>-1106.57</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2197,16 +2209,16 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3">
-        <v>-1106.5652173913</v>
+        <v>-711.36</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>-1106.5652173913</v>
+        <v>-711.36</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2217,36 +2229,36 @@
         <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="3">
-        <v>-711.363636363636</v>
+        <v>-1156.86</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>-711.363636363636</v>
+        <v>-1156.86</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D64" s="3">
-        <v>-1156.86363636364</v>
+        <v>-228</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <v>-1156.86363636364</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2254,19 +2266,19 @@
         <v>41518</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="3">
-        <v>-228</v>
+        <v>-617.83</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>-228</v>
+        <v>-617.83</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2274,19 +2286,19 @@
         <v>41518</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D66" s="3">
-        <v>-617.826086956522</v>
+        <v>-1156.86</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>-617.826086956522</v>
+        <v>-1156.86</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2294,19 +2306,19 @@
         <v>41518</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D67" s="3">
-        <v>-1156.86363636364</v>
+        <v>-887.77</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>-1156.86363636364</v>
+        <v>-887.77</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2314,19 +2326,19 @@
         <v>41518</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D68" s="3">
-        <v>-887.772727272727</v>
+        <v>-228</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>-887.772727272727</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2334,19 +2346,19 @@
         <v>41518</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3">
-        <v>-228</v>
+        <v>-711.36</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
       </c>
       <c r="F69" s="3">
-        <v>-228</v>
+        <v>-711.36</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2357,16 +2369,16 @@
         <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D70" s="3">
-        <v>-711.363636363636</v>
+        <v>-645.91</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>-711.363636363636</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2377,16 +2389,16 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D71" s="3">
-        <v>-645.909090909091</v>
+        <v>-645.91</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>-645.909090909091</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2397,16 +2409,16 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D72" s="3">
-        <v>-645.909090909091</v>
+        <v>-664.09</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>-645.909090909091</v>
+        <v>-664.09</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2414,39 +2426,39 @@
         <v>41518</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D73" s="3">
-        <v>-664.090909090909</v>
+        <v>-617.83</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
       </c>
       <c r="F73" s="3">
-        <v>-664.090909090909</v>
+        <v>-617.83</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D74" s="3">
-        <v>-617.826086956522</v>
+        <v>-645.91</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
       </c>
       <c r="F74" s="3">
-        <v>-617.826086956522</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2454,19 +2466,19 @@
         <v>41548</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D75" s="3">
-        <v>-645.909090909091</v>
+        <v>-750</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>-645.909090909091</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2474,19 +2486,19 @@
         <v>41548</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D76" s="3">
-        <v>-750</v>
+        <v>-609.99</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-750</v>
+        <v>-609.99</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2494,19 +2506,19 @@
         <v>41548</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="3">
-        <v>-610</v>
+        <v>-623.64</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
       </c>
       <c r="F77" s="3">
-        <v>-610</v>
+        <v>-623.64</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2514,19 +2526,19 @@
         <v>41548</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D78" s="3">
-        <v>-623.636363636364</v>
+        <v>-711.36</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>-623.636363636364</v>
+        <v>-711.36</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2534,19 +2546,19 @@
         <v>41548</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" s="3">
-        <v>-711.363636363636</v>
+        <v>-557.55</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
       </c>
       <c r="F79" s="3">
-        <v>-711.363636363636</v>
+        <v>-557.55</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2554,19 +2566,19 @@
         <v>41548</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D80" s="3">
-        <v>-557.545454545455</v>
+        <v>-645.91</v>
       </c>
       <c r="E80" s="3">
         <v>0</v>
       </c>
       <c r="F80" s="3">
-        <v>-557.545454545455</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2574,39 +2586,39 @@
         <v>41548</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D81" s="3">
-        <v>-645.909090909091</v>
+        <v>-737.64</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-645.909090909091</v>
+        <v>-737.64</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D82" s="3">
-        <v>-737.636363636364</v>
+        <v>-1242</v>
       </c>
       <c r="E82" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="F82" s="3">
-        <v>-737.636363636364</v>
+        <v>-11242</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2614,19 +2626,19 @@
         <v>41579</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D83" s="3">
-        <v>-1242</v>
+        <v>-409.09</v>
       </c>
       <c r="E83" s="3">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>-11242</v>
+        <v>-409.09</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2634,19 +2646,19 @@
         <v>41579</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D84" s="3">
-        <v>-409.090909090909</v>
+        <v>-751.14</v>
       </c>
       <c r="E84" s="3">
         <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>-409.090909090909</v>
+        <v>-751.14</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2654,19 +2666,19 @@
         <v>41579</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D85" s="3">
-        <v>-751.136363636364</v>
+        <v>-645.91</v>
       </c>
       <c r="E85" s="3">
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>-751.136363636364</v>
+        <v>-645.91</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2674,39 +2686,39 @@
         <v>41579</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D86" s="3">
-        <v>-645.909090909091</v>
+        <v>-1786.82</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
       </c>
       <c r="F86" s="3">
-        <v>-645.909090909091</v>
+        <v>-1786.82</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D87" s="3">
-        <v>-1786.81818181818</v>
+        <v>-521.74</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>-1786.81818181818</v>
+        <v>-521.74</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2714,19 +2726,19 @@
         <v>41609</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D88" s="3">
-        <v>-521.739130434783</v>
+        <v>-711.13</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
       </c>
       <c r="F88" s="3">
-        <v>-521.739130434783</v>
+        <v>-711.13</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2734,19 +2746,19 @@
         <v>41609</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D89" s="3">
-        <v>-711.130434782609</v>
+        <v>-391.3</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-711.130434782609</v>
+        <v>-391.3</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2754,19 +2766,19 @@
         <v>41609</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D90" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2774,19 +2786,19 @@
         <v>41609</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D91" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2794,19 +2806,19 @@
         <v>41609</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D92" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
       </c>
       <c r="F92" s="3">
-        <v>-391.304347826087</v>
+        <v>-391.3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2814,19 +2826,19 @@
         <v>41609</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D93" s="3">
-        <v>-391.304347826087</v>
+        <v>-696.52</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>-391.304347826087</v>
+        <v>-696.52</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2834,19 +2846,19 @@
         <v>41609</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D94" s="3">
-        <v>-696.521739130435</v>
+        <v>-478.26</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-696.521739130435</v>
+        <v>-478.26</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2854,39 +2866,39 @@
         <v>41609</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D95" s="3">
-        <v>-478.260869565217</v>
+        <v>-391.3</v>
       </c>
       <c r="E95" s="3">
         <v>0</v>
       </c>
       <c r="F95" s="3">
-        <v>-478.260869565217</v>
+        <v>-391.3</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D96" s="3">
-        <v>-391.304347826087</v>
+        <v>-1865.65</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-391.304347826087</v>
+        <v>-1865.65</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2894,19 +2906,19 @@
         <v>41640</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D97" s="3">
-        <v>-1865.65217391304</v>
+        <v>-793.83</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
       </c>
       <c r="F97" s="3">
-        <v>-1865.65217391304</v>
+        <v>-793.83</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2914,39 +2926,39 @@
         <v>41640</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D98" s="3">
-        <v>-793.826086956522</v>
+        <v>-617.83</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
       </c>
       <c r="F98" s="3">
-        <v>-793.826086956522</v>
+        <v>-617.83</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D99" s="3">
-        <v>-617.826086956522</v>
+        <v>-617.83</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>-617.826086956522</v>
+        <v>-617.83</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2954,39 +2966,39 @@
         <v>41671</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D100" s="3">
-        <v>-617.826086956522</v>
+        <v>-515.65</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-617.826086956522</v>
+        <v>-515.65</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D101" s="3">
-        <v>-515.652173913043</v>
+        <v>-2534.55</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-515.652173913043</v>
+        <v>-2534.55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2994,19 +3006,19 @@
         <v>41699</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D102" s="3">
-        <v>-2534.54545454545</v>
+        <v>-519.99</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-2534.54545454545</v>
+        <v>-519.99</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3014,19 +3026,19 @@
         <v>41699</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D103" s="3">
-        <v>-530</v>
+        <v>-519.99</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>-530</v>
+        <v>-519.99</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3034,19 +3046,19 @@
         <v>41699</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D104" s="3">
-        <v>-520</v>
+        <v>-787.77</v>
       </c>
       <c r="E104" s="3">
         <v>0</v>
       </c>
       <c r="F104" s="3">
-        <v>-520</v>
+        <v>-787.77</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3054,19 +3066,19 @@
         <v>41699</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D105" s="3">
-        <v>-787.77</v>
+        <v>-1916</v>
       </c>
       <c r="E105" s="3">
         <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>-787.77</v>
+        <v>-1916</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3074,19 +3086,19 @@
         <v>41699</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D106" s="3">
-        <v>-1916</v>
+        <v>-3149.5</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
       </c>
       <c r="F106" s="3">
-        <v>-1916</v>
+        <v>-3149.5</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3094,19 +3106,19 @@
         <v>41699</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D107" s="3">
-        <v>-3149.5</v>
+        <v>-272.73</v>
       </c>
       <c r="E107" s="3">
         <v>0</v>
       </c>
       <c r="F107" s="3">
-        <v>-3149.5</v>
+        <v>-272.73</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3114,19 +3126,19 @@
         <v>41699</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D108" s="3">
-        <v>-272.727272727273</v>
+        <v>-545.45</v>
       </c>
       <c r="E108" s="3">
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <v>-272.727272727273</v>
+        <v>-545.45</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3134,19 +3146,19 @@
         <v>41699</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D109" s="3">
-        <v>-545.454545454545</v>
+        <v>-2102.27</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>-545.454545454545</v>
+        <v>-2102.27</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3154,19 +3166,19 @@
         <v>41699</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D110" s="3">
-        <v>-2102.27272727273</v>
+        <v>-2075.82</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <v>-2102.27272727273</v>
+        <v>-2075.82</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3174,19 +3186,19 @@
         <v>41699</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D111" s="3">
-        <v>-2075.81818181818</v>
+        <v>-591.25</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <v>-2075.81818181818</v>
+        <v>-591.25</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3194,39 +3206,39 @@
         <v>41699</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D112" s="3">
-        <v>-591.363636363636</v>
+        <v>-631.36</v>
       </c>
       <c r="E112" s="3">
         <v>0</v>
       </c>
       <c r="F112" s="3">
-        <v>-591.363636363636</v>
+        <v>-631.36</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D113" s="3">
-        <v>-631.363636363636</v>
+        <v>-1849.27</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <v>-631.363636363636</v>
+        <v>-1849.27</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3234,19 +3246,19 @@
         <v>41730</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D114" s="3">
-        <v>-1849.27272727273</v>
+        <v>-519.99</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
       </c>
       <c r="F114" s="3">
-        <v>-1849.27272727273</v>
+        <v>-519.99</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3254,19 +3266,19 @@
         <v>41730</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D115" s="3">
-        <v>-520</v>
+        <v>-631.36</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <v>-520</v>
+        <v>-631.36</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3274,19 +3286,19 @@
         <v>41730</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D116" s="3">
-        <v>-631.363636363636</v>
+        <v>-631.36</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
       </c>
       <c r="F116" s="3">
-        <v>-631.363636363636</v>
+        <v>-631.36</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3294,19 +3306,19 @@
         <v>41730</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D117" s="3">
-        <v>-631.363636363636</v>
+        <v>-1203.41</v>
       </c>
       <c r="E117" s="3">
         <v>0</v>
       </c>
       <c r="F117" s="3">
-        <v>-631.363636363636</v>
+        <v>-1203.41</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3314,19 +3326,19 @@
         <v>41730</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D118" s="3">
-        <v>-1203.40909090909</v>
+        <v>-523.3</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
       </c>
       <c r="F118" s="3">
-        <v>-1203.40909090909</v>
+        <v>-523.3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3334,19 +3346,19 @@
         <v>41730</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="3">
-        <v>-523.295454545455</v>
+        <v>-631.36</v>
       </c>
       <c r="E119" s="3">
         <v>0</v>
       </c>
       <c r="F119" s="3">
-        <v>-523.295454545455</v>
+        <v>-631.36</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3354,19 +3366,19 @@
         <v>41730</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D120" s="3">
-        <v>-631.363636363636</v>
+        <v>-333.18</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
       </c>
       <c r="F120" s="3">
-        <v>-631.363636363636</v>
+        <v>-333.18</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3374,19 +3386,19 @@
         <v>41730</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D121" s="3">
-        <v>-333.181818181818</v>
+        <v>-1914.14</v>
       </c>
       <c r="E121" s="3">
         <v>0</v>
       </c>
       <c r="F121" s="3">
-        <v>-333.181818181818</v>
+        <v>-1914.14</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3394,39 +3406,39 @@
         <v>41730</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D122" s="3">
-        <v>-1914.13636363636</v>
+        <v>-631.36</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
       </c>
       <c r="F122" s="3">
-        <v>-1914.13636363636</v>
+        <v>-631.36</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D123" s="3">
-        <v>-631.363636363636</v>
+        <v>-625.68</v>
       </c>
       <c r="E123" s="3">
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <v>-631.363636363636</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3434,19 +3446,19 @@
         <v>41760</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D124" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
       <c r="E124" s="3">
         <v>0</v>
       </c>
       <c r="F124" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3454,19 +3466,19 @@
         <v>41760</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D125" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
       <c r="E125" s="3">
         <v>0</v>
       </c>
       <c r="F125" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3474,19 +3486,19 @@
         <v>41760</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D126" s="3">
-        <v>-625.675675675676</v>
+        <v>-1859.14</v>
       </c>
       <c r="E126" s="3">
         <v>0</v>
       </c>
       <c r="F126" s="3">
-        <v>-625.675675675676</v>
+        <v>-1859.14</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3494,19 +3506,19 @@
         <v>41760</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D127" s="3">
-        <v>-1859.14414414414</v>
+        <v>-2086.04</v>
       </c>
       <c r="E127" s="3">
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <v>-1859.14414414414</v>
+        <v>-2086.04</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3514,19 +3526,19 @@
         <v>41760</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D128" s="3">
-        <v>-2086.03603603604</v>
+        <v>-1859.14</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <v>-2086.03603603604</v>
+        <v>-1859.14</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3534,19 +3546,19 @@
         <v>41760</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D129" s="3">
-        <v>-1859.14414414414</v>
+        <v>-1704.5</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <v>-1859.14414414414</v>
+        <v>-1704.5</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3554,19 +3566,19 @@
         <v>41760</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D130" s="3">
-        <v>-1704.5045045045</v>
+        <v>-593.6</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <v>-1704.5045045045</v>
+        <v>-593.6</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3574,19 +3586,19 @@
         <v>41760</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D131" s="3">
-        <v>-593.603603603604</v>
+        <v>-1954.95</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <v>-593.603603603604</v>
+        <v>-1954.95</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3594,19 +3606,19 @@
         <v>41760</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D132" s="3">
-        <v>-1954.95495495495</v>
+        <v>-1538.42</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <v>-1954.95495495495</v>
+        <v>-1538.42</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3614,19 +3626,19 @@
         <v>41760</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D133" s="3">
-        <v>-1538.42342342342</v>
+        <v>-1531.53</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <v>-1538.42342342342</v>
+        <v>-1531.53</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3634,19 +3646,19 @@
         <v>41760</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D134" s="3">
-        <v>-1531.53153153153</v>
+        <v>-486.86</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <v>-1531.53153153153</v>
+        <v>-486.86</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3654,19 +3666,19 @@
         <v>41760</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D135" s="3">
-        <v>-486.86</v>
+        <v>-625.68</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <v>-486.86</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3674,39 +3686,39 @@
         <v>41760</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D136" s="3">
-        <v>-625.675675675676</v>
+        <v>-1880.27</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <v>-625.675675675676</v>
+        <v>-1880.27</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D137" s="3">
-        <v>-1880.27027027027</v>
+        <v>-625.68</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>-1880.27027027027</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3714,19 +3726,19 @@
         <v>41791</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D138" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
       <c r="E138" s="3">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3734,19 +3746,19 @@
         <v>41791</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D139" s="3">
-        <v>-625.675675675676</v>
+        <v>-615.87</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <v>-625.675675675676</v>
+        <v>-615.87</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3754,19 +3766,19 @@
         <v>41791</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D140" s="3">
-        <v>-615.87</v>
+        <v>-630.63</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <v>-615.87</v>
+        <v>-630.63</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3774,19 +3786,19 @@
         <v>41791</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D141" s="3">
-        <v>-630.630630630631</v>
+        <v>-668.47</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <v>-630.630630630631</v>
+        <v>-668.47</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3794,19 +3806,19 @@
         <v>41791</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D142" s="3">
-        <v>-668.468468468468</v>
+        <v>-1621.62</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
       </c>
       <c r="F142" s="3">
-        <v>-668.468468468468</v>
+        <v>-1621.62</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3814,19 +3826,19 @@
         <v>41791</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D143" s="3">
-        <v>-1621.62162162162</v>
+        <v>-1755.69</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
       </c>
       <c r="F143" s="3">
-        <v>-1621.62162162162</v>
+        <v>-1755.69</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3834,19 +3846,19 @@
         <v>41791</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D144" s="3">
-        <v>-1755.69369369369</v>
+        <v>-1490.92</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
       </c>
       <c r="F144" s="3">
-        <v>-1755.69369369369</v>
+        <v>-1490.92</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3854,19 +3866,19 @@
         <v>41791</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D145" s="3">
-        <v>-1490.91891891892</v>
+        <v>-1895.95</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
       </c>
       <c r="F145" s="3">
-        <v>-1490.91891891892</v>
+        <v>-1895.95</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3874,19 +3886,19 @@
         <v>41791</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D146" s="3">
-        <v>-1895.94594594595</v>
+        <v>-625.68</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <v>-1895.94594594595</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3894,19 +3906,19 @@
         <v>41791</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D147" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <v>-625.675675675676</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3914,39 +3926,39 @@
         <v>41791</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D148" s="3">
-        <v>-625.675675675676</v>
+        <v>-1950.9</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <v>-625.675675675676</v>
+        <v>-1950.9</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D149" s="3">
-        <v>-1950.9009009009</v>
+        <v>-1950.9</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <v>-1950.9009009009</v>
+        <v>-1950.9</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3954,19 +3966,19 @@
         <v>41821</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D150" s="3">
-        <v>-1950.9009009009</v>
+        <v>-625.68</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <v>-1950.9009009009</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3974,19 +3986,19 @@
         <v>41821</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D151" s="3">
-        <v>-625.675675675676</v>
+        <v>-469.59</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <v>-625.675675675676</v>
+        <v>-469.59</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3994,19 +4006,19 @@
         <v>41821</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D152" s="3">
-        <v>-1607.35585585586</v>
+        <v>-1963.06306306306</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>-1607.35585585586</v>
+        <v>-1963.06306306306</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4014,19 +4026,19 @@
         <v>41821</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D153" s="3">
-        <v>-469.594594594595</v>
+        <v>-330.18</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <v>-469.594594594595</v>
+        <v>-330.18</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4034,19 +4046,19 @@
         <v>41821</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D154" s="3">
-        <v>-1950.45045045045</v>
+        <v>-1951.53</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>-1950.45045045045</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4054,19 +4066,19 @@
         <v>41821</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D155" s="3">
-        <v>-330.18</v>
+        <v>-1806.35</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>-330.18</v>
+        <v>-1806.35</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4074,19 +4086,19 @@
         <v>41821</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D156" s="3">
-        <v>-1951.53153153153</v>
+        <v>-1951.53</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>-1951.53153153153</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4094,19 +4106,19 @@
         <v>41821</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D157" s="3">
-        <v>-1806.35135135135</v>
+        <v>-1607.36</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <v>-1806.35135135135</v>
+        <v>-1607.36</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4114,19 +4126,19 @@
         <v>41821</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D158" s="3">
-        <v>-1951.53153153153</v>
+        <v>-563.96</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <v>-1951.53153153153</v>
+        <v>-563.96</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4134,19 +4146,19 @@
         <v>41821</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D159" s="3">
-        <v>-563.963963963964</v>
+        <v>-540.54</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>-563.963963963964</v>
+        <v>-540.54</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4154,19 +4166,19 @@
         <v>41821</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D160" s="3">
-        <v>-540.540540540541</v>
+        <v>-2044.51</v>
       </c>
       <c r="E160" s="3">
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>-540.540540540541</v>
+        <v>-2044.51</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4174,19 +4186,19 @@
         <v>41821</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D161" s="3">
-        <v>-2044.51351351351</v>
+        <v>-552.43</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>-2044.51351351351</v>
+        <v>-552.43</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4194,19 +4206,19 @@
         <v>41821</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D162" s="3">
-        <v>-552.432432432432</v>
+        <v>-45.05</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>-552.432432432432</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4214,19 +4226,19 @@
         <v>41821</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D163" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E163" s="3">
         <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4234,19 +4246,19 @@
         <v>41821</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D164" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E164" s="3">
         <v>0</v>
       </c>
       <c r="F164" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4254,19 +4266,19 @@
         <v>41821</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D165" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E165" s="3">
         <v>0</v>
       </c>
       <c r="F165" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4274,19 +4286,19 @@
         <v>41821</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D166" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E166" s="3">
         <v>0</v>
       </c>
       <c r="F166" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4294,19 +4306,19 @@
         <v>41821</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D167" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E167" s="3">
         <v>0</v>
       </c>
       <c r="F167" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4314,19 +4326,19 @@
         <v>41821</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D168" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E168" s="3">
         <v>0</v>
       </c>
       <c r="F168" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4334,19 +4346,19 @@
         <v>41821</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D169" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E169" s="3">
         <v>0</v>
       </c>
       <c r="F169" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4354,19 +4366,19 @@
         <v>41821</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D170" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E170" s="3">
         <v>0</v>
       </c>
       <c r="F170" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4374,19 +4386,19 @@
         <v>41821</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D171" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E171" s="3">
         <v>0</v>
       </c>
       <c r="F171" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4394,19 +4406,19 @@
         <v>41821</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D172" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E172" s="3">
         <v>0</v>
       </c>
       <c r="F172" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4414,19 +4426,19 @@
         <v>41821</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D173" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
       <c r="E173" s="3">
         <v>0</v>
       </c>
       <c r="F173" s="3">
-        <v>-45.045045045045</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4434,19 +4446,19 @@
         <v>41821</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D174" s="3">
-        <v>-45.045045045045</v>
+        <v>-625.68</v>
       </c>
       <c r="E174" s="3">
         <v>0</v>
       </c>
       <c r="F174" s="3">
-        <v>-45.045045045045</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4454,39 +4466,39 @@
         <v>41821</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D175" s="3">
-        <v>-625.675675675676</v>
+        <v>-480.38</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>-625.675675675676</v>
+        <v>-480.38</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D176" s="3">
-        <v>-480.382882882883</v>
+        <v>-5.33333333333333</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>-480.382882882883</v>
+        <v>-5.33333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4494,19 +4506,19 @@
         <v>41852</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D177" s="3">
-        <v>-625.675675675676</v>
+        <v>-1292.44444444444</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>-625.675675675676</v>
+        <v>-1292.44444444444</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4514,19 +4526,19 @@
         <v>41852</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D178" s="3">
-        <v>-706.342342342342</v>
+        <v>-1155.55555555556</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>-706.342342342342</v>
+        <v>-1155.55555555556</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4534,19 +4546,139 @@
         <v>41852</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="3">
+        <v>-625.68</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>-625.68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D180" s="3">
+        <v>-257.48</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>-257.48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D181" s="3">
+        <v>-612.355555555555</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>-612.355555555555</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" s="3">
+        <v>-1913.36888888889</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>-1913.36888888889</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D179" s="3">
-        <v>-405.405405405405</v>
-      </c>
-      <c r="E179" s="3">
-        <v>0</v>
-      </c>
-      <c r="F179" s="3">
-        <v>-405.405405405405</v>
+      <c r="C183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="3">
+        <v>-333.333333333333</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>-333.333333333333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="3">
+        <v>-405.41</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>-405.41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" s="3">
+        <v>-834.666666666667</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>-834.666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -3872,13 +3872,13 @@
         <v>184</v>
       </c>
       <c r="D145" s="3">
-        <v>-1895.95</v>
+        <v>-1895.94594594595</v>
       </c>
       <c r="E145" s="3">
-        <v>0</v>
+        <v>-935.44</v>
       </c>
       <c r="F145" s="3">
-        <v>-1895.95</v>
+        <v>-2831.38594594595</v>
       </c>
     </row>
     <row r="146" spans="1:6">

--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Encoding U$</t>
   </si>
   <si>
-    <t>Media</t>
+    <t>Media U$</t>
   </si>
   <si>
     <t>Recoupable</t>
@@ -214,7 +214,7 @@
     <t>Angel's share</t>
   </si>
   <si>
-    <t>Love is all you need</t>
+    <t>Love is All you need</t>
   </si>
   <si>
     <t>Um alguém apaixonado</t>
@@ -493,6 +493,9 @@
     <t>Quai d´Orsay</t>
   </si>
   <si>
+    <t>Rob the mob</t>
+  </si>
+  <si>
     <t>Tabu</t>
   </si>
   <si>
@@ -535,7 +538,7 @@
     <t>The man who laughs</t>
   </si>
   <si>
-    <t>Um Plain Parfait</t>
+    <t>Un Plain Parfait</t>
   </si>
   <si>
     <t>Avanti Popolo</t>
@@ -550,6 +553,9 @@
     <t>In the blood</t>
   </si>
   <si>
+    <t>O dia que durou 21 anos</t>
+  </si>
+  <si>
     <t>Out in the dark</t>
   </si>
   <si>
@@ -565,6 +571,282 @@
     <t>Tarja Branca</t>
   </si>
   <si>
+    <t>Arretez-moi</t>
+  </si>
+  <si>
+    <t>Avant L' Hiver</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: A Barata</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: A Pulga e o Percevejo</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Boi da Cara Preta</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Borboleta</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Cachorrinho está Latindo</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Carneirinho, Carneirão</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Não Atire o Pau no Gato</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: O Sapo Não Lava o Pé</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Olha o Macaco na Roda Cotia</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Peixe Vivo</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Sabiá</t>
+  </si>
+  <si>
+    <t>DO, RÉ, MI, FÁ, Bichos e Bichinhos: Sapo Cururu</t>
+  </si>
+  <si>
+    <t>El Volcán</t>
+  </si>
+  <si>
+    <t>Elle s'en va</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Iron Clad: Battle of Blood</t>
+  </si>
+  <si>
+    <t>Khumba</t>
+  </si>
+  <si>
+    <t>Love is All You Need</t>
+  </si>
+  <si>
+    <t>Populaire</t>
+  </si>
+  <si>
+    <t>Praia do Futuro</t>
+  </si>
+  <si>
+    <t>Rescatando a Santa</t>
+  </si>
+  <si>
+    <t>Setenta</t>
+  </si>
+  <si>
+    <t>Una pistola en cada mano</t>
+  </si>
+  <si>
+    <t>9 mois ferme</t>
+  </si>
+  <si>
+    <t>Cartas a Elena</t>
+  </si>
+  <si>
+    <t>City of God: 10 Years Later</t>
+  </si>
+  <si>
+    <t>Democracia em Preto e Branco</t>
+  </si>
+  <si>
+    <t>Do not Disturb</t>
+  </si>
+  <si>
+    <t>El Cartel de los sapos</t>
+  </si>
+  <si>
+    <t>Morning Star</t>
+  </si>
+  <si>
+    <t>Não pare na pista</t>
+  </si>
+  <si>
+    <t>Open Windows</t>
+  </si>
+  <si>
+    <t>Radical</t>
+  </si>
+  <si>
+    <t>Seed 2</t>
+  </si>
+  <si>
+    <t>Sobre sete ondas verdes espumantes</t>
+  </si>
+  <si>
+    <t>The Bag Man</t>
+  </si>
+  <si>
+    <t>Tierra en la Lengua</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>Ventanas al Mar</t>
+  </si>
+  <si>
+    <t>Viva La Libertà</t>
+  </si>
+  <si>
+    <t>Wadjda</t>
+  </si>
+  <si>
+    <t>Walesa</t>
+  </si>
+  <si>
+    <t>Alceste à bicyclette</t>
+  </si>
+  <si>
+    <t>Alla y Entonces</t>
+  </si>
+  <si>
+    <t>Angriest man in Brooklyn</t>
+  </si>
+  <si>
+    <t>Bistrot Romantik</t>
+  </si>
+  <si>
+    <t>Born to race: Fast Track</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Ciudadano Kramer</t>
+  </si>
+  <si>
+    <t>Code unconu</t>
+  </si>
+  <si>
+    <t>Eddie The Sleepwalking Cannibal</t>
+  </si>
+  <si>
+    <t>El perro que salvó las Pascuas</t>
+  </si>
+  <si>
+    <t>Feito gente grande</t>
+  </si>
+  <si>
+    <t>Gotitas de Alegria</t>
+  </si>
+  <si>
+    <t>Helio Oiticica</t>
+  </si>
+  <si>
+    <t>Le Grand Mechant Loup</t>
+  </si>
+  <si>
+    <t>Mejor otro dia</t>
+  </si>
+  <si>
+    <t>Neighbouring Sounds</t>
+  </si>
+  <si>
+    <t>Norwegian Wood</t>
+  </si>
+  <si>
+    <t>O artista e a modelo</t>
+  </si>
+  <si>
+    <t>Only in New York</t>
+  </si>
+  <si>
+    <t>Os filhos do padre</t>
+  </si>
+  <si>
+    <t>Otto, El Rinoceronte</t>
+  </si>
+  <si>
+    <t>Que hacemos con Maise?</t>
+  </si>
+  <si>
+    <t>Quebranto</t>
+  </si>
+  <si>
+    <t>Silencio Del Más Allá</t>
+  </si>
+  <si>
+    <t>Stefan versus Kramer</t>
+  </si>
+  <si>
+    <t>The Human Race</t>
+  </si>
+  <si>
+    <t>Um belo domingo</t>
+  </si>
+  <si>
+    <t>Aimer, boire et chanter</t>
+  </si>
+  <si>
+    <t>Bebê Mais Cantigas</t>
+  </si>
+  <si>
+    <t>Devil´s Knot</t>
+  </si>
+  <si>
+    <t>Dom Hemingway</t>
+  </si>
+  <si>
+    <t>Ilegal</t>
+  </si>
+  <si>
+    <t>Miguel san Miguel</t>
+  </si>
+  <si>
+    <t>Ninfomanía Vol 1</t>
+  </si>
+  <si>
+    <t>Ninfomanía Vol 2</t>
+  </si>
+  <si>
+    <t>O casamento de May</t>
+  </si>
+  <si>
+    <t>O mar ao amanhecer</t>
+  </si>
+  <si>
+    <t>Oh Boy</t>
+  </si>
+  <si>
+    <t>Pesadelos do Passado 2</t>
+  </si>
+  <si>
+    <t>São Silvestre</t>
+  </si>
+  <si>
+    <t>Tim Maia</t>
+  </si>
+  <si>
+    <t>Wakolda</t>
+  </si>
+  <si>
+    <t>Bem vindo a Nova York</t>
+  </si>
+  <si>
+    <t>Mil vezes boa noite</t>
+  </si>
+  <si>
+    <t>Minuscule</t>
+  </si>
+  <si>
+    <t>Reach Me</t>
+  </si>
+  <si>
+    <t>The Imigrant</t>
+  </si>
+  <si>
+    <t>Violette</t>
+  </si>
+  <si>
     <t>Tag Cultural</t>
   </si>
   <si>
@@ -607,10 +889,28 @@
     <t>Zima</t>
   </si>
   <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Europa Filmes</t>
   </si>
   <si>
     <t>Esfera</t>
+  </si>
+  <si>
+    <t>Alpha Filmes</t>
+  </si>
+  <si>
+    <t>Alfhaville</t>
+  </si>
+  <si>
+    <t>3 Film Group</t>
+  </si>
+  <si>
+    <t>Nueva Era</t>
+  </si>
+  <si>
+    <t>Prodigo</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D2" s="3">
         <v>-924.01</v>
@@ -1029,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3">
         <v>-692.28</v>
@@ -1049,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D4" s="3">
         <v>-1035</v>
@@ -1069,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D5" s="3">
         <v>-589.74</v>
@@ -1089,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D6" s="3">
         <v>-352.53</v>
@@ -1109,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D7" s="3">
         <v>-27.72</v>
@@ -1129,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3">
         <v>-27.72</v>
@@ -1149,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D9" s="3">
         <v>-27.72</v>
@@ -1169,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D10" s="3">
         <v>-27.72</v>
@@ -1189,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3">
         <v>-27.72</v>
@@ -1209,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D12" s="3">
         <v>-27.72</v>
@@ -1229,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D13" s="3">
         <v>-27.72</v>
@@ -1249,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D14" s="3">
         <v>-27.72</v>
@@ -1269,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D15" s="3">
         <v>-27.72</v>
@@ -1289,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D16" s="3">
         <v>-27.72</v>
@@ -1309,7 +1609,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D17" s="3">
         <v>-27.72</v>
@@ -1329,7 +1629,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D18" s="3">
         <v>-27.72</v>
@@ -1349,7 +1649,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D19" s="3">
         <v>-27.72</v>
@@ -1369,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D20" s="3">
         <v>-27.72</v>
@@ -1389,7 +1689,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D21" s="3">
         <v>-27.72</v>
@@ -1409,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D22" s="3">
         <v>-27.72</v>
@@ -1429,7 +1729,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D23" s="3">
         <v>-27.72</v>
@@ -1449,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D24" s="3">
         <v>-27.72</v>
@@ -1469,7 +1769,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D25" s="3">
         <v>-27.72</v>
@@ -1489,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D26" s="3">
         <v>-27.72</v>
@@ -1509,7 +1809,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3">
         <v>-27.72</v>
@@ -1529,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D28" s="3">
         <v>-27.72</v>
@@ -1549,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D29" s="3">
         <v>-27.72</v>
@@ -1569,7 +1869,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D30" s="3">
         <v>-27.72</v>
@@ -1589,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D31" s="3">
         <v>-27.72</v>
@@ -1609,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D32" s="3">
         <v>-27.72</v>
@@ -1629,7 +1929,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D33" s="3">
         <v>-27.72</v>
@@ -1649,7 +1949,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D34" s="3">
         <v>-27.72</v>
@@ -1669,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D35" s="3">
         <v>-27.72</v>
@@ -1689,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D36" s="3">
         <v>-27.72</v>
@@ -1709,7 +2009,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D37" s="3">
         <v>-27.72</v>
@@ -1729,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D38" s="3">
         <v>-27.72</v>
@@ -1749,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D39" s="3">
         <v>-27.72</v>
@@ -1769,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D40" s="3">
         <v>-27.72</v>
@@ -1789,7 +2089,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D41" s="3">
         <v>-27.72</v>
@@ -1809,7 +2109,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D42" s="3">
         <v>-27.72</v>
@@ -1829,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D43" s="3">
         <v>-27.72</v>
@@ -1849,7 +2149,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D44" s="3">
         <v>-27.72</v>
@@ -1869,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D45" s="3">
         <v>-27.72</v>
@@ -1889,7 +2189,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D46" s="3">
         <v>-27.72</v>
@@ -1909,7 +2209,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D47" s="3">
         <v>-27.72</v>
@@ -1929,7 +2229,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D48" s="3">
         <v>-27.72</v>
@@ -1949,7 +2249,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D49" s="3">
         <v>-857.92</v>
@@ -1969,7 +2269,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D50" s="3">
         <v>-962.44</v>
@@ -1989,7 +2289,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D51" s="3">
         <v>-45.69</v>
@@ -2009,7 +2309,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D52" s="3">
         <v>-25.03</v>
@@ -2029,7 +2329,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D53" s="3">
         <v>-1035</v>
@@ -2049,7 +2349,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D54" s="3">
         <v>-785.97</v>
@@ -2069,7 +2369,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D55" s="3">
         <v>-692.28</v>
@@ -2089,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D56" s="3">
         <v>-589.74</v>
@@ -2109,7 +2409,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D57" s="3">
         <v>-645.91</v>
@@ -2129,7 +2429,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D58" s="3">
         <v>-308.91</v>
@@ -2149,7 +2449,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D59" s="3">
         <v>-922.17</v>
@@ -2169,7 +2469,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D60" s="3">
         <v>-308.91</v>
@@ -2189,7 +2489,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D61" s="3">
         <v>-1106.57</v>
@@ -2209,7 +2509,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="D62" s="3">
         <v>-711.36</v>
@@ -2229,7 +2529,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D63" s="3">
         <v>-1156.86</v>
@@ -2249,7 +2549,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D64" s="3">
         <v>-228</v>
@@ -2269,7 +2569,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D65" s="3">
         <v>-617.83</v>
@@ -2289,7 +2589,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D66" s="3">
         <v>-1156.86</v>
@@ -2309,7 +2609,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D67" s="3">
         <v>-887.77</v>
@@ -2329,7 +2629,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D68" s="3">
         <v>-228</v>
@@ -2349,7 +2649,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="D69" s="3">
         <v>-711.36</v>
@@ -2369,7 +2669,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D70" s="3">
         <v>-645.91</v>
@@ -2389,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D71" s="3">
         <v>-645.91</v>
@@ -2409,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D72" s="3">
         <v>-664.09</v>
@@ -2429,7 +2729,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D73" s="3">
         <v>-617.83</v>
@@ -2449,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D74" s="3">
         <v>-645.91</v>
@@ -2469,7 +2769,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D75" s="3">
         <v>-750</v>
@@ -2489,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D76" s="3">
         <v>-609.99</v>
@@ -2509,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D77" s="3">
         <v>-623.64</v>
@@ -2529,7 +2829,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3">
         <v>-711.36</v>
@@ -2549,7 +2849,7 @@
         <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D79" s="3">
         <v>-557.55</v>
@@ -2569,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D80" s="3">
         <v>-645.91</v>
@@ -2589,7 +2889,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D81" s="3">
         <v>-737.64</v>
@@ -2609,7 +2909,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D82" s="3">
         <v>-1242</v>
@@ -2629,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="D83" s="3">
         <v>-409.09</v>
@@ -2649,7 +2949,7 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D84" s="3">
         <v>-751.14</v>
@@ -2669,7 +2969,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D85" s="3">
         <v>-645.91</v>
@@ -2689,7 +2989,7 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3">
         <v>-1786.82</v>
@@ -2709,7 +3009,7 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="D87" s="3">
         <v>-521.74</v>
@@ -2729,7 +3029,7 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D88" s="3">
         <v>-711.13</v>
@@ -2749,7 +3049,7 @@
         <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="D89" s="3">
         <v>-391.3</v>
@@ -2769,7 +3069,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="D90" s="3">
         <v>-391.3</v>
@@ -2789,7 +3089,7 @@
         <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="D91" s="3">
         <v>-391.3</v>
@@ -2809,7 +3109,7 @@
         <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="D92" s="3">
         <v>-391.3</v>
@@ -2829,7 +3129,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D93" s="3">
         <v>-696.52</v>
@@ -2849,7 +3149,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="D94" s="3">
         <v>-478.26</v>
@@ -2869,7 +3169,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D95" s="3">
         <v>-391.3</v>
@@ -2889,7 +3189,7 @@
         <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D96" s="3">
         <v>-1865.65</v>
@@ -2909,7 +3209,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D97" s="3">
         <v>-793.83</v>
@@ -2929,7 +3229,7 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D98" s="3">
         <v>-617.83</v>
@@ -2949,7 +3249,7 @@
         <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D99" s="3">
         <v>-617.83</v>
@@ -2969,7 +3269,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="D100" s="3">
         <v>-515.65</v>
@@ -2989,7 +3289,7 @@
         <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D101" s="3">
         <v>-2534.55</v>
@@ -3009,7 +3309,7 @@
         <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D102" s="3">
         <v>-519.99</v>
@@ -3029,7 +3329,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D103" s="3">
         <v>-519.99</v>
@@ -3049,7 +3349,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D104" s="3">
         <v>-787.77</v>
@@ -3069,7 +3369,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D105" s="3">
         <v>-1916</v>
@@ -3089,7 +3389,7 @@
         <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D106" s="3">
         <v>-3149.5</v>
@@ -3109,7 +3409,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="D107" s="3">
         <v>-272.73</v>
@@ -3129,7 +3429,7 @@
         <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="D108" s="3">
         <v>-545.45</v>
@@ -3149,7 +3449,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D109" s="3">
         <v>-2102.27</v>
@@ -3169,7 +3469,7 @@
         <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D110" s="3">
         <v>-2075.82</v>
@@ -3189,7 +3489,7 @@
         <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D111" s="3">
         <v>-591.25</v>
@@ -3209,7 +3509,7 @@
         <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D112" s="3">
         <v>-631.36</v>
@@ -3229,7 +3529,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D113" s="3">
         <v>-1849.27</v>
@@ -3249,7 +3549,7 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D114" s="3">
         <v>-519.99</v>
@@ -3269,7 +3569,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D115" s="3">
         <v>-631.36</v>
@@ -3289,7 +3589,7 @@
         <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D116" s="3">
         <v>-631.36</v>
@@ -3309,7 +3609,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D117" s="3">
         <v>-1203.41</v>
@@ -3329,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D118" s="3">
         <v>-523.3</v>
@@ -3349,7 +3649,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D119" s="3">
         <v>-631.36</v>
@@ -3369,7 +3669,7 @@
         <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D120" s="3">
         <v>-333.18</v>
@@ -3389,7 +3689,7 @@
         <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D121" s="3">
         <v>-1914.14</v>
@@ -3409,7 +3709,7 @@
         <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D122" s="3">
         <v>-631.36</v>
@@ -3429,7 +3729,7 @@
         <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D123" s="3">
         <v>-625.68</v>
@@ -3449,7 +3749,7 @@
         <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D124" s="3">
         <v>-625.68</v>
@@ -3469,7 +3769,7 @@
         <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D125" s="3">
         <v>-625.68</v>
@@ -3489,7 +3789,7 @@
         <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D126" s="3">
         <v>-1859.14</v>
@@ -3509,7 +3809,7 @@
         <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D127" s="3">
         <v>-2086.04</v>
@@ -3529,7 +3829,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D128" s="3">
         <v>-1859.14</v>
@@ -3549,7 +3849,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D129" s="3">
         <v>-1704.5</v>
@@ -3569,7 +3869,7 @@
         <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D130" s="3">
         <v>-593.6</v>
@@ -3589,7 +3889,7 @@
         <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D131" s="3">
         <v>-1954.95</v>
@@ -3609,7 +3909,7 @@
         <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="D132" s="3">
         <v>-1538.42</v>
@@ -3629,7 +3929,7 @@
         <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="D133" s="3">
         <v>-1531.53</v>
@@ -3649,7 +3949,7 @@
         <v>122</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D134" s="3">
         <v>-486.86</v>
@@ -3669,7 +3969,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D135" s="3">
         <v>-625.68</v>
@@ -3689,7 +3989,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D136" s="3">
         <v>-1880.27</v>
@@ -3709,7 +4009,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D137" s="3">
         <v>-625.68</v>
@@ -3729,7 +4029,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D138" s="3">
         <v>-625.68</v>
@@ -3749,7 +4049,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D139" s="3">
         <v>-615.87</v>
@@ -3769,7 +4069,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="D140" s="3">
         <v>-630.63</v>
@@ -3789,7 +4089,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="D141" s="3">
         <v>-668.47</v>
@@ -3809,7 +4109,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="D142" s="3">
         <v>-1621.62</v>
@@ -3829,7 +4129,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D143" s="3">
         <v>-1755.69</v>
@@ -3849,7 +4149,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D144" s="3">
         <v>-1490.92</v>
@@ -3869,16 +4169,16 @@
         <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D145" s="3">
         <v>-1895.94594594595</v>
       </c>
       <c r="E145" s="3">
-        <v>-935.44</v>
+        <v>-935.42</v>
       </c>
       <c r="F145" s="3">
-        <v>-2831.38594594595</v>
+        <v>-2831.36594594595</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3889,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D146" s="3">
         <v>-625.68</v>
@@ -3909,7 +4209,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D147" s="3">
         <v>-625.68</v>
@@ -3929,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D148" s="3">
         <v>-1950.9</v>
@@ -3949,7 +4249,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D149" s="3">
         <v>-1950.9</v>
@@ -3969,7 +4269,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D150" s="3">
         <v>-625.68</v>
@@ -3989,7 +4289,7 @@
         <v>118</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="D151" s="3">
         <v>-469.59</v>
@@ -4009,7 +4309,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D152" s="3">
         <v>-1963.06306306306</v>
@@ -4029,7 +4329,7 @@
         <v>121</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D153" s="3">
         <v>-330.18</v>
@@ -4049,7 +4349,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D154" s="3">
         <v>-1951.53</v>
@@ -4069,7 +4369,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D155" s="3">
         <v>-1806.35</v>
@@ -4089,7 +4389,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D156" s="3">
         <v>-1951.53</v>
@@ -4109,7 +4409,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D157" s="3">
         <v>-1607.36</v>
@@ -4129,7 +4429,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="D158" s="3">
         <v>-563.96</v>
@@ -4149,7 +4449,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D159" s="3">
         <v>-540.54</v>
@@ -4169,7 +4469,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D160" s="3">
         <v>-2044.51</v>
@@ -4189,16 +4489,16 @@
         <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="D161" s="3">
-        <v>-552.43</v>
+        <v>-625.675675675676</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>-552.43</v>
+        <v>-625.675675675676</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4209,16 +4509,16 @@
         <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="D162" s="3">
-        <v>-45.05</v>
+        <v>-552.43</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>-45.05</v>
+        <v>-552.43</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4229,7 +4529,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D163" s="3">
         <v>-45.05</v>
@@ -4249,7 +4549,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D164" s="3">
         <v>-45.05</v>
@@ -4269,7 +4569,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D165" s="3">
         <v>-45.05</v>
@@ -4289,7 +4589,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D166" s="3">
         <v>-45.05</v>
@@ -4309,7 +4609,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D167" s="3">
         <v>-45.05</v>
@@ -4329,7 +4629,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D168" s="3">
         <v>-45.05</v>
@@ -4349,7 +4649,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D169" s="3">
         <v>-45.05</v>
@@ -4369,7 +4669,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D170" s="3">
         <v>-45.05</v>
@@ -4389,7 +4689,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D171" s="3">
         <v>-45.05</v>
@@ -4409,7 +4709,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D172" s="3">
         <v>-45.05</v>
@@ -4429,7 +4729,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D173" s="3">
         <v>-45.05</v>
@@ -4449,16 +4749,16 @@
         <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="D174" s="3">
-        <v>-625.68</v>
+        <v>-45.05</v>
       </c>
       <c r="E174" s="3">
         <v>0</v>
       </c>
       <c r="F174" s="3">
-        <v>-625.68</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4469,36 +4769,36 @@
         <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="D175" s="3">
-        <v>-480.38</v>
+        <v>-625.68</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>-480.38</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D176" s="3">
-        <v>-5.33333333333333</v>
+        <v>-1577.20720720721</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>-5.33333333333333</v>
+        <v>-1577.20720720721</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4509,16 +4809,16 @@
         <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="D177" s="3">
-        <v>-1292.44444444444</v>
+        <v>-6.51555555555556</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>-1292.44444444444</v>
+        <v>-6.51555555555556</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4529,16 +4829,16 @@
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D178" s="3">
-        <v>-1155.55555555556</v>
+        <v>-1292.44444444444</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>-1155.55555555556</v>
+        <v>-1292.44444444444</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4549,16 +4849,16 @@
         <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="D179" s="3">
-        <v>-625.68</v>
+        <v>-1155.55555555556</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
       </c>
       <c r="F179" s="3">
-        <v>-625.68</v>
+        <v>-1155.55555555556</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4566,19 +4866,19 @@
         <v>41852</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D180" s="3">
-        <v>-257.48</v>
+        <v>-625.68</v>
       </c>
       <c r="E180" s="3">
         <v>0</v>
       </c>
       <c r="F180" s="3">
-        <v>-257.48</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4586,19 +4886,19 @@
         <v>41852</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="D181" s="3">
-        <v>-612.355555555555</v>
+        <v>-433.035555555556</v>
       </c>
       <c r="E181" s="3">
         <v>0</v>
       </c>
       <c r="F181" s="3">
-        <v>-612.355555555555</v>
+        <v>-433.035555555556</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4609,16 +4909,16 @@
         <v>179</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="D182" s="3">
-        <v>-1913.36888888889</v>
+        <v>-1629.99</v>
       </c>
       <c r="E182" s="3">
         <v>0</v>
       </c>
       <c r="F182" s="3">
-        <v>-1913.36888888889</v>
+        <v>-1629.99</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4629,16 +4929,16 @@
         <v>180</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="D183" s="3">
-        <v>-333.333333333333</v>
+        <v>-612.355555555555</v>
       </c>
       <c r="E183" s="3">
         <v>0</v>
       </c>
       <c r="F183" s="3">
-        <v>-333.333333333333</v>
+        <v>-612.355555555555</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4649,16 +4949,16 @@
         <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="D184" s="3">
-        <v>-405.41</v>
+        <v>-1908.03555555556</v>
       </c>
       <c r="E184" s="3">
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>-405.41</v>
+        <v>-1908.03555555556</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4669,16 +4969,2036 @@
         <v>182</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D185" s="3">
+        <v>-335.404444444444</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>-335.404444444444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D186" s="3">
+        <v>-405.41</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>-405.41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D185" s="3">
-        <v>-834.666666666667</v>
-      </c>
-      <c r="E185" s="3">
-        <v>0</v>
-      </c>
-      <c r="F185" s="3">
-        <v>-834.666666666667</v>
+      <c r="C187" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D187" s="3">
+        <v>-12.4444444444444</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>-12.4444444444444</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D188" s="3">
+        <v>-1992.44444444444</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>-1992.44444444444</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D189" s="3">
+        <v>-1883.28888888889</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>-1883.28888888889</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D190" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D191" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D192" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D193" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D194" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D195" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D196" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D197" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D199" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D200" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D201" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>-44.4444444444444</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D202" s="3">
+        <v>-618.515555555556</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>-618.515555555556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D203" s="3">
+        <v>-815.946666666667</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>-815.946666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D204" s="3">
+        <v>-1739.28888888889</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>-1739.28888888889</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D205" s="3">
+        <v>-2498.88888888889</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>-2498.88888888889</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D206" s="3">
+        <v>-618.888888888889</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>-618.888888888889</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" s="3">
+        <v>-850.22</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>-850.22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D208" s="3">
+        <v>-578.071111111111</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>-578.071111111111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D209" s="3">
+        <v>-1289.2</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>-1289.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D210" s="3">
+        <v>-729.626666666667</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>-729.626666666667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D211" s="3">
+        <v>-683.848888888889</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>-683.848888888889</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D212" s="3">
+        <v>-2138.97777777778</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>-2138.97777777778</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D213" s="3">
+        <v>-1196.83673469388</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>-1196.83673469388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D214" s="3">
+        <v>-332.755102040816</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>-332.755102040816</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D215" s="3">
+        <v>-1980.9</v>
+      </c>
+      <c r="E215" s="3">
+        <v>-34.98</v>
+      </c>
+      <c r="F215" s="3">
+        <v>-2015.88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D216" s="3">
+        <v>-882.040816326531</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>-882.040816326531</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D217" s="3">
+        <v>-937.408163265306</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+      <c r="F217" s="3">
+        <v>-937.408163265306</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D218" s="3">
+        <v>-1226.88</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>-1226.88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D219" s="3">
+        <v>-1077.24489795918</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>-1077.24489795918</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D220" s="3">
+        <v>-734.69387755102</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0</v>
+      </c>
+      <c r="F220" s="3">
+        <v>-734.69387755102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>-35</v>
+      </c>
+      <c r="F221" s="3">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D222" s="3">
+        <v>-1522.04081632653</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>-1522.04081632653</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D223" s="3">
+        <v>-832.877551020408</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>-832.877551020408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D224" s="3">
+        <v>-1099.69387755102</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>-1099.69387755102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D225" s="3">
+        <v>-371.938775510204</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>-371.938775510204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D226" s="3">
+        <v>-566.938775510204</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>-566.938775510204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D227" s="3">
+        <v>-731.942857142857</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>-731.942857142857</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D228" s="3">
+        <v>-1041.32653061224</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>-1041.32653061224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D229" s="3">
+        <v>-283.469387755102</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>-283.469387755102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D230" s="3">
+        <v>-369.489795918367</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>-369.489795918367</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D231" s="3">
+        <v>-1169.08163265306</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>-1169.08163265306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D232" s="3">
+        <v>-209.387755102041</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>-209.387755102041</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D233" s="3">
+        <v>-209.387755102041</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>-209.387755102041</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D234" s="3">
+        <v>-1256.95510204082</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>-1256.95510204082</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D235" s="3">
+        <v>-409.12</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>-409.12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D236" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D237" s="3">
+        <v>-555.6</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>-555.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D238" s="3">
+        <v>-1478.2</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0</v>
+      </c>
+      <c r="F238" s="3">
+        <v>-1478.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D239" s="3">
+        <v>-555.6</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>-555.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D240" s="3">
+        <v>-408</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D241" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D242" s="3">
+        <v>-435.12</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0</v>
+      </c>
+      <c r="F242" s="3">
+        <v>-435.12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D243" s="3">
+        <v>-410.1</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>-410.1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" s="3">
+        <v>-555.6</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>-555.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D245" s="3">
+        <v>-1554.048</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>-1554.048</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D246" s="3">
+        <v>-216</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>-216</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D247" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E247" s="3">
+        <v>0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D248" s="3">
+        <v>-168</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0</v>
+      </c>
+      <c r="F248" s="3">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D249" s="3">
+        <v>-408</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D250" s="3">
+        <v>-555.6</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0</v>
+      </c>
+      <c r="F250" s="3">
+        <v>-555.6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D251" s="3">
+        <v>-640</v>
+      </c>
+      <c r="E251" s="3">
+        <v>0</v>
+      </c>
+      <c r="F251" s="3">
+        <v>-640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D252" s="3">
+        <v>-1904.848</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+      <c r="F252" s="3">
+        <v>-1904.848</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D253" s="3">
+        <v>-408</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+      <c r="F253" s="3">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D254" s="3">
+        <v>-1807.6</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0</v>
+      </c>
+      <c r="F254" s="3">
+        <v>-1807.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D255" s="3">
+        <v>-1447.2</v>
+      </c>
+      <c r="E255" s="3">
+        <v>0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>-1447.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D256" s="3">
+        <v>-555.6</v>
+      </c>
+      <c r="E256" s="3">
+        <v>0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>-555.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D257" s="3">
+        <v>-408</v>
+      </c>
+      <c r="E257" s="3">
+        <v>0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D258" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E258" s="3">
+        <v>0</v>
+      </c>
+      <c r="F258" s="3">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D259" s="3">
+        <v>-508</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>-508</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D260" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D261" s="3">
+        <v>-1431.2</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>-1431.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D262" s="3">
+        <v>-1628.8</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>-1628.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D263" s="3">
+        <v>-762.645914396887</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>-762.645914396887</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D264" s="3">
+        <v>-256.809338521401</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>-256.809338521401</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D265" s="3">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>-540.466926070039</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D266" s="3">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>-540.466926070039</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D267" s="3">
+        <v>-1244.94163424125</v>
+      </c>
+      <c r="E267" s="3">
+        <v>0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>-1244.94163424125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D268" s="3">
+        <v>-350.194552529183</v>
+      </c>
+      <c r="E268" s="3">
+        <v>0</v>
+      </c>
+      <c r="F268" s="3">
+        <v>-350.194552529183</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D269" s="3">
+        <v>-247.081712062257</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>-247.081712062257</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D270" s="3">
+        <v>-247.081712062257</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>-247.081712062257</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D271" s="3">
+        <v>-247.081712062257</v>
+      </c>
+      <c r="E271" s="3">
+        <v>0</v>
+      </c>
+      <c r="F271" s="3">
+        <v>-247.081712062257</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D272" s="3">
+        <v>-247.081712062257</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>-247.081712062257</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D273" s="3">
+        <v>-1069.64980544747</v>
+      </c>
+      <c r="E273" s="3">
+        <v>0</v>
+      </c>
+      <c r="F273" s="3">
+        <v>-1069.64980544747</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D274" s="3">
+        <v>-769.416342412451</v>
+      </c>
+      <c r="E274" s="3">
+        <v>0</v>
+      </c>
+      <c r="F274" s="3">
+        <v>-769.416342412451</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D275" s="3">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E275" s="3">
+        <v>0</v>
+      </c>
+      <c r="F275" s="3">
+        <v>-540.466926070039</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D276" s="3">
+        <v>-1563.81322957198</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+      <c r="F276" s="3">
+        <v>-1563.81322957198</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D277" s="3">
+        <v>-1036.18677042802</v>
+      </c>
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>-1036.18677042802</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D278" s="3">
+        <v>-661.47859922179</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>-661.47859922179</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D279" s="3">
+        <v>-821.011673151751</v>
+      </c>
+      <c r="E279" s="3">
+        <v>0</v>
+      </c>
+      <c r="F279" s="3">
+        <v>-821.011673151751</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D280" s="3">
+        <v>-1475.48638132296</v>
+      </c>
+      <c r="E280" s="3">
+        <v>0</v>
+      </c>
+      <c r="F280" s="3">
+        <v>-1475.48638132296</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D281" s="3">
+        <v>-1580.93385214008</v>
+      </c>
+      <c r="E281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>-1580.93385214008</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D282" s="3">
+        <v>-566.938775510204</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>-566.938775510204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D283" s="3">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>-540.466926070039</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D284" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D285" s="3">
+        <v>-1577.43190661479</v>
+      </c>
+      <c r="E285" s="3">
+        <v>0</v>
+      </c>
+      <c r="F285" s="3">
+        <v>-1577.43190661479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D286" s="3">
+        <v>-198.443579766537</v>
+      </c>
+      <c r="E286" s="3">
+        <v>0</v>
+      </c>
+      <c r="F286" s="3">
+        <v>-198.443579766537</v>
       </c>
     </row>
   </sheetData>

--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="326">
   <si>
     <t>Encoding U$</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Feito gente grande</t>
   </si>
   <si>
-    <t>Gotitas de Alegria</t>
-  </si>
-  <si>
     <t>Helio Oiticica</t>
   </si>
   <si>
@@ -847,6 +844,27 @@
     <t>Violette</t>
   </si>
   <si>
+    <t>A Promisse</t>
+  </si>
+  <si>
+    <t>A walk with the tombstones</t>
+  </si>
+  <si>
+    <t>Dude where is my dog</t>
+  </si>
+  <si>
+    <t>Strech</t>
+  </si>
+  <si>
+    <t>Syngué sabour</t>
+  </si>
+  <si>
+    <t>Trinta</t>
+  </si>
+  <si>
+    <t>Une autre vie</t>
+  </si>
+  <si>
     <t>Tag Cultural</t>
   </si>
   <si>
@@ -859,9 +877,15 @@
     <t>Bromélia</t>
   </si>
   <si>
+    <t>Novelo</t>
+  </si>
+  <si>
     <t>Mares Filmes</t>
   </si>
   <si>
+    <t>Kinoscópio</t>
+  </si>
+  <si>
     <t>H2O INT</t>
   </si>
   <si>
@@ -871,12 +895,21 @@
     <t>H2O NAC</t>
   </si>
   <si>
+    <t>Escrevendo &amp; Filmes</t>
+  </si>
+  <si>
+    <t>Hangar Filmes</t>
+  </si>
+  <si>
     <t>Reserva Nacional</t>
   </si>
   <si>
     <t>Flash Star</t>
   </si>
   <si>
+    <t>TV Zero</t>
+  </si>
+  <si>
     <t>Vitrine</t>
   </si>
   <si>
@@ -892,25 +925,73 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Autlook</t>
+  </si>
+  <si>
+    <t>Cinema 7</t>
+  </si>
+  <si>
     <t>Europa Filmes</t>
   </si>
   <si>
+    <t>Pequi Filmes</t>
+  </si>
+  <si>
     <t>Esfera</t>
   </si>
   <si>
+    <t>Oka Produções</t>
+  </si>
+  <si>
+    <t>RT Features</t>
+  </si>
+  <si>
+    <t>Maria Farinha</t>
+  </si>
+  <si>
+    <t>Coração da Selva</t>
+  </si>
+  <si>
+    <t>Cavídeo</t>
+  </si>
+  <si>
     <t>Alpha Filmes</t>
   </si>
   <si>
     <t>Alfhaville</t>
   </si>
   <si>
+    <t>Latam Distribution</t>
+  </si>
+  <si>
+    <t>Dama Filmes</t>
+  </si>
+  <si>
     <t>3 Film Group</t>
   </si>
   <si>
+    <t>Boulevard Filmes</t>
+  </si>
+  <si>
     <t>Nueva Era</t>
   </si>
   <si>
-    <t>Prodigo</t>
+    <t>Producciones Kramer</t>
+  </si>
+  <si>
+    <t>Guerrilha Filmes</t>
+  </si>
+  <si>
+    <t>Cinemascópio</t>
+  </si>
+  <si>
+    <t>Super Bebe</t>
+  </si>
+  <si>
+    <t>Jirafa</t>
+  </si>
+  <si>
+    <t>Primo Filmes</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D2" s="3">
         <v>-924.01</v>
@@ -1329,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D3" s="3">
         <v>-692.28</v>
@@ -1349,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D4" s="3">
         <v>-1035</v>
@@ -1369,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D5" s="3">
         <v>-589.74</v>
@@ -1389,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3">
         <v>-352.53</v>
@@ -1409,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3">
         <v>-27.72</v>
@@ -1429,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D8" s="3">
         <v>-27.72</v>
@@ -1449,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D9" s="3">
         <v>-27.72</v>
@@ -1469,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3">
         <v>-27.72</v>
@@ -1489,7 +1570,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3">
         <v>-27.72</v>
@@ -1509,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D12" s="3">
         <v>-27.72</v>
@@ -1529,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D13" s="3">
         <v>-27.72</v>
@@ -1549,7 +1630,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D14" s="3">
         <v>-27.72</v>
@@ -1569,7 +1650,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D15" s="3">
         <v>-27.72</v>
@@ -1589,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D16" s="3">
         <v>-27.72</v>
@@ -1609,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D17" s="3">
         <v>-27.72</v>
@@ -1629,7 +1710,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D18" s="3">
         <v>-27.72</v>
@@ -1649,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D19" s="3">
         <v>-27.72</v>
@@ -1669,7 +1750,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D20" s="3">
         <v>-27.72</v>
@@ -1689,7 +1770,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D21" s="3">
         <v>-27.72</v>
@@ -1709,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3">
         <v>-27.72</v>
@@ -1729,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D23" s="3">
         <v>-27.72</v>
@@ -1749,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D24" s="3">
         <v>-27.72</v>
@@ -1769,7 +1850,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D25" s="3">
         <v>-27.72</v>
@@ -1789,7 +1870,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D26" s="3">
         <v>-27.72</v>
@@ -1809,7 +1890,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D27" s="3">
         <v>-27.72</v>
@@ -1829,7 +1910,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D28" s="3">
         <v>-27.72</v>
@@ -1849,7 +1930,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D29" s="3">
         <v>-27.72</v>
@@ -1869,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D30" s="3">
         <v>-27.72</v>
@@ -1889,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D31" s="3">
         <v>-27.72</v>
@@ -1909,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D32" s="3">
         <v>-27.72</v>
@@ -1929,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D33" s="3">
         <v>-27.72</v>
@@ -1949,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D34" s="3">
         <v>-27.72</v>
@@ -1969,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D35" s="3">
         <v>-27.72</v>
@@ -1989,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D36" s="3">
         <v>-27.72</v>
@@ -2009,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D37" s="3">
         <v>-27.72</v>
@@ -2029,7 +2110,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D38" s="3">
         <v>-27.72</v>
@@ -2049,7 +2130,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D39" s="3">
         <v>-27.72</v>
@@ -2069,7 +2150,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D40" s="3">
         <v>-27.72</v>
@@ -2089,7 +2170,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D41" s="3">
         <v>-27.72</v>
@@ -2109,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D42" s="3">
         <v>-27.72</v>
@@ -2129,7 +2210,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D43" s="3">
         <v>-27.72</v>
@@ -2149,7 +2230,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D44" s="3">
         <v>-27.72</v>
@@ -2169,7 +2250,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D45" s="3">
         <v>-27.72</v>
@@ -2189,7 +2270,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D46" s="3">
         <v>-27.72</v>
@@ -2209,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D47" s="3">
         <v>-27.72</v>
@@ -2229,7 +2310,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D48" s="3">
         <v>-27.72</v>
@@ -2249,7 +2330,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D49" s="3">
         <v>-857.92</v>
@@ -2269,7 +2350,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D50" s="3">
         <v>-962.44</v>
@@ -2289,7 +2370,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D51" s="3">
         <v>-45.69</v>
@@ -2309,7 +2390,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D52" s="3">
         <v>-25.03</v>
@@ -2329,7 +2410,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D53" s="3">
         <v>-1035</v>
@@ -2349,7 +2430,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D54" s="3">
         <v>-785.97</v>
@@ -2369,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D55" s="3">
         <v>-692.28</v>
@@ -2389,7 +2470,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D56" s="3">
         <v>-589.74</v>
@@ -2409,7 +2490,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D57" s="3">
         <v>-645.91</v>
@@ -2429,7 +2510,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D58" s="3">
         <v>-308.91</v>
@@ -2449,7 +2530,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D59" s="3">
         <v>-922.17</v>
@@ -2469,7 +2550,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D60" s="3">
         <v>-308.91</v>
@@ -2489,7 +2570,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D61" s="3">
         <v>-1106.57</v>
@@ -2509,7 +2590,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D62" s="3">
         <v>-711.36</v>
@@ -2529,7 +2610,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D63" s="3">
         <v>-1156.86</v>
@@ -2549,7 +2630,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D64" s="3">
         <v>-228</v>
@@ -2569,7 +2650,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D65" s="3">
         <v>-617.83</v>
@@ -2589,7 +2670,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D66" s="3">
         <v>-1156.86</v>
@@ -2609,7 +2690,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D67" s="3">
         <v>-887.77</v>
@@ -2629,7 +2710,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D68" s="3">
         <v>-228</v>
@@ -2649,7 +2730,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D69" s="3">
         <v>-711.36</v>
@@ -2669,7 +2750,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D70" s="3">
         <v>-645.91</v>
@@ -2689,7 +2770,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D71" s="3">
         <v>-645.91</v>
@@ -2709,7 +2790,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D72" s="3">
         <v>-664.09</v>
@@ -2729,7 +2810,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D73" s="3">
         <v>-617.83</v>
@@ -2749,7 +2830,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D74" s="3">
         <v>-645.91</v>
@@ -2769,7 +2850,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D75" s="3">
         <v>-750</v>
@@ -2789,7 +2870,7 @@
         <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D76" s="3">
         <v>-609.99</v>
@@ -2809,7 +2890,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D77" s="3">
         <v>-623.64</v>
@@ -2829,7 +2910,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D78" s="3">
         <v>-711.36</v>
@@ -2849,7 +2930,7 @@
         <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D79" s="3">
         <v>-557.55</v>
@@ -2869,7 +2950,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D80" s="3">
         <v>-645.91</v>
@@ -2889,7 +2970,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D81" s="3">
         <v>-737.64</v>
@@ -2909,7 +2990,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D82" s="3">
         <v>-1242</v>
@@ -2929,7 +3010,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D83" s="3">
         <v>-409.09</v>
@@ -2949,7 +3030,7 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D84" s="3">
         <v>-751.14</v>
@@ -2969,7 +3050,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D85" s="3">
         <v>-645.91</v>
@@ -2989,7 +3070,7 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D86" s="3">
         <v>-1786.82</v>
@@ -3009,7 +3090,7 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D87" s="3">
         <v>-521.74</v>
@@ -3029,7 +3110,7 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D88" s="3">
         <v>-711.13</v>
@@ -3049,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D89" s="3">
         <v>-391.3</v>
@@ -3069,7 +3150,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D90" s="3">
         <v>-391.3</v>
@@ -3089,7 +3170,7 @@
         <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D91" s="3">
         <v>-391.3</v>
@@ -3109,7 +3190,7 @@
         <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D92" s="3">
         <v>-391.3</v>
@@ -3129,7 +3210,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D93" s="3">
         <v>-696.52</v>
@@ -3149,7 +3230,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D94" s="3">
         <v>-478.26</v>
@@ -3169,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D95" s="3">
         <v>-391.3</v>
@@ -3189,7 +3270,7 @@
         <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D96" s="3">
         <v>-1865.65</v>
@@ -3209,7 +3290,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D97" s="3">
         <v>-793.83</v>
@@ -3229,7 +3310,7 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D98" s="3">
         <v>-617.83</v>
@@ -3249,7 +3330,7 @@
         <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D99" s="3">
         <v>-617.83</v>
@@ -3269,7 +3350,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D100" s="3">
         <v>-515.65</v>
@@ -3289,7 +3370,7 @@
         <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D101" s="3">
         <v>-2534.55</v>
@@ -3309,7 +3390,7 @@
         <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D102" s="3">
         <v>-519.99</v>
@@ -3329,7 +3410,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D103" s="3">
         <v>-519.99</v>
@@ -3349,7 +3430,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D104" s="3">
         <v>-787.77</v>
@@ -3369,7 +3450,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D105" s="3">
         <v>-1916</v>
@@ -3389,7 +3470,7 @@
         <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D106" s="3">
         <v>-3149.5</v>
@@ -3409,7 +3490,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D107" s="3">
         <v>-272.73</v>
@@ -3429,7 +3510,7 @@
         <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D108" s="3">
         <v>-545.45</v>
@@ -3449,7 +3530,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D109" s="3">
         <v>-2102.27</v>
@@ -3469,7 +3550,7 @@
         <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D110" s="3">
         <v>-2075.82</v>
@@ -3489,7 +3570,7 @@
         <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D111" s="3">
         <v>-591.25</v>
@@ -3509,7 +3590,7 @@
         <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D112" s="3">
         <v>-631.36</v>
@@ -3529,7 +3610,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D113" s="3">
         <v>-1849.27</v>
@@ -3549,7 +3630,7 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D114" s="3">
         <v>-519.99</v>
@@ -3569,7 +3650,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D115" s="3">
         <v>-631.36</v>
@@ -3589,7 +3670,7 @@
         <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D116" s="3">
         <v>-631.36</v>
@@ -3609,7 +3690,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D117" s="3">
         <v>-1203.41</v>
@@ -3629,7 +3710,7 @@
         <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D118" s="3">
         <v>-523.3</v>
@@ -3649,7 +3730,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D119" s="3">
         <v>-631.36</v>
@@ -3669,7 +3750,7 @@
         <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D120" s="3">
         <v>-333.18</v>
@@ -3689,7 +3770,7 @@
         <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D121" s="3">
         <v>-1914.14</v>
@@ -3709,7 +3790,7 @@
         <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D122" s="3">
         <v>-631.36</v>
@@ -3729,7 +3810,7 @@
         <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D123" s="3">
         <v>-625.68</v>
@@ -3749,7 +3830,7 @@
         <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D124" s="3">
         <v>-625.68</v>
@@ -3769,7 +3850,7 @@
         <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D125" s="3">
         <v>-625.68</v>
@@ -3789,7 +3870,7 @@
         <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D126" s="3">
         <v>-1859.14</v>
@@ -3809,7 +3890,7 @@
         <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D127" s="3">
         <v>-2086.04</v>
@@ -3829,7 +3910,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D128" s="3">
         <v>-1859.14</v>
@@ -3849,7 +3930,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D129" s="3">
         <v>-1704.5</v>
@@ -3869,7 +3950,7 @@
         <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D130" s="3">
         <v>-593.6</v>
@@ -3889,7 +3970,7 @@
         <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D131" s="3">
         <v>-1954.95</v>
@@ -3909,7 +3990,7 @@
         <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D132" s="3">
         <v>-1538.42</v>
@@ -3929,7 +4010,7 @@
         <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D133" s="3">
         <v>-1531.53</v>
@@ -3949,7 +4030,7 @@
         <v>122</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D134" s="3">
         <v>-486.86</v>
@@ -3969,7 +4050,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D135" s="3">
         <v>-625.68</v>
@@ -3989,7 +4070,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D136" s="3">
         <v>-1880.27</v>
@@ -4009,7 +4090,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D137" s="3">
         <v>-625.68</v>
@@ -4029,7 +4110,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D138" s="3">
         <v>-625.68</v>
@@ -4049,7 +4130,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D139" s="3">
         <v>-615.87</v>
@@ -4069,7 +4150,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D140" s="3">
         <v>-630.63</v>
@@ -4089,7 +4170,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D141" s="3">
         <v>-668.47</v>
@@ -4109,7 +4190,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D142" s="3">
         <v>-1621.62</v>
@@ -4129,7 +4210,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D143" s="3">
         <v>-1755.69</v>
@@ -4149,7 +4230,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D144" s="3">
         <v>-1490.92</v>
@@ -4169,16 +4250,16 @@
         <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D145" s="3">
-        <v>-1895.94594594595</v>
+        <v>-947.972972972973</v>
       </c>
       <c r="E145" s="3">
-        <v>-935.42</v>
+        <v>-467.72</v>
       </c>
       <c r="F145" s="3">
-        <v>-2831.36594594595</v>
+        <v>-1415.69297297297</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4186,19 +4267,19 @@
         <v>41791</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D146" s="3">
-        <v>-625.68</v>
+        <v>-947.972972972973</v>
       </c>
       <c r="E146" s="3">
-        <v>0</v>
+        <v>-467.7</v>
       </c>
       <c r="F146" s="3">
-        <v>-625.68</v>
+        <v>-1415.67297297297</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4206,10 +4287,10 @@
         <v>41791</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D147" s="3">
         <v>-625.68</v>
@@ -4226,30 +4307,30 @@
         <v>41791</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D148" s="3">
-        <v>-1950.9</v>
+        <v>-625.68</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <v>-1950.9</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D149" s="3">
         <v>-1950.9</v>
@@ -4266,19 +4347,19 @@
         <v>41821</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D150" s="3">
-        <v>-625.68</v>
+        <v>-1950.9</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <v>-625.68</v>
+        <v>-1950.9</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4286,19 +4367,19 @@
         <v>41821</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D151" s="3">
-        <v>-469.59</v>
+        <v>-625.68</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <v>-469.59</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4306,19 +4387,19 @@
         <v>41821</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D152" s="3">
-        <v>-1963.06306306306</v>
+        <v>-469.59</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>-1963.06306306306</v>
+        <v>-469.59</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4326,19 +4407,19 @@
         <v>41821</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D153" s="3">
-        <v>-330.18</v>
+        <v>-1963.06306306306</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <v>-330.18</v>
+        <v>-1963.06306306306</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4346,19 +4427,19 @@
         <v>41821</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D154" s="3">
-        <v>-1951.53</v>
+        <v>-330.18</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>-1951.53</v>
+        <v>-330.18</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4366,19 +4447,19 @@
         <v>41821</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D155" s="3">
-        <v>-1806.35</v>
+        <v>-1951.53</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>-1806.35</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4386,19 +4467,19 @@
         <v>41821</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D156" s="3">
-        <v>-1951.53</v>
+        <v>-1806.35</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>-1951.53</v>
+        <v>-1806.35</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4406,19 +4487,19 @@
         <v>41821</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D157" s="3">
-        <v>-1607.36</v>
+        <v>-1951.53</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <v>-1607.36</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4426,19 +4507,19 @@
         <v>41821</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D158" s="3">
-        <v>-563.96</v>
+        <v>-1607.36</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <v>-563.96</v>
+        <v>-1607.36</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4446,19 +4527,19 @@
         <v>41821</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D159" s="3">
-        <v>-540.54</v>
+        <v>-563.96</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>-540.54</v>
+        <v>-563.96</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4466,19 +4547,19 @@
         <v>41821</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D160" s="3">
-        <v>-2044.51</v>
+        <v>-540.54</v>
       </c>
       <c r="E160" s="3">
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>-2044.51</v>
+        <v>-540.54</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4486,19 +4567,19 @@
         <v>41821</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D161" s="3">
-        <v>-625.675675675676</v>
+        <v>-2044.51</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>-625.675675675676</v>
+        <v>-2044.51</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4506,19 +4587,19 @@
         <v>41821</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D162" s="3">
-        <v>-552.43</v>
+        <v>-625.675675675676</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>-552.43</v>
+        <v>-625.675675675676</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4526,19 +4607,19 @@
         <v>41821</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D163" s="3">
-        <v>-45.05</v>
+        <v>-552.43</v>
       </c>
       <c r="E163" s="3">
         <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>-45.05</v>
+        <v>-552.43</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4546,10 +4627,10 @@
         <v>41821</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D164" s="3">
         <v>-45.05</v>
@@ -4566,10 +4647,10 @@
         <v>41821</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D165" s="3">
         <v>-45.05</v>
@@ -4586,10 +4667,10 @@
         <v>41821</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D166" s="3">
         <v>-45.05</v>
@@ -4606,10 +4687,10 @@
         <v>41821</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D167" s="3">
         <v>-45.05</v>
@@ -4626,10 +4707,10 @@
         <v>41821</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D168" s="3">
         <v>-45.05</v>
@@ -4646,10 +4727,10 @@
         <v>41821</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D169" s="3">
         <v>-45.05</v>
@@ -4666,10 +4747,10 @@
         <v>41821</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D170" s="3">
         <v>-45.05</v>
@@ -4686,10 +4767,10 @@
         <v>41821</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D171" s="3">
         <v>-45.05</v>
@@ -4706,10 +4787,10 @@
         <v>41821</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D172" s="3">
         <v>-45.05</v>
@@ -4726,10 +4807,10 @@
         <v>41821</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D173" s="3">
         <v>-45.05</v>
@@ -4746,10 +4827,10 @@
         <v>41821</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D174" s="3">
         <v>-45.05</v>
@@ -4766,19 +4847,19 @@
         <v>41821</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D175" s="3">
-        <v>-625.68</v>
+        <v>-45.05</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>-625.68</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4786,39 +4867,39 @@
         <v>41821</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D176" s="3">
-        <v>-1577.20720720721</v>
+        <v>-625.68</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>-1577.20720720721</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D177" s="3">
-        <v>-6.51555555555556</v>
+        <v>-1577.20720720721</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>-6.51555555555556</v>
+        <v>-1577.20720720721</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4826,19 +4907,19 @@
         <v>41852</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D178" s="3">
-        <v>-1292.44444444444</v>
+        <v>-6.51555555555556</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>-1292.44444444444</v>
+        <v>-6.51555555555556</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4846,19 +4927,19 @@
         <v>41852</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D179" s="3">
-        <v>-1155.55555555556</v>
+        <v>-1292.44444444444</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
       </c>
       <c r="F179" s="3">
-        <v>-1155.55555555556</v>
+        <v>-1292.44444444444</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4866,19 +4947,19 @@
         <v>41852</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D180" s="3">
-        <v>-625.68</v>
+        <v>-1155.55555555556</v>
       </c>
       <c r="E180" s="3">
         <v>0</v>
       </c>
       <c r="F180" s="3">
-        <v>-625.68</v>
+        <v>-1155.55555555556</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4886,19 +4967,19 @@
         <v>41852</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D181" s="3">
-        <v>-433.035555555556</v>
+        <v>-625.68</v>
       </c>
       <c r="E181" s="3">
         <v>0</v>
       </c>
       <c r="F181" s="3">
-        <v>-433.035555555556</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4906,19 +4987,19 @@
         <v>41852</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D182" s="3">
-        <v>-1629.99</v>
+        <v>-433.035555555556</v>
       </c>
       <c r="E182" s="3">
         <v>0</v>
       </c>
       <c r="F182" s="3">
-        <v>-1629.99</v>
+        <v>-433.035555555556</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4926,19 +5007,19 @@
         <v>41852</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D183" s="3">
-        <v>-612.355555555555</v>
+        <v>-1629.99</v>
       </c>
       <c r="E183" s="3">
         <v>0</v>
       </c>
       <c r="F183" s="3">
-        <v>-612.355555555555</v>
+        <v>-1629.99</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4946,19 +5027,19 @@
         <v>41852</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D184" s="3">
-        <v>-1908.03555555556</v>
+        <v>-612.355555555555</v>
       </c>
       <c r="E184" s="3">
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>-1908.03555555556</v>
+        <v>-612.355555555555</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4966,19 +5047,19 @@
         <v>41852</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="D185" s="3">
-        <v>-335.404444444444</v>
+        <v>-1908.03555555556</v>
       </c>
       <c r="E185" s="3">
         <v>0</v>
       </c>
       <c r="F185" s="3">
-        <v>-335.404444444444</v>
+        <v>-1908.03555555556</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4986,19 +5067,19 @@
         <v>41852</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D186" s="3">
-        <v>-405.41</v>
+        <v>-335.404444444444</v>
       </c>
       <c r="E186" s="3">
         <v>0</v>
       </c>
       <c r="F186" s="3">
-        <v>-405.41</v>
+        <v>-335.404444444444</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5006,39 +5087,39 @@
         <v>41852</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D187" s="3">
-        <v>-12.4444444444444</v>
+        <v>-408.293333333333</v>
       </c>
       <c r="E187" s="3">
         <v>0</v>
       </c>
       <c r="F187" s="3">
-        <v>-12.4444444444444</v>
+        <v>-408.293333333333</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="D188" s="3">
-        <v>-1992.44444444444</v>
+        <v>-12.4444444444444</v>
       </c>
       <c r="E188" s="3">
         <v>0</v>
       </c>
       <c r="F188" s="3">
-        <v>-1992.44444444444</v>
+        <v>-12.4444444444444</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5046,19 +5127,19 @@
         <v>41883</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D189" s="3">
-        <v>-1883.28888888889</v>
+        <v>-1992.44444444444</v>
       </c>
       <c r="E189" s="3">
         <v>0</v>
       </c>
       <c r="F189" s="3">
-        <v>-1883.28888888889</v>
+        <v>-1992.44444444444</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5066,19 +5147,19 @@
         <v>41883</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D190" s="3">
-        <v>-44.4444444444444</v>
+        <v>-1883.28888888889</v>
       </c>
       <c r="E190" s="3">
         <v>0</v>
       </c>
       <c r="F190" s="3">
-        <v>-44.4444444444444</v>
+        <v>-1883.28888888889</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5086,10 +5167,10 @@
         <v>41883</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D191" s="3">
         <v>-44.4444444444444</v>
@@ -5106,10 +5187,10 @@
         <v>41883</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D192" s="3">
         <v>-44.4444444444444</v>
@@ -5126,10 +5207,10 @@
         <v>41883</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D193" s="3">
         <v>-44.4444444444444</v>
@@ -5146,10 +5227,10 @@
         <v>41883</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D194" s="3">
         <v>-44.4444444444444</v>
@@ -5166,10 +5247,10 @@
         <v>41883</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D195" s="3">
         <v>-44.4444444444444</v>
@@ -5186,10 +5267,10 @@
         <v>41883</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D196" s="3">
         <v>-44.4444444444444</v>
@@ -5206,10 +5287,10 @@
         <v>41883</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D197" s="3">
         <v>-44.4444444444444</v>
@@ -5226,10 +5307,10 @@
         <v>41883</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D198" s="3">
         <v>-44.4444444444444</v>
@@ -5246,10 +5327,10 @@
         <v>41883</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D199" s="3">
         <v>-44.4444444444444</v>
@@ -5266,10 +5347,10 @@
         <v>41883</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D200" s="3">
         <v>-44.4444444444444</v>
@@ -5286,10 +5367,10 @@
         <v>41883</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D201" s="3">
         <v>-44.4444444444444</v>
@@ -5306,19 +5387,19 @@
         <v>41883</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D202" s="3">
-        <v>-618.515555555556</v>
+        <v>-44.4444444444444</v>
       </c>
       <c r="E202" s="3">
         <v>0</v>
       </c>
       <c r="F202" s="3">
-        <v>-618.515555555556</v>
+        <v>-44.4444444444444</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5326,19 +5407,19 @@
         <v>41883</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D203" s="3">
-        <v>-815.946666666667</v>
+        <v>-618.515555555556</v>
       </c>
       <c r="E203" s="3">
         <v>0</v>
       </c>
       <c r="F203" s="3">
-        <v>-815.946666666667</v>
+        <v>-618.515555555556</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5346,19 +5427,19 @@
         <v>41883</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D204" s="3">
-        <v>-1739.28888888889</v>
+        <v>-815.946666666667</v>
       </c>
       <c r="E204" s="3">
         <v>0</v>
       </c>
       <c r="F204" s="3">
-        <v>-1739.28888888889</v>
+        <v>-815.946666666667</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5366,19 +5447,19 @@
         <v>41883</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D205" s="3">
-        <v>-2498.88888888889</v>
+        <v>-1739.28888888889</v>
       </c>
       <c r="E205" s="3">
         <v>0</v>
       </c>
       <c r="F205" s="3">
-        <v>-2498.88888888889</v>
+        <v>-1739.28888888889</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5386,19 +5467,19 @@
         <v>41883</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D206" s="3">
-        <v>-618.888888888889</v>
+        <v>-2498.88888888889</v>
       </c>
       <c r="E206" s="3">
         <v>0</v>
       </c>
       <c r="F206" s="3">
-        <v>-618.888888888889</v>
+        <v>-2498.88888888889</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5406,19 +5487,19 @@
         <v>41883</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D207" s="3">
-        <v>-850.22</v>
+        <v>-618.888888888889</v>
       </c>
       <c r="E207" s="3">
         <v>0</v>
       </c>
       <c r="F207" s="3">
-        <v>-850.22</v>
+        <v>-618.888888888889</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5426,19 +5507,19 @@
         <v>41883</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D208" s="3">
-        <v>-578.071111111111</v>
+        <v>-850.22</v>
       </c>
       <c r="E208" s="3">
         <v>0</v>
       </c>
       <c r="F208" s="3">
-        <v>-578.071111111111</v>
+        <v>-850.22</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5446,19 +5527,19 @@
         <v>41883</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D209" s="3">
-        <v>-1289.2</v>
+        <v>-578.071111111111</v>
       </c>
       <c r="E209" s="3">
         <v>0</v>
       </c>
       <c r="F209" s="3">
-        <v>-1289.2</v>
+        <v>-578.071111111111</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5466,19 +5547,19 @@
         <v>41883</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D210" s="3">
-        <v>-729.626666666667</v>
+        <v>-1289.2</v>
       </c>
       <c r="E210" s="3">
         <v>0</v>
       </c>
       <c r="F210" s="3">
-        <v>-729.626666666667</v>
+        <v>-1289.2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5486,19 +5567,19 @@
         <v>41883</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D211" s="3">
-        <v>-683.848888888889</v>
+        <v>-729.626666666667</v>
       </c>
       <c r="E211" s="3">
         <v>0</v>
       </c>
       <c r="F211" s="3">
-        <v>-683.848888888889</v>
+        <v>-729.626666666667</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5506,39 +5587,39 @@
         <v>41883</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D212" s="3">
-        <v>-2138.97777777778</v>
+        <v>-683.848888888889</v>
       </c>
       <c r="E212" s="3">
         <v>0</v>
       </c>
       <c r="F212" s="3">
-        <v>-2138.97777777778</v>
+        <v>-683.848888888889</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D213" s="3">
-        <v>-1196.83673469388</v>
+        <v>-2138.97777777778</v>
       </c>
       <c r="E213" s="3">
         <v>0</v>
       </c>
       <c r="F213" s="3">
-        <v>-1196.83673469388</v>
+        <v>-2138.97777777778</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5546,19 +5627,19 @@
         <v>41913</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D214" s="3">
-        <v>-332.755102040816</v>
+        <v>-1196.83673469388</v>
       </c>
       <c r="E214" s="3">
         <v>0</v>
       </c>
       <c r="F214" s="3">
-        <v>-332.755102040816</v>
+        <v>-1196.83673469388</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5566,19 +5647,19 @@
         <v>41913</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="D215" s="3">
-        <v>-1980.9</v>
+        <v>-332.755102040816</v>
       </c>
       <c r="E215" s="3">
-        <v>-34.98</v>
+        <v>0</v>
       </c>
       <c r="F215" s="3">
-        <v>-2015.88</v>
+        <v>-332.755102040816</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5586,19 +5667,19 @@
         <v>41913</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D216" s="3">
-        <v>-882.040816326531</v>
+        <v>-1980.9</v>
       </c>
       <c r="E216" s="3">
-        <v>0</v>
+        <v>-34.98</v>
       </c>
       <c r="F216" s="3">
-        <v>-882.040816326531</v>
+        <v>-2015.88</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5606,19 +5687,19 @@
         <v>41913</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D217" s="3">
-        <v>-937.408163265306</v>
+        <v>-882.040816326531</v>
       </c>
       <c r="E217" s="3">
         <v>0</v>
       </c>
       <c r="F217" s="3">
-        <v>-937.408163265306</v>
+        <v>-882.040816326531</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5626,19 +5707,19 @@
         <v>41913</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D218" s="3">
-        <v>-1226.88</v>
+        <v>-937.408163265306</v>
       </c>
       <c r="E218" s="3">
         <v>0</v>
       </c>
       <c r="F218" s="3">
-        <v>-1226.88</v>
+        <v>-937.408163265306</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5646,19 +5727,19 @@
         <v>41913</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="D219" s="3">
-        <v>-1077.24489795918</v>
+        <v>-1226.88</v>
       </c>
       <c r="E219" s="3">
         <v>0</v>
       </c>
       <c r="F219" s="3">
-        <v>-1077.24489795918</v>
+        <v>-1226.88</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5666,19 +5747,19 @@
         <v>41913</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="D220" s="3">
-        <v>-734.69387755102</v>
+        <v>-1077.24489795918</v>
       </c>
       <c r="E220" s="3">
         <v>0</v>
       </c>
       <c r="F220" s="3">
-        <v>-734.69387755102</v>
+        <v>-1077.24489795918</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5686,19 +5767,19 @@
         <v>41913</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="D221" s="3">
-        <v>0</v>
+        <v>-734.69387755102</v>
       </c>
       <c r="E221" s="3">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="F221" s="3">
-        <v>-35</v>
+        <v>-734.69387755102</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5706,19 +5787,19 @@
         <v>41913</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D222" s="3">
-        <v>-1522.04081632653</v>
+        <v>0</v>
       </c>
       <c r="E222" s="3">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="F222" s="3">
-        <v>-1522.04081632653</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5726,19 +5807,19 @@
         <v>41913</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D223" s="3">
-        <v>-832.877551020408</v>
+        <v>-1522.04081632653</v>
       </c>
       <c r="E223" s="3">
         <v>0</v>
       </c>
       <c r="F223" s="3">
-        <v>-832.877551020408</v>
+        <v>-1522.04081632653</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5746,19 +5827,19 @@
         <v>41913</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D224" s="3">
-        <v>-1099.69387755102</v>
+        <v>-832.877551020408</v>
       </c>
       <c r="E224" s="3">
         <v>0</v>
       </c>
       <c r="F224" s="3">
-        <v>-1099.69387755102</v>
+        <v>-832.877551020408</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5766,19 +5847,19 @@
         <v>41913</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D225" s="3">
-        <v>-371.938775510204</v>
+        <v>-1099.69387755102</v>
       </c>
       <c r="E225" s="3">
         <v>0</v>
       </c>
       <c r="F225" s="3">
-        <v>-371.938775510204</v>
+        <v>-1099.69387755102</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5786,19 +5867,19 @@
         <v>41913</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="D226" s="3">
-        <v>-566.938775510204</v>
+        <v>-371.938775510204</v>
       </c>
       <c r="E226" s="3">
         <v>0</v>
       </c>
       <c r="F226" s="3">
-        <v>-566.938775510204</v>
+        <v>-371.938775510204</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5806,19 +5887,19 @@
         <v>41913</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D227" s="3">
-        <v>-731.942857142857</v>
+        <v>-566.938775510204</v>
       </c>
       <c r="E227" s="3">
         <v>0</v>
       </c>
       <c r="F227" s="3">
-        <v>-731.942857142857</v>
+        <v>-566.938775510204</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5826,19 +5907,19 @@
         <v>41913</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D228" s="3">
-        <v>-1041.32653061224</v>
+        <v>-731.942857142857</v>
       </c>
       <c r="E228" s="3">
         <v>0</v>
       </c>
       <c r="F228" s="3">
-        <v>-1041.32653061224</v>
+        <v>-731.942857142857</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5846,19 +5927,19 @@
         <v>41913</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D229" s="3">
-        <v>-283.469387755102</v>
+        <v>-1041.32653061224</v>
       </c>
       <c r="E229" s="3">
         <v>0</v>
       </c>
       <c r="F229" s="3">
-        <v>-283.469387755102</v>
+        <v>-1041.32653061224</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5866,19 +5947,19 @@
         <v>41913</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D230" s="3">
-        <v>-369.489795918367</v>
+        <v>-283.469387755102</v>
       </c>
       <c r="E230" s="3">
         <v>0</v>
       </c>
       <c r="F230" s="3">
-        <v>-369.489795918367</v>
+        <v>-283.469387755102</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5886,19 +5967,19 @@
         <v>41913</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="D231" s="3">
-        <v>-1169.08163265306</v>
+        <v>-369.489795918367</v>
       </c>
       <c r="E231" s="3">
         <v>0</v>
       </c>
       <c r="F231" s="3">
-        <v>-1169.08163265306</v>
+        <v>-369.489795918367</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5906,19 +5987,19 @@
         <v>41913</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D232" s="3">
-        <v>-209.387755102041</v>
+        <v>-1169.08163265306</v>
       </c>
       <c r="E232" s="3">
         <v>0</v>
       </c>
       <c r="F232" s="3">
-        <v>-209.387755102041</v>
+        <v>-1169.08163265306</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5929,7 +6010,7 @@
         <v>227</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D233" s="3">
         <v>-209.387755102041</v>
@@ -5946,39 +6027,39 @@
         <v>41913</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D234" s="3">
-        <v>-1256.95510204082</v>
+        <v>-209.387755102041</v>
       </c>
       <c r="E234" s="3">
         <v>0</v>
       </c>
       <c r="F234" s="3">
-        <v>-1256.95510204082</v>
+        <v>-209.387755102041</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D235" s="3">
-        <v>-409.12</v>
+        <v>-1256.95510204082</v>
       </c>
       <c r="E235" s="3">
         <v>0</v>
       </c>
       <c r="F235" s="3">
-        <v>-409.12</v>
+        <v>-1256.95510204082</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5986,19 +6067,19 @@
         <v>41944</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="D236" s="3">
-        <v>-360</v>
+        <v>-409.12</v>
       </c>
       <c r="E236" s="3">
         <v>0</v>
       </c>
       <c r="F236" s="3">
-        <v>-360</v>
+        <v>-409.12</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6006,19 +6087,19 @@
         <v>41944</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="D237" s="3">
-        <v>-555.6</v>
+        <v>-361.864</v>
       </c>
       <c r="E237" s="3">
         <v>0</v>
       </c>
       <c r="F237" s="3">
-        <v>-555.6</v>
+        <v>-361.864</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6026,19 +6107,19 @@
         <v>41944</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D238" s="3">
-        <v>-1478.2</v>
+        <v>-555.6</v>
       </c>
       <c r="E238" s="3">
         <v>0</v>
       </c>
       <c r="F238" s="3">
-        <v>-1478.2</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6046,19 +6127,19 @@
         <v>41944</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D239" s="3">
-        <v>-555.6</v>
+        <v>-1490.8</v>
       </c>
       <c r="E239" s="3">
         <v>0</v>
       </c>
       <c r="F239" s="3">
-        <v>-555.6</v>
+        <v>-1490.8</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6066,19 +6147,19 @@
         <v>41944</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D240" s="3">
-        <v>-408</v>
+        <v>-555.6</v>
       </c>
       <c r="E240" s="3">
         <v>0</v>
       </c>
       <c r="F240" s="3">
-        <v>-408</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6086,19 +6167,19 @@
         <v>41944</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D241" s="3">
-        <v>-360</v>
+        <v>-408</v>
       </c>
       <c r="E241" s="3">
         <v>0</v>
       </c>
       <c r="F241" s="3">
-        <v>-360</v>
+        <v>-408</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6106,19 +6187,19 @@
         <v>41944</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D242" s="3">
-        <v>-435.12</v>
+        <v>-361.864</v>
       </c>
       <c r="E242" s="3">
         <v>0</v>
       </c>
       <c r="F242" s="3">
-        <v>-435.12</v>
+        <v>-361.864</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6126,19 +6207,19 @@
         <v>41944</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D243" s="3">
-        <v>-410.1</v>
+        <v>-435.12</v>
       </c>
       <c r="E243" s="3">
         <v>0</v>
       </c>
       <c r="F243" s="3">
-        <v>-410.1</v>
+        <v>-435.12</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6146,19 +6227,19 @@
         <v>41944</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D244" s="3">
-        <v>-555.6</v>
+        <v>-410.1</v>
       </c>
       <c r="E244" s="3">
         <v>0</v>
       </c>
       <c r="F244" s="3">
-        <v>-555.6</v>
+        <v>-410.1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6166,19 +6247,19 @@
         <v>41944</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D245" s="3">
-        <v>-1554.048</v>
+        <v>-555.6</v>
       </c>
       <c r="E245" s="3">
         <v>0</v>
       </c>
       <c r="F245" s="3">
-        <v>-1554.048</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6186,19 +6267,19 @@
         <v>41944</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="D246" s="3">
-        <v>-216</v>
+        <v>-1557.548</v>
       </c>
       <c r="E246" s="3">
         <v>0</v>
       </c>
       <c r="F246" s="3">
-        <v>-216</v>
+        <v>-1557.548</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6206,19 +6287,19 @@
         <v>41944</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D247" s="3">
-        <v>-360</v>
+        <v>-365.2</v>
       </c>
       <c r="E247" s="3">
         <v>0</v>
       </c>
       <c r="F247" s="3">
-        <v>-360</v>
+        <v>-365.2</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6229,7 +6310,7 @@
         <v>107</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D248" s="3">
         <v>-168</v>
@@ -6246,10 +6327,10 @@
         <v>41944</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D249" s="3">
         <v>-408</v>
@@ -6266,10 +6347,10 @@
         <v>41944</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D250" s="3">
         <v>-555.6</v>
@@ -6286,10 +6367,10 @@
         <v>41944</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D251" s="3">
         <v>-640</v>
@@ -6306,10 +6387,10 @@
         <v>41944</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D252" s="3">
         <v>-1904.848</v>
@@ -6326,19 +6407,19 @@
         <v>41944</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D253" s="3">
-        <v>-408</v>
+        <v>-409.864</v>
       </c>
       <c r="E253" s="3">
         <v>0</v>
       </c>
       <c r="F253" s="3">
-        <v>-408</v>
+        <v>-409.864</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6346,19 +6427,19 @@
         <v>41944</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D254" s="3">
-        <v>-1807.6</v>
+        <v>-1824.4</v>
       </c>
       <c r="E254" s="3">
         <v>0</v>
       </c>
       <c r="F254" s="3">
-        <v>-1807.6</v>
+        <v>-1824.4</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6366,19 +6447,19 @@
         <v>41944</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D255" s="3">
-        <v>-1447.2</v>
+        <v>-1449.3</v>
       </c>
       <c r="E255" s="3">
         <v>0</v>
       </c>
       <c r="F255" s="3">
-        <v>-1447.2</v>
+        <v>-1449.3</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6386,10 +6467,10 @@
         <v>41944</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D256" s="3">
         <v>-555.6</v>
@@ -6406,19 +6487,19 @@
         <v>41944</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D257" s="3">
-        <v>-408</v>
+        <v>-409.864</v>
       </c>
       <c r="E257" s="3">
         <v>0</v>
       </c>
       <c r="F257" s="3">
-        <v>-408</v>
+        <v>-409.864</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6426,19 +6507,19 @@
         <v>41944</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D258" s="3">
-        <v>-360</v>
+        <v>-361.12</v>
       </c>
       <c r="E258" s="3">
         <v>0</v>
       </c>
       <c r="F258" s="3">
-        <v>-360</v>
+        <v>-361.12</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6446,19 +6527,19 @@
         <v>41944</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D259" s="3">
-        <v>-508</v>
+        <v>-520.264</v>
       </c>
       <c r="E259" s="3">
         <v>0</v>
       </c>
       <c r="F259" s="3">
-        <v>-508</v>
+        <v>-520.264</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6466,10 +6547,10 @@
         <v>41944</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="D260" s="3">
         <v>-360</v>
@@ -6486,19 +6567,19 @@
         <v>41944</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D261" s="3">
-        <v>-1431.2</v>
+        <v>-1448</v>
       </c>
       <c r="E261" s="3">
         <v>0</v>
       </c>
       <c r="F261" s="3">
-        <v>-1431.2</v>
+        <v>-1448</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6506,10 +6587,10 @@
         <v>41944</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D262" s="3">
         <v>-1628.8</v>
@@ -6526,10 +6607,10 @@
         <v>41974</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D263" s="3">
         <v>-762.645914396887</v>
@@ -6546,10 +6627,10 @@
         <v>41974</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D264" s="3">
         <v>-256.809338521401</v>
@@ -6566,10 +6647,10 @@
         <v>41974</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D265" s="3">
         <v>-540.466926070039</v>
@@ -6586,19 +6667,19 @@
         <v>41974</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D266" s="3">
-        <v>-540.466926070039</v>
+        <v>-541.828793774319</v>
       </c>
       <c r="E266" s="3">
         <v>0</v>
       </c>
       <c r="F266" s="3">
-        <v>-540.466926070039</v>
+        <v>-541.828793774319</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6606,10 +6687,10 @@
         <v>41974</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D267" s="3">
         <v>-1244.94163424125</v>
@@ -6626,19 +6707,19 @@
         <v>41974</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="D268" s="3">
-        <v>-350.194552529183</v>
+        <v>-351.284046692607</v>
       </c>
       <c r="E268" s="3">
         <v>0</v>
       </c>
       <c r="F268" s="3">
-        <v>-350.194552529183</v>
+        <v>-351.284046692607</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6646,10 +6727,10 @@
         <v>41974</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D269" s="3">
         <v>-247.081712062257</v>
@@ -6666,10 +6747,10 @@
         <v>41974</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D270" s="3">
         <v>-247.081712062257</v>
@@ -6686,10 +6767,10 @@
         <v>41974</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D271" s="3">
         <v>-247.081712062257</v>
@@ -6706,10 +6787,10 @@
         <v>41974</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D272" s="3">
         <v>-247.081712062257</v>
@@ -6726,10 +6807,10 @@
         <v>41974</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D273" s="3">
         <v>-1069.64980544747</v>
@@ -6746,10 +6827,10 @@
         <v>41974</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D274" s="3">
         <v>-769.416342412451</v>
@@ -6766,10 +6847,10 @@
         <v>41974</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D275" s="3">
         <v>-540.466926070039</v>
@@ -6786,10 +6867,10 @@
         <v>41974</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D276" s="3">
         <v>-1563.81322957198</v>
@@ -6806,10 +6887,10 @@
         <v>41974</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D277" s="3">
         <v>-1036.18677042802</v>
@@ -6826,10 +6907,10 @@
         <v>41974</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D278" s="3">
         <v>-661.47859922179</v>
@@ -6846,10 +6927,10 @@
         <v>41974</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D279" s="3">
         <v>-821.011673151751</v>
@@ -6866,19 +6947,19 @@
         <v>42005</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D280" s="3">
-        <v>-1475.48638132296</v>
+        <v>-1480.93385214008</v>
       </c>
       <c r="E280" s="3">
         <v>0</v>
       </c>
       <c r="F280" s="3">
-        <v>-1475.48638132296</v>
+        <v>-1480.93385214008</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6886,19 +6967,19 @@
         <v>42005</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D281" s="3">
-        <v>-1580.93385214008</v>
+        <v>-1591.82879377432</v>
       </c>
       <c r="E281" s="3">
         <v>0</v>
       </c>
       <c r="F281" s="3">
-        <v>-1580.93385214008</v>
+        <v>-1591.82879377432</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6906,10 +6987,10 @@
         <v>42005</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D282" s="3">
         <v>-566.938775510204</v>
@@ -6926,10 +7007,10 @@
         <v>42005</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D283" s="3">
         <v>-540.466926070039</v>
@@ -6946,10 +7027,10 @@
         <v>42005</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D284" s="3">
         <v>-500</v>
@@ -6966,19 +7047,19 @@
         <v>42005</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D285" s="3">
-        <v>-1577.43190661479</v>
+        <v>-1582.87937743191</v>
       </c>
       <c r="E285" s="3">
         <v>0</v>
       </c>
       <c r="F285" s="3">
-        <v>-1577.43190661479</v>
+        <v>-1582.87937743191</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6986,10 +7067,10 @@
         <v>42005</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D286" s="3">
         <v>-198.443579766537</v>
@@ -7000,6 +7081,118 @@
       <c r="F286" s="3">
         <v>-198.443579766537</v>
       </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3">
+        <v>0</v>
+      </c>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3">
+        <v>0</v>
+      </c>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3">
+        <v>0</v>
+      </c>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3">
+        <v>0</v>
+      </c>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3">
+        <v>0</v>
+      </c>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3">
+        <v>0</v>
+      </c>
+      <c r="F293" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="291">
   <si>
     <t>Encoding U$</t>
   </si>
@@ -220,7 +220,7 @@
     <t>Um alguém apaixonado</t>
   </si>
   <si>
-    <t>A separation</t>
+    <t>A Separation</t>
   </si>
   <si>
     <t>Depois de Maio</t>
@@ -493,7 +493,7 @@
     <t>Quai d´Orsay</t>
   </si>
   <si>
-    <t>Rob the mob</t>
+    <t>Rob the Mob</t>
   </si>
   <si>
     <t>Tabu</t>
@@ -628,9 +628,6 @@
     <t>Khumba</t>
   </si>
   <si>
-    <t>Love is All You Need</t>
-  </si>
-  <si>
     <t>Populaire</t>
   </si>
   <si>
@@ -718,7 +715,7 @@
     <t>Born to race: Fast Track</t>
   </si>
   <si>
-    <t>Chef</t>
+    <t xml:space="preserve">Chef </t>
   </si>
   <si>
     <t>Ciudadano Kramer</t>
@@ -751,9 +748,6 @@
     <t>Norwegian Wood</t>
   </si>
   <si>
-    <t>O artista e a modelo</t>
-  </si>
-  <si>
     <t>Only in New York</t>
   </si>
   <si>
@@ -769,9 +763,6 @@
     <t>Quebranto</t>
   </si>
   <si>
-    <t>Silencio Del Más Allá</t>
-  </si>
-  <si>
     <t>Stefan versus Kramer</t>
   </si>
   <si>
@@ -826,45 +817,9 @@
     <t>Wakolda</t>
   </si>
   <si>
-    <t>Bem vindo a Nova York</t>
-  </si>
-  <si>
-    <t>Mil vezes boa noite</t>
-  </si>
-  <si>
     <t>Minuscule</t>
   </si>
   <si>
-    <t>Reach Me</t>
-  </si>
-  <si>
-    <t>The Imigrant</t>
-  </si>
-  <si>
-    <t>Violette</t>
-  </si>
-  <si>
-    <t>A Promisse</t>
-  </si>
-  <si>
-    <t>A walk with the tombstones</t>
-  </si>
-  <si>
-    <t>Dude where is my dog</t>
-  </si>
-  <si>
-    <t>Strech</t>
-  </si>
-  <si>
-    <t>Syngué sabour</t>
-  </si>
-  <si>
-    <t>Trinta</t>
-  </si>
-  <si>
-    <t>Une autre vie</t>
-  </si>
-  <si>
     <t>Tag Cultural</t>
   </si>
   <si>
@@ -877,15 +832,9 @@
     <t>Bromélia</t>
   </si>
   <si>
-    <t>Novelo</t>
-  </si>
-  <si>
     <t>Mares Filmes</t>
   </si>
   <si>
-    <t>Kinoscópio</t>
-  </si>
-  <si>
     <t>H2O INT</t>
   </si>
   <si>
@@ -895,21 +844,12 @@
     <t>H2O NAC</t>
   </si>
   <si>
-    <t>Escrevendo &amp; Filmes</t>
-  </si>
-  <si>
-    <t>Hangar Filmes</t>
-  </si>
-  <si>
     <t>Reserva Nacional</t>
   </si>
   <si>
     <t>Flash Star</t>
   </si>
   <si>
-    <t>TV Zero</t>
-  </si>
-  <si>
     <t>Vitrine</t>
   </si>
   <si>
@@ -925,34 +865,13 @@
     <t>Pandora</t>
   </si>
   <si>
-    <t>Autlook</t>
-  </si>
-  <si>
-    <t>Cinema 7</t>
-  </si>
-  <si>
     <t>Europa Filmes</t>
   </si>
   <si>
-    <t>Pequi Filmes</t>
-  </si>
-  <si>
     <t>Esfera</t>
   </si>
   <si>
-    <t>Oka Produções</t>
-  </si>
-  <si>
-    <t>RT Features</t>
-  </si>
-  <si>
-    <t>Maria Farinha</t>
-  </si>
-  <si>
-    <t>Coração da Selva</t>
-  </si>
-  <si>
-    <t>Cavídeo</t>
+    <t xml:space="preserve">Esfera </t>
   </si>
   <si>
     <t>Alpha Filmes</t>
@@ -961,37 +880,13 @@
     <t>Alfhaville</t>
   </si>
   <si>
-    <t>Latam Distribution</t>
-  </si>
-  <si>
-    <t>Dama Filmes</t>
-  </si>
-  <si>
     <t>3 Film Group</t>
   </si>
   <si>
-    <t>Boulevard Filmes</t>
-  </si>
-  <si>
     <t>Nueva Era</t>
   </si>
   <si>
-    <t>Producciones Kramer</t>
-  </si>
-  <si>
-    <t>Guerrilha Filmes</t>
-  </si>
-  <si>
-    <t>Cinemascópio</t>
-  </si>
-  <si>
-    <t>Super Bebe</t>
-  </si>
-  <si>
-    <t>Jirafa</t>
-  </si>
-  <si>
-    <t>Primo Filmes</t>
+    <t>Prodigo</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D2" s="3">
         <v>-924.01</v>
@@ -1410,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3">
         <v>-692.28</v>
@@ -1430,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D4" s="3">
         <v>-1035</v>
@@ -1450,7 +1345,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3">
         <v>-589.74</v>
@@ -1470,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D6" s="3">
         <v>-352.53</v>
@@ -1490,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3">
         <v>-27.72</v>
@@ -1510,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3">
         <v>-27.72</v>
@@ -1530,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3">
         <v>-27.72</v>
@@ -1550,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3">
         <v>-27.72</v>
@@ -1570,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3">
         <v>-27.72</v>
@@ -1590,7 +1485,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D12" s="3">
         <v>-27.72</v>
@@ -1610,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D13" s="3">
         <v>-27.72</v>
@@ -1630,7 +1525,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D14" s="3">
         <v>-27.72</v>
@@ -1650,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3">
         <v>-27.72</v>
@@ -1670,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3">
         <v>-27.72</v>
@@ -1690,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3">
         <v>-27.72</v>
@@ -1710,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D18" s="3">
         <v>-27.72</v>
@@ -1730,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D19" s="3">
         <v>-27.72</v>
@@ -1750,7 +1645,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D20" s="3">
         <v>-27.72</v>
@@ -1770,7 +1665,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3">
         <v>-27.72</v>
@@ -1790,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3">
         <v>-27.72</v>
@@ -1810,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D23" s="3">
         <v>-27.72</v>
@@ -1830,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3">
         <v>-27.72</v>
@@ -1850,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D25" s="3">
         <v>-27.72</v>
@@ -1870,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D26" s="3">
         <v>-27.72</v>
@@ -1890,7 +1785,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3">
         <v>-27.72</v>
@@ -1910,7 +1805,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D28" s="3">
         <v>-27.72</v>
@@ -1930,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D29" s="3">
         <v>-27.72</v>
@@ -1950,7 +1845,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3">
         <v>-27.72</v>
@@ -1970,7 +1865,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3">
         <v>-27.72</v>
@@ -1990,7 +1885,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D32" s="3">
         <v>-27.72</v>
@@ -2010,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D33" s="3">
         <v>-27.72</v>
@@ -2030,7 +1925,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D34" s="3">
         <v>-27.72</v>
@@ -2050,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3">
         <v>-27.72</v>
@@ -2070,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D36" s="3">
         <v>-27.72</v>
@@ -2090,7 +1985,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D37" s="3">
         <v>-27.72</v>
@@ -2110,7 +2005,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3">
         <v>-27.72</v>
@@ -2130,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D39" s="3">
         <v>-27.72</v>
@@ -2150,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3">
         <v>-27.72</v>
@@ -2170,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3">
         <v>-27.72</v>
@@ -2190,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D42" s="3">
         <v>-27.72</v>
@@ -2210,7 +2105,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D43" s="3">
         <v>-27.72</v>
@@ -2230,7 +2125,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D44" s="3">
         <v>-27.72</v>
@@ -2250,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D45" s="3">
         <v>-27.72</v>
@@ -2270,7 +2165,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3">
         <v>-27.72</v>
@@ -2290,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3">
         <v>-27.72</v>
@@ -2310,7 +2205,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3">
         <v>-27.72</v>
@@ -2330,7 +2225,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D49" s="3">
         <v>-857.92</v>
@@ -2350,7 +2245,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D50" s="3">
         <v>-962.44</v>
@@ -2370,7 +2265,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D51" s="3">
         <v>-45.69</v>
@@ -2390,7 +2285,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D52" s="3">
         <v>-25.03</v>
@@ -2410,7 +2305,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D53" s="3">
         <v>-1035</v>
@@ -2430,7 +2325,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D54" s="3">
         <v>-785.97</v>
@@ -2450,7 +2345,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D55" s="3">
         <v>-692.28</v>
@@ -2470,7 +2365,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D56" s="3">
         <v>-589.74</v>
@@ -2490,7 +2385,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D57" s="3">
         <v>-645.91</v>
@@ -2510,7 +2405,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D58" s="3">
         <v>-308.91</v>
@@ -2530,7 +2425,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D59" s="3">
         <v>-922.17</v>
@@ -2550,7 +2445,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D60" s="3">
         <v>-308.91</v>
@@ -2570,7 +2465,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D61" s="3">
         <v>-1106.57</v>
@@ -2590,7 +2485,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D62" s="3">
         <v>-711.36</v>
@@ -2610,7 +2505,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D63" s="3">
         <v>-1156.86</v>
@@ -2630,7 +2525,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D64" s="3">
         <v>-228</v>
@@ -2650,7 +2545,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D65" s="3">
         <v>-617.83</v>
@@ -2670,7 +2565,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D66" s="3">
         <v>-1156.86</v>
@@ -2690,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D67" s="3">
         <v>-887.77</v>
@@ -2710,7 +2605,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D68" s="3">
         <v>-228</v>
@@ -2730,7 +2625,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D69" s="3">
         <v>-711.36</v>
@@ -2750,7 +2645,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D70" s="3">
         <v>-645.91</v>
@@ -2770,7 +2665,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D71" s="3">
         <v>-645.91</v>
@@ -2790,7 +2685,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D72" s="3">
         <v>-664.09</v>
@@ -2810,7 +2705,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D73" s="3">
         <v>-617.83</v>
@@ -2830,7 +2725,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D74" s="3">
         <v>-645.91</v>
@@ -2850,7 +2745,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D75" s="3">
         <v>-750</v>
@@ -2870,7 +2765,7 @@
         <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D76" s="3">
         <v>-609.99</v>
@@ -2890,7 +2785,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D77" s="3">
         <v>-623.64</v>
@@ -2910,7 +2805,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D78" s="3">
         <v>-711.36</v>
@@ -2930,7 +2825,7 @@
         <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D79" s="3">
         <v>-557.55</v>
@@ -2950,7 +2845,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D80" s="3">
         <v>-645.91</v>
@@ -2970,7 +2865,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D81" s="3">
         <v>-737.64</v>
@@ -2990,7 +2885,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D82" s="3">
         <v>-1242</v>
@@ -3010,7 +2905,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D83" s="3">
         <v>-409.09</v>
@@ -3030,7 +2925,7 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D84" s="3">
         <v>-751.14</v>
@@ -3050,7 +2945,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D85" s="3">
         <v>-645.91</v>
@@ -3070,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D86" s="3">
         <v>-1786.82</v>
@@ -3090,7 +2985,7 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D87" s="3">
         <v>-521.74</v>
@@ -3110,7 +3005,7 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D88" s="3">
         <v>-711.13</v>
@@ -3130,7 +3025,7 @@
         <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D89" s="3">
         <v>-391.3</v>
@@ -3150,7 +3045,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D90" s="3">
         <v>-391.3</v>
@@ -3170,7 +3065,7 @@
         <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D91" s="3">
         <v>-391.3</v>
@@ -3190,7 +3085,7 @@
         <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D92" s="3">
         <v>-391.3</v>
@@ -3210,7 +3105,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D93" s="3">
         <v>-696.52</v>
@@ -3230,7 +3125,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D94" s="3">
         <v>-478.26</v>
@@ -3250,7 +3145,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D95" s="3">
         <v>-391.3</v>
@@ -3270,7 +3165,7 @@
         <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D96" s="3">
         <v>-1865.65</v>
@@ -3290,7 +3185,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D97" s="3">
         <v>-793.83</v>
@@ -3310,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D98" s="3">
         <v>-617.83</v>
@@ -3330,7 +3225,7 @@
         <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D99" s="3">
         <v>-617.83</v>
@@ -3350,7 +3245,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D100" s="3">
         <v>-515.65</v>
@@ -3370,7 +3265,7 @@
         <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D101" s="3">
         <v>-2534.55</v>
@@ -3390,7 +3285,7 @@
         <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D102" s="3">
         <v>-519.99</v>
@@ -3410,7 +3305,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D103" s="3">
         <v>-519.99</v>
@@ -3430,7 +3325,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D104" s="3">
         <v>-787.77</v>
@@ -3450,7 +3345,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D105" s="3">
         <v>-1916</v>
@@ -3470,7 +3365,7 @@
         <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D106" s="3">
         <v>-3149.5</v>
@@ -3490,7 +3385,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="D107" s="3">
         <v>-272.73</v>
@@ -3510,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D108" s="3">
         <v>-545.45</v>
@@ -3530,7 +3425,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D109" s="3">
         <v>-2102.27</v>
@@ -3550,7 +3445,7 @@
         <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D110" s="3">
         <v>-2075.82</v>
@@ -3570,7 +3465,7 @@
         <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D111" s="3">
         <v>-591.25</v>
@@ -3590,7 +3485,7 @@
         <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D112" s="3">
         <v>-631.36</v>
@@ -3610,7 +3505,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D113" s="3">
         <v>-1849.27</v>
@@ -3630,7 +3525,7 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D114" s="3">
         <v>-519.99</v>
@@ -3650,7 +3545,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D115" s="3">
         <v>-631.36</v>
@@ -3670,7 +3565,7 @@
         <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D116" s="3">
         <v>-631.36</v>
@@ -3690,7 +3585,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D117" s="3">
         <v>-1203.41</v>
@@ -3710,7 +3605,7 @@
         <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D118" s="3">
         <v>-523.3</v>
@@ -3730,7 +3625,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D119" s="3">
         <v>-631.36</v>
@@ -3750,7 +3645,7 @@
         <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D120" s="3">
         <v>-333.18</v>
@@ -3770,7 +3665,7 @@
         <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D121" s="3">
         <v>-1914.14</v>
@@ -3790,7 +3685,7 @@
         <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D122" s="3">
         <v>-631.36</v>
@@ -3810,7 +3705,7 @@
         <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D123" s="3">
         <v>-625.68</v>
@@ -3830,7 +3725,7 @@
         <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D124" s="3">
         <v>-625.68</v>
@@ -3850,7 +3745,7 @@
         <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D125" s="3">
         <v>-625.68</v>
@@ -3870,7 +3765,7 @@
         <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D126" s="3">
         <v>-1859.14</v>
@@ -3890,7 +3785,7 @@
         <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D127" s="3">
         <v>-2086.04</v>
@@ -3910,7 +3805,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D128" s="3">
         <v>-1859.14</v>
@@ -3930,7 +3825,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D129" s="3">
         <v>-1704.5</v>
@@ -3950,7 +3845,7 @@
         <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D130" s="3">
         <v>-593.6</v>
@@ -3970,7 +3865,7 @@
         <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D131" s="3">
         <v>-1954.95</v>
@@ -3990,7 +3885,7 @@
         <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D132" s="3">
         <v>-1538.42</v>
@@ -4010,7 +3905,7 @@
         <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D133" s="3">
         <v>-1531.53</v>
@@ -4030,7 +3925,7 @@
         <v>122</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D134" s="3">
         <v>-486.86</v>
@@ -4050,7 +3945,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D135" s="3">
         <v>-625.68</v>
@@ -4070,7 +3965,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D136" s="3">
         <v>-1880.27</v>
@@ -4090,7 +3985,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D137" s="3">
         <v>-625.68</v>
@@ -4110,7 +4005,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D138" s="3">
         <v>-625.68</v>
@@ -4130,7 +4025,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D139" s="3">
         <v>-615.87</v>
@@ -4150,7 +4045,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D140" s="3">
         <v>-630.63</v>
@@ -4170,7 +4065,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D141" s="3">
         <v>-668.47</v>
@@ -4190,7 +4085,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D142" s="3">
         <v>-1621.62</v>
@@ -4210,7 +4105,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D143" s="3">
         <v>-1755.69</v>
@@ -4230,7 +4125,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D144" s="3">
         <v>-1490.92</v>
@@ -4250,16 +4145,16 @@
         <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D145" s="3">
-        <v>-947.972972972973</v>
+        <v>-2295.92</v>
       </c>
       <c r="E145" s="3">
-        <v>-467.72</v>
+        <v>-935.44</v>
       </c>
       <c r="F145" s="3">
-        <v>-1415.69297297297</v>
+        <v>-3231.36</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4267,19 +4162,19 @@
         <v>41791</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="D146" s="3">
-        <v>-947.972972972973</v>
+        <v>-625.68</v>
       </c>
       <c r="E146" s="3">
-        <v>-467.7</v>
+        <v>0</v>
       </c>
       <c r="F146" s="3">
-        <v>-1415.67297297297</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4287,10 +4182,10 @@
         <v>41791</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D147" s="3">
         <v>-625.68</v>
@@ -4307,30 +4202,30 @@
         <v>41791</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D148" s="3">
-        <v>-625.68</v>
+        <v>-1950.9</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <v>-625.68</v>
+        <v>-1950.9</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D149" s="3">
         <v>-1950.9</v>
@@ -4347,19 +4242,19 @@
         <v>41821</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D150" s="3">
-        <v>-1950.9</v>
+        <v>-625.68</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <v>-1950.9</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4367,19 +4262,19 @@
         <v>41821</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D151" s="3">
-        <v>-625.68</v>
+        <v>-469.59</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <v>-625.68</v>
+        <v>-469.59</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4387,19 +4282,19 @@
         <v>41821</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D152" s="3">
-        <v>-469.59</v>
+        <v>-1963.06306306306</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>-469.59</v>
+        <v>-1963.06306306306</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4407,19 +4302,19 @@
         <v>41821</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="D153" s="3">
-        <v>-1963.06306306306</v>
+        <v>-330.18</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <v>-1963.06306306306</v>
+        <v>-330.18</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4427,19 +4322,19 @@
         <v>41821</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D154" s="3">
-        <v>-330.18</v>
+        <v>-1951.53</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>-330.18</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4447,19 +4342,19 @@
         <v>41821</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D155" s="3">
-        <v>-1951.53</v>
+        <v>-1806.35</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>-1951.53</v>
+        <v>-1806.35</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4467,19 +4362,19 @@
         <v>41821</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D156" s="3">
-        <v>-1806.35</v>
+        <v>-1951.53</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>-1806.35</v>
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4487,19 +4382,19 @@
         <v>41821</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D157" s="3">
-        <v>-1951.53</v>
+        <v>-1607.36</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <v>-1951.53</v>
+        <v>-1607.36</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4507,19 +4402,19 @@
         <v>41821</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D158" s="3">
-        <v>-1607.36</v>
+        <v>-563.96</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <v>-1607.36</v>
+        <v>-563.96</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4527,19 +4422,19 @@
         <v>41821</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D159" s="3">
-        <v>-563.96</v>
+        <v>-540.54</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>-563.96</v>
+        <v>-540.54</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4547,19 +4442,19 @@
         <v>41821</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="D160" s="3">
-        <v>-540.54</v>
+        <v>-2044.51</v>
       </c>
       <c r="E160" s="3">
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>-540.54</v>
+        <v>-2044.51</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4567,19 +4462,19 @@
         <v>41821</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D161" s="3">
-        <v>-2044.51</v>
+        <v>-625.675675675676</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>-2044.51</v>
+        <v>-625.675675675676</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4587,19 +4482,19 @@
         <v>41821</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D162" s="3">
-        <v>-625.675675675676</v>
+        <v>-552.43</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>-625.675675675676</v>
+        <v>-552.43</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4607,19 +4502,19 @@
         <v>41821</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D163" s="3">
-        <v>-552.43</v>
+        <v>-45.05</v>
       </c>
       <c r="E163" s="3">
         <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>-552.43</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4627,10 +4522,10 @@
         <v>41821</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D164" s="3">
         <v>-45.05</v>
@@ -4647,10 +4542,10 @@
         <v>41821</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D165" s="3">
         <v>-45.05</v>
@@ -4667,10 +4562,10 @@
         <v>41821</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D166" s="3">
         <v>-45.05</v>
@@ -4687,10 +4582,10 @@
         <v>41821</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D167" s="3">
         <v>-45.05</v>
@@ -4707,10 +4602,10 @@
         <v>41821</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D168" s="3">
         <v>-45.05</v>
@@ -4727,10 +4622,10 @@
         <v>41821</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D169" s="3">
         <v>-45.05</v>
@@ -4747,10 +4642,10 @@
         <v>41821</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D170" s="3">
         <v>-45.05</v>
@@ -4767,10 +4662,10 @@
         <v>41821</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D171" s="3">
         <v>-45.05</v>
@@ -4787,10 +4682,10 @@
         <v>41821</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D172" s="3">
         <v>-45.05</v>
@@ -4807,10 +4702,10 @@
         <v>41821</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D173" s="3">
         <v>-45.05</v>
@@ -4827,10 +4722,10 @@
         <v>41821</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D174" s="3">
         <v>-45.05</v>
@@ -4847,19 +4742,19 @@
         <v>41821</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D175" s="3">
-        <v>-45.05</v>
+        <v>-625.68</v>
       </c>
       <c r="E175" s="3">
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>-45.05</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4867,39 +4762,39 @@
         <v>41821</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D176" s="3">
-        <v>-625.68</v>
+        <v>-1577.20720720721</v>
       </c>
       <c r="E176" s="3">
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>-625.68</v>
+        <v>-1577.20720720721</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D177" s="3">
-        <v>-1577.20720720721</v>
+        <v>-6.51555555555556</v>
       </c>
       <c r="E177" s="3">
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>-1577.20720720721</v>
+        <v>-6.51555555555556</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4907,19 +4802,19 @@
         <v>41852</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D178" s="3">
-        <v>-6.51555555555556</v>
+        <v>-1292.44444444444</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>-6.51555555555556</v>
+        <v>-1292.44444444444</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4927,19 +4822,19 @@
         <v>41852</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D179" s="3">
-        <v>-1292.44444444444</v>
+        <v>-1155.55555555556</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
       </c>
       <c r="F179" s="3">
-        <v>-1292.44444444444</v>
+        <v>-1155.55555555556</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4947,19 +4842,19 @@
         <v>41852</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D180" s="3">
-        <v>-1155.55555555556</v>
+        <v>-625.68</v>
       </c>
       <c r="E180" s="3">
         <v>0</v>
       </c>
       <c r="F180" s="3">
-        <v>-1155.55555555556</v>
+        <v>-625.68</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4967,19 +4862,19 @@
         <v>41852</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D181" s="3">
-        <v>-625.68</v>
+        <v>-433.035555555556</v>
       </c>
       <c r="E181" s="3">
         <v>0</v>
       </c>
       <c r="F181" s="3">
-        <v>-625.68</v>
+        <v>-433.035555555556</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4987,19 +4882,19 @@
         <v>41852</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D182" s="3">
-        <v>-433.035555555556</v>
+        <v>-1629.99</v>
       </c>
       <c r="E182" s="3">
         <v>0</v>
       </c>
       <c r="F182" s="3">
-        <v>-433.035555555556</v>
+        <v>-1629.99</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5007,19 +4902,19 @@
         <v>41852</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D183" s="3">
-        <v>-1629.99</v>
+        <v>-612.355555555555</v>
       </c>
       <c r="E183" s="3">
         <v>0</v>
       </c>
       <c r="F183" s="3">
-        <v>-1629.99</v>
+        <v>-612.355555555555</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5027,19 +4922,19 @@
         <v>41852</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D184" s="3">
-        <v>-612.355555555555</v>
+        <v>-1908.03555555556</v>
       </c>
       <c r="E184" s="3">
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>-612.355555555555</v>
+        <v>-1908.03555555556</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5047,19 +4942,19 @@
         <v>41852</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D185" s="3">
-        <v>-1908.03555555556</v>
+        <v>-335.404444444444</v>
       </c>
       <c r="E185" s="3">
         <v>0</v>
       </c>
       <c r="F185" s="3">
-        <v>-1908.03555555556</v>
+        <v>-335.404444444444</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5067,19 +4962,19 @@
         <v>41852</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D186" s="3">
-        <v>-335.404444444444</v>
+        <v>-405.41</v>
       </c>
       <c r="E186" s="3">
         <v>0</v>
       </c>
       <c r="F186" s="3">
-        <v>-335.404444444444</v>
+        <v>-405.41</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5087,39 +4982,39 @@
         <v>41852</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D187" s="3">
-        <v>-408.293333333333</v>
+        <v>-12.4444444444444</v>
       </c>
       <c r="E187" s="3">
         <v>0</v>
       </c>
       <c r="F187" s="3">
-        <v>-408.293333333333</v>
+        <v>-12.4444444444444</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D188" s="3">
-        <v>-12.4444444444444</v>
+        <v>-1992.44444444444</v>
       </c>
       <c r="E188" s="3">
         <v>0</v>
       </c>
       <c r="F188" s="3">
-        <v>-12.4444444444444</v>
+        <v>-1992.44444444444</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5127,19 +5022,19 @@
         <v>41883</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D189" s="3">
-        <v>-1992.44444444444</v>
+        <v>-1883.28888888889</v>
       </c>
       <c r="E189" s="3">
         <v>0</v>
       </c>
       <c r="F189" s="3">
-        <v>-1992.44444444444</v>
+        <v>-1883.28888888889</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5147,19 +5042,19 @@
         <v>41883</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D190" s="3">
-        <v>-1883.28888888889</v>
+        <v>-44.4444444444444</v>
       </c>
       <c r="E190" s="3">
         <v>0</v>
       </c>
       <c r="F190" s="3">
-        <v>-1883.28888888889</v>
+        <v>-44.4444444444444</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5167,10 +5062,10 @@
         <v>41883</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D191" s="3">
         <v>-44.4444444444444</v>
@@ -5187,10 +5082,10 @@
         <v>41883</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D192" s="3">
         <v>-44.4444444444444</v>
@@ -5207,10 +5102,10 @@
         <v>41883</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D193" s="3">
         <v>-44.4444444444444</v>
@@ -5227,10 +5122,10 @@
         <v>41883</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D194" s="3">
         <v>-44.4444444444444</v>
@@ -5247,10 +5142,10 @@
         <v>41883</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D195" s="3">
         <v>-44.4444444444444</v>
@@ -5267,10 +5162,10 @@
         <v>41883</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D196" s="3">
         <v>-44.4444444444444</v>
@@ -5287,10 +5182,10 @@
         <v>41883</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D197" s="3">
         <v>-44.4444444444444</v>
@@ -5307,10 +5202,10 @@
         <v>41883</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D198" s="3">
         <v>-44.4444444444444</v>
@@ -5327,10 +5222,10 @@
         <v>41883</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D199" s="3">
         <v>-44.4444444444444</v>
@@ -5347,10 +5242,10 @@
         <v>41883</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D200" s="3">
         <v>-44.4444444444444</v>
@@ -5367,10 +5262,10 @@
         <v>41883</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D201" s="3">
         <v>-44.4444444444444</v>
@@ -5387,19 +5282,19 @@
         <v>41883</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D202" s="3">
-        <v>-44.4444444444444</v>
+        <v>-618.515555555556</v>
       </c>
       <c r="E202" s="3">
         <v>0</v>
       </c>
       <c r="F202" s="3">
-        <v>-44.4444444444444</v>
+        <v>-618.515555555556</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5407,19 +5302,19 @@
         <v>41883</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D203" s="3">
-        <v>-618.515555555556</v>
+        <v>-815.946666666667</v>
       </c>
       <c r="E203" s="3">
         <v>0</v>
       </c>
       <c r="F203" s="3">
-        <v>-618.515555555556</v>
+        <v>-815.946666666667</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5427,19 +5322,19 @@
         <v>41883</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D204" s="3">
-        <v>-815.946666666667</v>
+        <v>-1739.28888888889</v>
       </c>
       <c r="E204" s="3">
         <v>0</v>
       </c>
       <c r="F204" s="3">
-        <v>-815.946666666667</v>
+        <v>-1739.28888888889</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5447,19 +5342,19 @@
         <v>41883</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D205" s="3">
-        <v>-1739.28888888889</v>
+        <v>-2498.88888888889</v>
       </c>
       <c r="E205" s="3">
         <v>0</v>
       </c>
       <c r="F205" s="3">
-        <v>-1739.28888888889</v>
+        <v>-2498.88888888889</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5467,19 +5362,19 @@
         <v>41883</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D206" s="3">
-        <v>-2498.88888888889</v>
+        <v>-618.888888888889</v>
       </c>
       <c r="E206" s="3">
         <v>0</v>
       </c>
       <c r="F206" s="3">
-        <v>-2498.88888888889</v>
+        <v>-618.888888888889</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5487,19 +5382,19 @@
         <v>41883</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D207" s="3">
-        <v>-618.888888888889</v>
+        <v>-850.22</v>
       </c>
       <c r="E207" s="3">
         <v>0</v>
       </c>
       <c r="F207" s="3">
-        <v>-618.888888888889</v>
+        <v>-850.22</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5510,16 +5405,16 @@
         <v>204</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D208" s="3">
-        <v>-850.22</v>
+        <v>-578.071111111111</v>
       </c>
       <c r="E208" s="3">
         <v>0</v>
       </c>
       <c r="F208" s="3">
-        <v>-850.22</v>
+        <v>-578.071111111111</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5530,16 +5425,16 @@
         <v>205</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D209" s="3">
-        <v>-578.071111111111</v>
+        <v>-1289.2</v>
       </c>
       <c r="E209" s="3">
         <v>0</v>
       </c>
       <c r="F209" s="3">
-        <v>-578.071111111111</v>
+        <v>-1289.2</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5550,16 +5445,16 @@
         <v>206</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="D210" s="3">
-        <v>-1289.2</v>
+        <v>-729.626666666667</v>
       </c>
       <c r="E210" s="3">
         <v>0</v>
       </c>
       <c r="F210" s="3">
-        <v>-1289.2</v>
+        <v>-729.626666666667</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5570,16 +5465,16 @@
         <v>207</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D211" s="3">
-        <v>-729.626666666667</v>
+        <v>-683.848888888889</v>
       </c>
       <c r="E211" s="3">
         <v>0</v>
       </c>
       <c r="F211" s="3">
-        <v>-729.626666666667</v>
+        <v>-683.848888888889</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5590,36 +5485,36 @@
         <v>208</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D212" s="3">
-        <v>-683.848888888889</v>
+        <v>-2138.97777777778</v>
       </c>
       <c r="E212" s="3">
         <v>0</v>
       </c>
       <c r="F212" s="3">
-        <v>-683.848888888889</v>
+        <v>-2138.97777777778</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D213" s="3">
-        <v>-2138.97777777778</v>
+        <v>-1196.83673469388</v>
       </c>
       <c r="E213" s="3">
         <v>0</v>
       </c>
       <c r="F213" s="3">
-        <v>-2138.97777777778</v>
+        <v>-1196.83673469388</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5630,16 +5525,16 @@
         <v>210</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D214" s="3">
-        <v>-1196.83673469388</v>
+        <v>-332.755102040816</v>
       </c>
       <c r="E214" s="3">
         <v>0</v>
       </c>
       <c r="F214" s="3">
-        <v>-1196.83673469388</v>
+        <v>-332.755102040816</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5650,16 +5545,16 @@
         <v>211</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="D215" s="3">
-        <v>-332.755102040816</v>
+        <v>-1980.9</v>
       </c>
       <c r="E215" s="3">
-        <v>0</v>
+        <v>-34.98</v>
       </c>
       <c r="F215" s="3">
-        <v>-332.755102040816</v>
+        <v>-2015.88</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5670,16 +5565,16 @@
         <v>212</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D216" s="3">
-        <v>-1980.9</v>
+        <v>-882.040816326531</v>
       </c>
       <c r="E216" s="3">
-        <v>-34.98</v>
+        <v>0</v>
       </c>
       <c r="F216" s="3">
-        <v>-2015.88</v>
+        <v>-882.040816326531</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5690,16 +5585,16 @@
         <v>213</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="D217" s="3">
-        <v>-882.040816326531</v>
+        <v>-937.408163265306</v>
       </c>
       <c r="E217" s="3">
         <v>0</v>
       </c>
       <c r="F217" s="3">
-        <v>-882.040816326531</v>
+        <v>-937.408163265306</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5710,16 +5605,16 @@
         <v>214</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D218" s="3">
-        <v>-937.408163265306</v>
+        <v>-1226.88</v>
       </c>
       <c r="E218" s="3">
         <v>0</v>
       </c>
       <c r="F218" s="3">
-        <v>-937.408163265306</v>
+        <v>-1226.88</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5730,16 +5625,16 @@
         <v>215</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D219" s="3">
-        <v>-1226.88</v>
+        <v>-1077.24489795918</v>
       </c>
       <c r="E219" s="3">
         <v>0</v>
       </c>
       <c r="F219" s="3">
-        <v>-1226.88</v>
+        <v>-1077.24489795918</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5750,16 +5645,16 @@
         <v>216</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="D220" s="3">
-        <v>-1077.24489795918</v>
+        <v>-734.69387755102</v>
       </c>
       <c r="E220" s="3">
         <v>0</v>
       </c>
       <c r="F220" s="3">
-        <v>-1077.24489795918</v>
+        <v>-734.69387755102</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5767,19 +5662,19 @@
         <v>41913</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D221" s="3">
-        <v>-734.69387755102</v>
+        <v>0</v>
       </c>
       <c r="E221" s="3">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="F221" s="3">
-        <v>-734.69387755102</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5787,19 +5682,19 @@
         <v>41913</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D222" s="3">
-        <v>0</v>
+        <v>-1522.04081632653</v>
       </c>
       <c r="E222" s="3">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="F222" s="3">
-        <v>-35</v>
+        <v>-1522.04081632653</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5813,13 +5708,13 @@
         <v>288</v>
       </c>
       <c r="D223" s="3">
-        <v>-1522.04081632653</v>
+        <v>-832.877551020408</v>
       </c>
       <c r="E223" s="3">
         <v>0</v>
       </c>
       <c r="F223" s="3">
-        <v>-1522.04081632653</v>
+        <v>-832.877551020408</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5830,16 +5725,16 @@
         <v>219</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="D224" s="3">
-        <v>-832.877551020408</v>
+        <v>-1099.69387755102</v>
       </c>
       <c r="E224" s="3">
         <v>0</v>
       </c>
       <c r="F224" s="3">
-        <v>-832.877551020408</v>
+        <v>-1099.69387755102</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5850,16 +5745,16 @@
         <v>220</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D225" s="3">
-        <v>-1099.69387755102</v>
+        <v>-371.938775510204</v>
       </c>
       <c r="E225" s="3">
         <v>0</v>
       </c>
       <c r="F225" s="3">
-        <v>-1099.69387755102</v>
+        <v>-371.938775510204</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5870,16 +5765,16 @@
         <v>221</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D226" s="3">
-        <v>-371.938775510204</v>
+        <v>-566.938775510204</v>
       </c>
       <c r="E226" s="3">
         <v>0</v>
       </c>
       <c r="F226" s="3">
-        <v>-371.938775510204</v>
+        <v>-566.938775510204</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5890,16 +5785,16 @@
         <v>222</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D227" s="3">
-        <v>-566.938775510204</v>
+        <v>-731.942857142857</v>
       </c>
       <c r="E227" s="3">
         <v>0</v>
       </c>
       <c r="F227" s="3">
-        <v>-566.938775510204</v>
+        <v>-731.942857142857</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5910,16 +5805,16 @@
         <v>223</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D228" s="3">
-        <v>-731.942857142857</v>
+        <v>-1041.32653061224</v>
       </c>
       <c r="E228" s="3">
         <v>0</v>
       </c>
       <c r="F228" s="3">
-        <v>-731.942857142857</v>
+        <v>-1041.32653061224</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5927,19 +5822,19 @@
         <v>41913</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D229" s="3">
-        <v>-1041.32653061224</v>
+        <v>-283.469387755102</v>
       </c>
       <c r="E229" s="3">
         <v>0</v>
       </c>
       <c r="F229" s="3">
-        <v>-1041.32653061224</v>
+        <v>-283.469387755102</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5947,19 +5842,19 @@
         <v>41913</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D230" s="3">
-        <v>-283.469387755102</v>
+        <v>-369.489795918367</v>
       </c>
       <c r="E230" s="3">
         <v>0</v>
       </c>
       <c r="F230" s="3">
-        <v>-283.469387755102</v>
+        <v>-369.489795918367</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5970,16 +5865,16 @@
         <v>225</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="D231" s="3">
-        <v>-369.489795918367</v>
+        <v>-1169.08163265306</v>
       </c>
       <c r="E231" s="3">
         <v>0</v>
       </c>
       <c r="F231" s="3">
-        <v>-369.489795918367</v>
+        <v>-1169.08163265306</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5990,16 +5885,16 @@
         <v>226</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D232" s="3">
-        <v>-1169.08163265306</v>
+        <v>-209.387755102041</v>
       </c>
       <c r="E232" s="3">
         <v>0</v>
       </c>
       <c r="F232" s="3">
-        <v>-1169.08163265306</v>
+        <v>-209.387755102041</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6007,10 +5902,10 @@
         <v>41913</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D233" s="3">
         <v>-209.387755102041</v>
@@ -6030,36 +5925,36 @@
         <v>227</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D234" s="3">
-        <v>-209.387755102041</v>
+        <v>-1256.95510204082</v>
       </c>
       <c r="E234" s="3">
         <v>0</v>
       </c>
       <c r="F234" s="3">
-        <v>-209.387755102041</v>
+        <v>-1256.95510204082</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D235" s="3">
-        <v>-1256.95510204082</v>
+        <v>-409.12</v>
       </c>
       <c r="E235" s="3">
         <v>0</v>
       </c>
       <c r="F235" s="3">
-        <v>-1256.95510204082</v>
+        <v>-409.12</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6070,16 +5965,16 @@
         <v>229</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="D236" s="3">
-        <v>-409.12</v>
+        <v>-360</v>
       </c>
       <c r="E236" s="3">
         <v>0</v>
       </c>
       <c r="F236" s="3">
-        <v>-409.12</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6090,16 +5985,16 @@
         <v>230</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="D237" s="3">
-        <v>-361.864</v>
+        <v>-555.6</v>
       </c>
       <c r="E237" s="3">
         <v>0</v>
       </c>
       <c r="F237" s="3">
-        <v>-361.864</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6110,16 +6005,16 @@
         <v>231</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D238" s="3">
-        <v>-555.6</v>
+        <v>-1478.2</v>
       </c>
       <c r="E238" s="3">
         <v>0</v>
       </c>
       <c r="F238" s="3">
-        <v>-555.6</v>
+        <v>-1478.2</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6130,16 +6025,16 @@
         <v>232</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D239" s="3">
-        <v>-1490.8</v>
+        <v>-555.6</v>
       </c>
       <c r="E239" s="3">
         <v>0</v>
       </c>
       <c r="F239" s="3">
-        <v>-1490.8</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6150,16 +6045,16 @@
         <v>233</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D240" s="3">
-        <v>-555.6</v>
+        <v>-408</v>
       </c>
       <c r="E240" s="3">
         <v>0</v>
       </c>
       <c r="F240" s="3">
-        <v>-555.6</v>
+        <v>-408</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6170,16 +6065,16 @@
         <v>234</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D241" s="3">
-        <v>-408</v>
+        <v>-360</v>
       </c>
       <c r="E241" s="3">
         <v>0</v>
       </c>
       <c r="F241" s="3">
-        <v>-408</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6190,16 +6085,16 @@
         <v>235</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="D242" s="3">
-        <v>-361.864</v>
+        <v>-435.12</v>
       </c>
       <c r="E242" s="3">
         <v>0</v>
       </c>
       <c r="F242" s="3">
-        <v>-361.864</v>
+        <v>-435.12</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6210,16 +6105,16 @@
         <v>236</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D243" s="3">
-        <v>-435.12</v>
+        <v>-410.1</v>
       </c>
       <c r="E243" s="3">
         <v>0</v>
       </c>
       <c r="F243" s="3">
-        <v>-435.12</v>
+        <v>-410.1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6230,16 +6125,16 @@
         <v>237</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D244" s="3">
-        <v>-410.1</v>
+        <v>-555.6</v>
       </c>
       <c r="E244" s="3">
         <v>0</v>
       </c>
       <c r="F244" s="3">
-        <v>-410.1</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6250,16 +6145,16 @@
         <v>238</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D245" s="3">
-        <v>-555.6</v>
+        <v>-1554.048</v>
       </c>
       <c r="E245" s="3">
         <v>0</v>
       </c>
       <c r="F245" s="3">
-        <v>-555.6</v>
+        <v>-1554.048</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6270,16 +6165,16 @@
         <v>239</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D246" s="3">
-        <v>-1557.548</v>
+        <v>-360</v>
       </c>
       <c r="E246" s="3">
         <v>0</v>
       </c>
       <c r="F246" s="3">
-        <v>-1557.548</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6287,19 +6182,19 @@
         <v>41944</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D247" s="3">
-        <v>-365.2</v>
+        <v>-168</v>
       </c>
       <c r="E247" s="3">
         <v>0</v>
       </c>
       <c r="F247" s="3">
-        <v>-365.2</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6307,19 +6202,19 @@
         <v>41944</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D248" s="3">
-        <v>-168</v>
+        <v>-408</v>
       </c>
       <c r="E248" s="3">
         <v>0</v>
       </c>
       <c r="F248" s="3">
-        <v>-168</v>
+        <v>-408</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6330,16 +6225,16 @@
         <v>241</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D249" s="3">
-        <v>-408</v>
+        <v>-555.6</v>
       </c>
       <c r="E249" s="3">
         <v>0</v>
       </c>
       <c r="F249" s="3">
-        <v>-408</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6350,16 +6245,16 @@
         <v>242</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D250" s="3">
-        <v>-555.6</v>
+        <v>-640</v>
       </c>
       <c r="E250" s="3">
         <v>0</v>
       </c>
       <c r="F250" s="3">
-        <v>-555.6</v>
+        <v>-640</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6370,16 +6265,16 @@
         <v>243</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D251" s="3">
-        <v>-640</v>
+        <v>-1904.848</v>
       </c>
       <c r="E251" s="3">
         <v>0</v>
       </c>
       <c r="F251" s="3">
-        <v>-640</v>
+        <v>-1904.848</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6390,16 +6285,16 @@
         <v>244</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D252" s="3">
-        <v>-1904.848</v>
+        <v>-1807.6</v>
       </c>
       <c r="E252" s="3">
         <v>0</v>
       </c>
       <c r="F252" s="3">
-        <v>-1904.848</v>
+        <v>-1807.6</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6410,16 +6305,16 @@
         <v>245</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D253" s="3">
-        <v>-409.864</v>
+        <v>-1447.2</v>
       </c>
       <c r="E253" s="3">
         <v>0</v>
       </c>
       <c r="F253" s="3">
-        <v>-409.864</v>
+        <v>-1447.2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6430,16 +6325,16 @@
         <v>246</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D254" s="3">
-        <v>-1824.4</v>
+        <v>-555.6</v>
       </c>
       <c r="E254" s="3">
         <v>0</v>
       </c>
       <c r="F254" s="3">
-        <v>-1824.4</v>
+        <v>-555.6</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6450,16 +6345,16 @@
         <v>247</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D255" s="3">
-        <v>-1449.3</v>
+        <v>-408</v>
       </c>
       <c r="E255" s="3">
         <v>0</v>
       </c>
       <c r="F255" s="3">
-        <v>-1449.3</v>
+        <v>-408</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6470,16 +6365,16 @@
         <v>248</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D256" s="3">
-        <v>-555.6</v>
+        <v>-360</v>
       </c>
       <c r="E256" s="3">
         <v>0</v>
       </c>
       <c r="F256" s="3">
-        <v>-555.6</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6490,16 +6385,16 @@
         <v>249</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="D257" s="3">
-        <v>-409.864</v>
+        <v>-360</v>
       </c>
       <c r="E257" s="3">
         <v>0</v>
       </c>
       <c r="F257" s="3">
-        <v>-409.864</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6507,19 +6402,19 @@
         <v>41944</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="D258" s="3">
-        <v>-361.12</v>
+        <v>-216</v>
       </c>
       <c r="E258" s="3">
         <v>0</v>
       </c>
       <c r="F258" s="3">
-        <v>-361.12</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6527,19 +6422,19 @@
         <v>41944</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D259" s="3">
-        <v>-520.264</v>
+        <v>-1431.2</v>
       </c>
       <c r="E259" s="3">
         <v>0</v>
       </c>
       <c r="F259" s="3">
-        <v>-520.264</v>
+        <v>-1431.2</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6547,59 +6442,59 @@
         <v>41944</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="D260" s="3">
-        <v>-360</v>
+        <v>-1628.8</v>
       </c>
       <c r="E260" s="3">
         <v>0</v>
       </c>
       <c r="F260" s="3">
-        <v>-360</v>
+        <v>-1628.8</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="D261" s="3">
-        <v>-1448</v>
+        <v>-762.645914396887</v>
       </c>
       <c r="E261" s="3">
         <v>0</v>
       </c>
       <c r="F261" s="3">
-        <v>-1448</v>
+        <v>-762.645914396887</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D262" s="3">
-        <v>-1628.8</v>
+        <v>-256.809338521401</v>
       </c>
       <c r="E262" s="3">
         <v>0</v>
       </c>
       <c r="F262" s="3">
-        <v>-1628.8</v>
+        <v>-256.809338521401</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6607,19 +6502,19 @@
         <v>41974</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D263" s="3">
-        <v>-762.645914396887</v>
+        <v>-540.466926070039</v>
       </c>
       <c r="E263" s="3">
         <v>0</v>
       </c>
       <c r="F263" s="3">
-        <v>-762.645914396887</v>
+        <v>-540.466926070039</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6627,19 +6522,19 @@
         <v>41974</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="D264" s="3">
-        <v>-256.809338521401</v>
+        <v>-540.466926070039</v>
       </c>
       <c r="E264" s="3">
         <v>0</v>
       </c>
       <c r="F264" s="3">
-        <v>-256.809338521401</v>
+        <v>-540.466926070039</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6647,19 +6542,19 @@
         <v>41974</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D265" s="3">
-        <v>-540.466926070039</v>
+        <v>-1244.94163424125</v>
       </c>
       <c r="E265" s="3">
         <v>0</v>
       </c>
       <c r="F265" s="3">
-        <v>-540.466926070039</v>
+        <v>-1244.94163424125</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6667,19 +6562,19 @@
         <v>41974</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D266" s="3">
-        <v>-541.828793774319</v>
+        <v>-350.194552529183</v>
       </c>
       <c r="E266" s="3">
         <v>0</v>
       </c>
       <c r="F266" s="3">
-        <v>-541.828793774319</v>
+        <v>-350.194552529183</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6687,19 +6582,19 @@
         <v>41974</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="D267" s="3">
-        <v>-1244.94163424125</v>
+        <v>-247.081712062257</v>
       </c>
       <c r="E267" s="3">
         <v>0</v>
       </c>
       <c r="F267" s="3">
-        <v>-1244.94163424125</v>
+        <v>-247.081712062257</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6707,19 +6602,19 @@
         <v>41974</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="D268" s="3">
-        <v>-351.284046692607</v>
+        <v>-247.081712062257</v>
       </c>
       <c r="E268" s="3">
         <v>0</v>
       </c>
       <c r="F268" s="3">
-        <v>-351.284046692607</v>
+        <v>-247.081712062257</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6727,10 +6622,10 @@
         <v>41974</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D269" s="3">
         <v>-247.081712062257</v>
@@ -6747,10 +6642,10 @@
         <v>41974</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D270" s="3">
         <v>-247.081712062257</v>
@@ -6767,19 +6662,19 @@
         <v>41974</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D271" s="3">
-        <v>-247.081712062257</v>
+        <v>-1069.64980544747</v>
       </c>
       <c r="E271" s="3">
         <v>0</v>
       </c>
       <c r="F271" s="3">
-        <v>-247.081712062257</v>
+        <v>-1069.64980544747</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6787,19 +6682,19 @@
         <v>41974</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D272" s="3">
-        <v>-247.081712062257</v>
+        <v>-922.568093385214</v>
       </c>
       <c r="E272" s="3">
         <v>0</v>
       </c>
       <c r="F272" s="3">
-        <v>-247.081712062257</v>
+        <v>-922.568093385214</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6807,19 +6702,19 @@
         <v>41974</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D273" s="3">
-        <v>-1069.64980544747</v>
+        <v>-540.466926070039</v>
       </c>
       <c r="E273" s="3">
         <v>0</v>
       </c>
       <c r="F273" s="3">
-        <v>-1069.64980544747</v>
+        <v>-540.466926070039</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6827,19 +6722,19 @@
         <v>41974</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D274" s="3">
-        <v>-769.416342412451</v>
+        <v>-1563.81322957198</v>
       </c>
       <c r="E274" s="3">
         <v>0</v>
       </c>
       <c r="F274" s="3">
-        <v>-769.416342412451</v>
+        <v>-1563.81322957198</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6847,19 +6742,19 @@
         <v>41974</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="D275" s="3">
-        <v>-540.466926070039</v>
+        <v>-1036.18677042802</v>
       </c>
       <c r="E275" s="3">
         <v>0</v>
       </c>
       <c r="F275" s="3">
-        <v>-540.466926070039</v>
+        <v>-1036.18677042802</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6867,19 +6762,19 @@
         <v>41974</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D276" s="3">
-        <v>-1563.81322957198</v>
+        <v>-116.731517509728</v>
       </c>
       <c r="E276" s="3">
         <v>0</v>
       </c>
       <c r="F276" s="3">
-        <v>-1563.81322957198</v>
+        <v>-116.731517509728</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6887,312 +6782,40 @@
         <v>41974</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D277" s="3">
-        <v>-1036.18677042802</v>
+        <v>-622.568093385214</v>
       </c>
       <c r="E277" s="3">
         <v>0</v>
       </c>
       <c r="F277" s="3">
-        <v>-1036.18677042802</v>
+        <v>-622.568093385214</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D278" s="3">
-        <v>-661.47859922179</v>
+        <v>-540.466926070039</v>
       </c>
       <c r="E278" s="3">
         <v>0</v>
       </c>
       <c r="F278" s="3">
-        <v>-661.47859922179</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="2">
-        <v>41974</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D279" s="3">
-        <v>-821.011673151751</v>
-      </c>
-      <c r="E279" s="3">
-        <v>0</v>
-      </c>
-      <c r="F279" s="3">
-        <v>-821.011673151751</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D280" s="3">
-        <v>-1480.93385214008</v>
-      </c>
-      <c r="E280" s="3">
-        <v>0</v>
-      </c>
-      <c r="F280" s="3">
-        <v>-1480.93385214008</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D281" s="3">
-        <v>-1591.82879377432</v>
-      </c>
-      <c r="E281" s="3">
-        <v>0</v>
-      </c>
-      <c r="F281" s="3">
-        <v>-1591.82879377432</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D282" s="3">
-        <v>-566.938775510204</v>
-      </c>
-      <c r="E282" s="3">
-        <v>0</v>
-      </c>
-      <c r="F282" s="3">
-        <v>-566.938775510204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D283" s="3">
         <v>-540.466926070039</v>
       </c>
-      <c r="E283" s="3">
-        <v>0</v>
-      </c>
-      <c r="F283" s="3">
-        <v>-540.466926070039</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D284" s="3">
-        <v>-500</v>
-      </c>
-      <c r="E284" s="3">
-        <v>0</v>
-      </c>
-      <c r="F284" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D285" s="3">
-        <v>-1582.87937743191</v>
-      </c>
-      <c r="E285" s="3">
-        <v>0</v>
-      </c>
-      <c r="F285" s="3">
-        <v>-1582.87937743191</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D286" s="3">
-        <v>-198.443579766537</v>
-      </c>
-      <c r="E286" s="3">
-        <v>0</v>
-      </c>
-      <c r="F286" s="3">
-        <v>-198.443579766537</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3">
-        <v>0</v>
-      </c>
-      <c r="F287" s="3"/>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3">
-        <v>0</v>
-      </c>
-      <c r="F288" s="3"/>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3">
-        <v>0</v>
-      </c>
-      <c r="F289" s="3"/>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3">
-        <v>0</v>
-      </c>
-      <c r="F290" s="3"/>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3">
-        <v>0</v>
-      </c>
-      <c r="F291" s="3"/>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3">
-        <v>0</v>
-      </c>
-      <c r="F292" s="3"/>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3">
-        <v>0</v>
-      </c>
-      <c r="F293" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sofaaudit/output/Recoupable.xlsx
+++ b/sofaaudit/output/Recoupable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="353">
   <si>
     <t>Encoding U$</t>
   </si>
@@ -550,6 +550,9 @@
     <t>Getúlio</t>
   </si>
   <si>
+    <t>Gotitas de Alegria</t>
+  </si>
+  <si>
     <t>In the blood</t>
   </si>
   <si>
@@ -568,9 +571,6 @@
     <t>Quando eu era vivo</t>
   </si>
   <si>
-    <t>Tarja Branca</t>
-  </si>
-  <si>
     <t>Arretez-moi</t>
   </si>
   <si>
@@ -808,16 +808,133 @@
     <t>Pesadelos do Passado 2</t>
   </si>
   <si>
+    <t>Suneigrekland</t>
+  </si>
+  <si>
     <t>São Silvestre</t>
   </si>
   <si>
+    <t>Wakolda</t>
+  </si>
+  <si>
+    <t>Minuscule</t>
+  </si>
+  <si>
+    <t>The Imigrant</t>
+  </si>
+  <si>
     <t>Tim Maia</t>
   </si>
   <si>
-    <t>Wakolda</t>
-  </si>
-  <si>
-    <t>Minuscule</t>
+    <t>Tusen Ganger god natt</t>
+  </si>
+  <si>
+    <t>Violett</t>
+  </si>
+  <si>
+    <t>Welcome to New York</t>
+  </si>
+  <si>
+    <t>A Promisse</t>
+  </si>
+  <si>
+    <t>A walk with the tombstones</t>
+  </si>
+  <si>
+    <t>Atila Marcel</t>
+  </si>
+  <si>
+    <t>Bienvenue Parmi Nous</t>
+  </si>
+  <si>
+    <t>Dude where is my dog</t>
+  </si>
+  <si>
+    <t>Free Angela Davies</t>
+  </si>
+  <si>
+    <t>Made in China</t>
+  </si>
+  <si>
+    <t>Reach Me</t>
+  </si>
+  <si>
+    <t>Stretch</t>
+  </si>
+  <si>
+    <t>Syngué sabour</t>
+  </si>
+  <si>
+    <t>Trinta</t>
+  </si>
+  <si>
+    <t>Una luz en la oscuridad</t>
+  </si>
+  <si>
+    <t>Une autre vie</t>
+  </si>
+  <si>
+    <t>Che strano chiamarsi Federico</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>La Traversée</t>
+  </si>
+  <si>
+    <t>Leviata</t>
+  </si>
+  <si>
+    <t>Mommy</t>
+  </si>
+  <si>
+    <t>November Man</t>
+  </si>
+  <si>
+    <t>Os amigos</t>
+  </si>
+  <si>
+    <t>Saint Laurent</t>
+  </si>
+  <si>
+    <t>Ventos de Agosto</t>
+  </si>
+  <si>
+    <t>Defiance</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Good People</t>
+  </si>
+  <si>
+    <t>Les vacance du petit Nicolas</t>
+  </si>
+  <si>
+    <t>Maps to the stars</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Otro día para matar</t>
+  </si>
+  <si>
+    <t>Ploddy II</t>
+  </si>
+  <si>
+    <t>Pour une Femme</t>
+  </si>
+  <si>
+    <t>The Double</t>
+  </si>
+  <si>
+    <t>The Ultimate Acessory</t>
   </si>
   <si>
     <t>Tag Cultural</t>
@@ -832,9 +949,15 @@
     <t>Bromélia</t>
   </si>
   <si>
+    <t>Novelo</t>
+  </si>
+  <si>
     <t>Mares Filmes</t>
   </si>
   <si>
+    <t>Kinoskopio</t>
+  </si>
+  <si>
     <t>H2O INT</t>
   </si>
   <si>
@@ -844,10 +967,19 @@
     <t>H2O NAC</t>
   </si>
   <si>
+    <t>Escrevendo</t>
+  </si>
+  <si>
+    <t>Hangar</t>
+  </si>
+  <si>
     <t>Reserva Nacional</t>
   </si>
   <si>
-    <t>Flash Star</t>
+    <t>A2 Filmes</t>
+  </si>
+  <si>
+    <t>TV Zero</t>
   </si>
   <si>
     <t>Vitrine</t>
@@ -865,13 +997,34 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Autlook</t>
+  </si>
+  <si>
+    <t>Cinema 7</t>
+  </si>
+  <si>
     <t>Europa Filmes</t>
   </si>
   <si>
+    <t>Maria Farinha</t>
+  </si>
+  <si>
+    <t>Pequi Filmes</t>
+  </si>
+  <si>
     <t>Esfera</t>
   </si>
   <si>
-    <t xml:space="preserve">Esfera </t>
+    <t>Oka</t>
+  </si>
+  <si>
+    <t>Camisa Treze</t>
+  </si>
+  <si>
+    <t>Coração da Selva</t>
+  </si>
+  <si>
+    <t>Cavideo</t>
   </si>
   <si>
     <t>Alpha Filmes</t>
@@ -880,13 +1033,46 @@
     <t>Alfhaville</t>
   </si>
   <si>
+    <t>Latam Pictures</t>
+  </si>
+  <si>
+    <t>Dama Filmes</t>
+  </si>
+  <si>
     <t>3 Film Group</t>
   </si>
   <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
     <t>Nueva Era</t>
   </si>
   <si>
-    <t>Prodigo</t>
+    <t>Producciones Kramer</t>
+  </si>
+  <si>
+    <t>Guerrilha</t>
+  </si>
+  <si>
+    <t>Cinemascopio</t>
+  </si>
+  <si>
+    <t>Super Bebe</t>
+  </si>
+  <si>
+    <t>Jirafa</t>
+  </si>
+  <si>
+    <t>RT Features</t>
+  </si>
+  <si>
+    <t>Primo Filmes</t>
+  </si>
+  <si>
+    <t>Zeta Filmes</t>
+  </si>
+  <si>
+    <t>BF Distribution</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -956,7 +1142,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,15 +1470,15 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="3">
+        <v>307</v>
+      </c>
+      <c r="D2">
         <v>-924.01</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>-924.01</v>
       </c>
     </row>
@@ -1305,15 +1490,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="3">
+        <v>308</v>
+      </c>
+      <c r="D3">
         <v>-692.28</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>-692.28</v>
       </c>
     </row>
@@ -1325,15 +1510,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="3">
+        <v>309</v>
+      </c>
+      <c r="D4">
         <v>-1035</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>-1035</v>
       </c>
     </row>
@@ -1345,15 +1530,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="3">
+        <v>308</v>
+      </c>
+      <c r="D5">
         <v>-589.74</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>-589.74</v>
       </c>
     </row>
@@ -1365,15 +1550,15 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="3">
+        <v>307</v>
+      </c>
+      <c r="D6">
         <v>-352.53</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>-352.53</v>
       </c>
     </row>
@@ -1385,15 +1570,15 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+        <v>310</v>
+      </c>
+      <c r="D7">
+        <v>-27.72</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>-27.72</v>
       </c>
     </row>
@@ -1405,15 +1590,15 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+        <v>310</v>
+      </c>
+      <c r="D8">
+        <v>-27.72</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>-27.72</v>
       </c>
     </row>
@@ -1425,15 +1610,15 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+        <v>310</v>
+      </c>
+      <c r="D9">
+        <v>-27.72</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>-27.72</v>
       </c>
     </row>
@@ -1445,15 +1630,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+        <v>310</v>
+      </c>
+      <c r="D10">
+        <v>-27.72</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>-27.72</v>
       </c>
     </row>
@@ -1465,15 +1650,15 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+        <v>310</v>
+      </c>
+      <c r="D11">
+        <v>-27.72</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>-27.72</v>
       </c>
     </row>
@@ -1485,15 +1670,15 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>-27.72</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-27.72</v>
       </c>
     </row>
@@ -1505,15 +1690,15 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+        <v>310</v>
+      </c>
+      <c r="D13">
+        <v>-27.72</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>-27.72</v>
       </c>
     </row>
@@ -1525,15 +1710,15 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>-27.72</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>-27.72</v>
       </c>
     </row>
@@ -1545,15 +1730,15 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <v>-27.72</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>-27.72</v>
       </c>
     </row>
@@ -1565,15 +1750,15 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+        <v>310</v>
+      </c>
+      <c r="D16">
+        <v>-27.72</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>-27.72</v>
       </c>
     </row>
@@ -1585,15 +1770,15 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+        <v>310</v>
+      </c>
+      <c r="D17">
+        <v>-27.72</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>-27.72</v>
       </c>
     </row>
@@ -1605,15 +1790,15 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+        <v>310</v>
+      </c>
+      <c r="D18">
+        <v>-27.72</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>-27.72</v>
       </c>
     </row>
@@ -1625,15 +1810,15 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+        <v>310</v>
+      </c>
+      <c r="D19">
+        <v>-27.72</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>-27.72</v>
       </c>
     </row>
@@ -1645,15 +1830,15 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+        <v>310</v>
+      </c>
+      <c r="D20">
+        <v>-27.72</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>-27.72</v>
       </c>
     </row>
@@ -1665,15 +1850,15 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+        <v>310</v>
+      </c>
+      <c r="D21">
+        <v>-27.72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>-27.72</v>
       </c>
     </row>
@@ -1685,15 +1870,15 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+        <v>310</v>
+      </c>
+      <c r="D22">
+        <v>-27.72</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>-27.72</v>
       </c>
     </row>
@@ -1705,15 +1890,15 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+        <v>310</v>
+      </c>
+      <c r="D23">
+        <v>-27.72</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>-27.72</v>
       </c>
     </row>
@@ -1725,15 +1910,15 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+        <v>310</v>
+      </c>
+      <c r="D24">
+        <v>-27.72</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>-27.72</v>
       </c>
     </row>
@@ -1745,15 +1930,15 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+        <v>310</v>
+      </c>
+      <c r="D25">
+        <v>-27.72</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>-27.72</v>
       </c>
     </row>
@@ -1765,15 +1950,15 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>-27.72</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>-27.72</v>
       </c>
     </row>
@@ -1785,15 +1970,15 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+        <v>310</v>
+      </c>
+      <c r="D27">
+        <v>-27.72</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>-27.72</v>
       </c>
     </row>
@@ -1805,15 +1990,15 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+        <v>310</v>
+      </c>
+      <c r="D28">
+        <v>-27.72</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>-27.72</v>
       </c>
     </row>
@@ -1825,15 +2010,15 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+        <v>310</v>
+      </c>
+      <c r="D29">
+        <v>-27.72</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>-27.72</v>
       </c>
     </row>
@@ -1845,15 +2030,15 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+        <v>310</v>
+      </c>
+      <c r="D30">
+        <v>-27.72</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>-27.72</v>
       </c>
     </row>
@@ -1865,15 +2050,15 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+        <v>310</v>
+      </c>
+      <c r="D31">
+        <v>-27.72</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>-27.72</v>
       </c>
     </row>
@@ -1885,15 +2070,15 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+        <v>310</v>
+      </c>
+      <c r="D32">
+        <v>-27.72</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>-27.72</v>
       </c>
     </row>
@@ -1905,15 +2090,15 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+        <v>310</v>
+      </c>
+      <c r="D33">
+        <v>-27.72</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>-27.72</v>
       </c>
     </row>
@@ -1925,15 +2110,15 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+        <v>310</v>
+      </c>
+      <c r="D34">
+        <v>-27.72</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>-27.72</v>
       </c>
     </row>
@@ -1945,15 +2130,15 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+        <v>310</v>
+      </c>
+      <c r="D35">
+        <v>-27.72</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>-27.72</v>
       </c>
     </row>
@@ -1965,15 +2150,15 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+        <v>310</v>
+      </c>
+      <c r="D36">
+        <v>-27.72</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>-27.72</v>
       </c>
     </row>
@@ -1985,15 +2170,15 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+        <v>310</v>
+      </c>
+      <c r="D37">
+        <v>-27.72</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>-27.72</v>
       </c>
     </row>
@@ -2005,15 +2190,15 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+        <v>310</v>
+      </c>
+      <c r="D38">
+        <v>-27.72</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>-27.72</v>
       </c>
     </row>
@@ -2025,15 +2210,15 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
+        <v>310</v>
+      </c>
+      <c r="D39">
+        <v>-27.72</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>-27.72</v>
       </c>
     </row>
@@ -2045,15 +2230,15 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+        <v>310</v>
+      </c>
+      <c r="D40">
+        <v>-27.72</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>-27.72</v>
       </c>
     </row>
@@ -2065,15 +2250,15 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+        <v>310</v>
+      </c>
+      <c r="D41">
+        <v>-27.72</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>-27.72</v>
       </c>
     </row>
@@ -2085,15 +2270,15 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+        <v>310</v>
+      </c>
+      <c r="D42">
+        <v>-27.72</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>-27.72</v>
       </c>
     </row>
@@ -2105,15 +2290,15 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+        <v>310</v>
+      </c>
+      <c r="D43">
+        <v>-27.72</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>-27.72</v>
       </c>
     </row>
@@ -2125,15 +2310,15 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+        <v>310</v>
+      </c>
+      <c r="D44">
+        <v>-27.72</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>-27.72</v>
       </c>
     </row>
@@ -2145,15 +2330,15 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+        <v>310</v>
+      </c>
+      <c r="D45">
+        <v>-27.72</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>-27.72</v>
       </c>
     </row>
@@ -2165,15 +2350,15 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+        <v>310</v>
+      </c>
+      <c r="D46">
+        <v>-27.72</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>-27.72</v>
       </c>
     </row>
@@ -2185,15 +2370,15 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+        <v>310</v>
+      </c>
+      <c r="D47">
+        <v>-27.72</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>-27.72</v>
       </c>
     </row>
@@ -2205,15 +2390,15 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-27.72</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+        <v>310</v>
+      </c>
+      <c r="D48">
+        <v>-27.72</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>-27.72</v>
       </c>
     </row>
@@ -2225,15 +2410,15 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D49" s="3">
+        <v>307</v>
+      </c>
+      <c r="D49">
         <v>-857.92</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>-857.92</v>
       </c>
     </row>
@@ -2245,15 +2430,15 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D50" s="3">
+        <v>307</v>
+      </c>
+      <c r="D50">
         <v>-962.44</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>-962.44</v>
       </c>
     </row>
@@ -2265,15 +2450,15 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="3">
+        <v>311</v>
+      </c>
+      <c r="D51">
         <v>-45.69</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>-45.69</v>
       </c>
     </row>
@@ -2285,15 +2470,15 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D52" s="3">
+        <v>307</v>
+      </c>
+      <c r="D52">
         <v>-25.03</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>-25.03</v>
       </c>
     </row>
@@ -2305,15 +2490,15 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D53" s="3">
+        <v>309</v>
+      </c>
+      <c r="D53">
         <v>-1035</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>-1035</v>
       </c>
     </row>
@@ -2325,15 +2510,15 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="3">
+        <v>307</v>
+      </c>
+      <c r="D54">
         <v>-785.97</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>-785.97</v>
       </c>
     </row>
@@ -2345,15 +2530,15 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="3">
+        <v>312</v>
+      </c>
+      <c r="D55">
         <v>-692.28</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>-692.28</v>
       </c>
     </row>
@@ -2365,15 +2550,15 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="3">
+        <v>313</v>
+      </c>
+      <c r="D56">
         <v>-589.74</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>-589.74</v>
       </c>
     </row>
@@ -2385,15 +2570,15 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D57" s="3">
+        <v>312</v>
+      </c>
+      <c r="D57">
         <v>-645.91</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>-645.91</v>
       </c>
     </row>
@@ -2405,15 +2590,15 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="3">
+        <v>312</v>
+      </c>
+      <c r="D58">
         <v>-308.91</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>-308.91</v>
       </c>
     </row>
@@ -2425,15 +2610,15 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="3">
+        <v>312</v>
+      </c>
+      <c r="D59">
         <v>-922.17</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>-922.17</v>
       </c>
     </row>
@@ -2445,15 +2630,15 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="3">
+        <v>312</v>
+      </c>
+      <c r="D60">
         <v>-308.91</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>-308.91</v>
       </c>
     </row>
@@ -2465,15 +2650,15 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="3">
+        <v>307</v>
+      </c>
+      <c r="D61">
         <v>-1106.57</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>-1106.57</v>
       </c>
     </row>
@@ -2485,15 +2670,15 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="3">
+        <v>314</v>
+      </c>
+      <c r="D62">
         <v>-711.36</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>-711.36</v>
       </c>
     </row>
@@ -2505,15 +2690,15 @@
         <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D63" s="3">
+        <v>307</v>
+      </c>
+      <c r="D63">
         <v>-1156.86</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>-1156.86</v>
       </c>
     </row>
@@ -2525,15 +2710,15 @@
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" s="3">
+        <v>315</v>
+      </c>
+      <c r="D64">
         <v>-228</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>-228</v>
       </c>
     </row>
@@ -2545,15 +2730,15 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="3">
+        <v>315</v>
+      </c>
+      <c r="D65">
         <v>-617.83</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>-617.83</v>
       </c>
     </row>
@@ -2565,15 +2750,15 @@
         <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="3">
+        <v>307</v>
+      </c>
+      <c r="D66">
         <v>-1156.86</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>-1156.86</v>
       </c>
     </row>
@@ -2585,15 +2770,15 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="3">
+        <v>307</v>
+      </c>
+      <c r="D67">
         <v>-887.77</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>-887.77</v>
       </c>
     </row>
@@ -2605,15 +2790,15 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="3">
+        <v>309</v>
+      </c>
+      <c r="D68">
         <v>-228</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>-228</v>
       </c>
     </row>
@@ -2625,15 +2810,15 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="3">
+        <v>316</v>
+      </c>
+      <c r="D69">
         <v>-711.36</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>-711.36</v>
       </c>
     </row>
@@ -2645,15 +2830,15 @@
         <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="3">
+        <v>312</v>
+      </c>
+      <c r="D70">
         <v>-645.91</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>-645.91</v>
       </c>
     </row>
@@ -2665,15 +2850,15 @@
         <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="3">
+        <v>312</v>
+      </c>
+      <c r="D71">
         <v>-645.91</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>-645.91</v>
       </c>
     </row>
@@ -2685,15 +2870,15 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" s="3">
+        <v>312</v>
+      </c>
+      <c r="D72">
         <v>-664.09</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>-664.09</v>
       </c>
     </row>
@@ -2705,15 +2890,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73" s="3">
+        <v>315</v>
+      </c>
+      <c r="D73">
         <v>-617.83</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>-617.83</v>
       </c>
     </row>
@@ -2725,15 +2910,15 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" s="3">
+        <v>312</v>
+      </c>
+      <c r="D74">
         <v>-645.91</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>-645.91</v>
       </c>
     </row>
@@ -2745,15 +2930,15 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="3">
+        <v>307</v>
+      </c>
+      <c r="D75">
         <v>-750</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>-750</v>
       </c>
     </row>
@@ -2765,15 +2950,15 @@
         <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" s="3">
+        <v>315</v>
+      </c>
+      <c r="D76">
         <v>-609.99</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>-609.99</v>
       </c>
     </row>
@@ -2785,15 +2970,15 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="3">
+        <v>317</v>
+      </c>
+      <c r="D77">
         <v>-623.64</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>-623.64</v>
       </c>
     </row>
@@ -2805,15 +2990,15 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="3">
+        <v>314</v>
+      </c>
+      <c r="D78">
         <v>-711.36</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <v>-711.36</v>
       </c>
     </row>
@@ -2825,15 +3010,15 @@
         <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" s="3">
+        <v>307</v>
+      </c>
+      <c r="D79">
         <v>-557.55</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>-557.55</v>
       </c>
     </row>
@@ -2845,15 +3030,15 @@
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" s="3">
+        <v>312</v>
+      </c>
+      <c r="D80">
         <v>-645.91</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>-645.91</v>
       </c>
     </row>
@@ -2865,15 +3050,15 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="3">
+        <v>307</v>
+      </c>
+      <c r="D81">
         <v>-737.64</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>-737.64</v>
       </c>
     </row>
@@ -2885,15 +3070,15 @@
         <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="3">
+        <v>318</v>
+      </c>
+      <c r="D82">
         <v>-1242</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <v>-10000</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82">
         <v>-11242</v>
       </c>
     </row>
@@ -2905,15 +3090,15 @@
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D83" s="3">
+        <v>319</v>
+      </c>
+      <c r="D83">
         <v>-409.09</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>-409.09</v>
       </c>
     </row>
@@ -2925,15 +3110,15 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" s="3">
+        <v>307</v>
+      </c>
+      <c r="D84">
         <v>-751.14</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>-751.14</v>
       </c>
     </row>
@@ -2945,15 +3130,15 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" s="3">
+        <v>312</v>
+      </c>
+      <c r="D85">
         <v>-645.91</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>-645.91</v>
       </c>
     </row>
@@ -2965,15 +3150,15 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D86" s="3">
+        <v>312</v>
+      </c>
+      <c r="D86">
         <v>-1786.82</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>-1786.82</v>
       </c>
     </row>
@@ -2985,15 +3170,15 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D87" s="3">
+        <v>319</v>
+      </c>
+      <c r="D87">
         <v>-521.74</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>-521.74</v>
       </c>
     </row>
@@ -3005,15 +3190,15 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="3">
+        <v>307</v>
+      </c>
+      <c r="D88">
         <v>-711.13</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>-711.13</v>
       </c>
     </row>
@@ -3025,15 +3210,15 @@
         <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="3">
+        <v>320</v>
+      </c>
+      <c r="D89">
         <v>-391.3</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>-391.3</v>
       </c>
     </row>
@@ -3045,15 +3230,15 @@
         <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" s="3">
+        <v>320</v>
+      </c>
+      <c r="D90">
         <v>-391.3</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>-391.3</v>
       </c>
     </row>
@@ -3065,15 +3250,15 @@
         <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" s="3">
+        <v>320</v>
+      </c>
+      <c r="D91">
         <v>-391.3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>-391.3</v>
       </c>
     </row>
@@ -3085,15 +3270,15 @@
         <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="3">
+        <v>320</v>
+      </c>
+      <c r="D92">
         <v>-391.3</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>-391.3</v>
       </c>
     </row>
@@ -3105,15 +3290,15 @@
         <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="3">
+        <v>309</v>
+      </c>
+      <c r="D93">
         <v>-696.52</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>-696.52</v>
       </c>
     </row>
@@ -3125,15 +3310,15 @@
         <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D94" s="3">
+        <v>316</v>
+      </c>
+      <c r="D94">
         <v>-478.26</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>-478.26</v>
       </c>
     </row>
@@ -3145,15 +3330,15 @@
         <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" s="3">
+        <v>321</v>
+      </c>
+      <c r="D95">
         <v>-391.3</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
         <v>-391.3</v>
       </c>
     </row>
@@ -3165,15 +3350,15 @@
         <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" s="3">
+        <v>312</v>
+      </c>
+      <c r="D96">
         <v>-1865.65</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>-1865.65</v>
       </c>
     </row>
@@ -3185,15 +3370,15 @@
         <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D97" s="3">
+        <v>307</v>
+      </c>
+      <c r="D97">
         <v>-793.83</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>-793.83</v>
       </c>
     </row>
@@ -3205,15 +3390,15 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D98" s="3">
+        <v>312</v>
+      </c>
+      <c r="D98">
         <v>-617.83</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>-617.83</v>
       </c>
     </row>
@@ -3225,15 +3410,15 @@
         <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D99" s="3">
+        <v>312</v>
+      </c>
+      <c r="D99">
         <v>-617.83</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>-617.83</v>
       </c>
     </row>
@@ -3245,15 +3430,15 @@
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D100" s="3">
+        <v>322</v>
+      </c>
+      <c r="D100">
         <v>-515.65</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>-515.65</v>
       </c>
     </row>
@@ -3265,15 +3450,15 @@
         <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" s="3">
+        <v>312</v>
+      </c>
+      <c r="D101">
         <v>-2534.55</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>-2534.55</v>
       </c>
     </row>
@@ -3285,15 +3470,15 @@
         <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="3">
+        <v>315</v>
+      </c>
+      <c r="D102">
         <v>-519.99</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>-519.99</v>
       </c>
     </row>
@@ -3305,15 +3490,15 @@
         <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="3">
+        <v>315</v>
+      </c>
+      <c r="D103">
         <v>-519.99</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>-519.99</v>
       </c>
     </row>
@@ -3325,15 +3510,15 @@
         <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D104" s="3">
+        <v>315</v>
+      </c>
+      <c r="D104">
         <v>-787.77</v>
       </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>-787.77</v>
       </c>
     </row>
@@ -3345,15 +3530,15 @@
         <v>107</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D105" s="3">
+        <v>312</v>
+      </c>
+      <c r="D105">
         <v>-1916</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>-1916</v>
       </c>
     </row>
@@ -3365,15 +3550,15 @@
         <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D106" s="3">
+        <v>307</v>
+      </c>
+      <c r="D106">
         <v>-3149.5</v>
       </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>-3149.5</v>
       </c>
     </row>
@@ -3385,15 +3570,15 @@
         <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D107" s="3">
+        <v>323</v>
+      </c>
+      <c r="D107">
         <v>-272.73</v>
       </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>-272.73</v>
       </c>
     </row>
@@ -3405,15 +3590,15 @@
         <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D108" s="3">
+        <v>322</v>
+      </c>
+      <c r="D108">
         <v>-545.45</v>
       </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>-545.45</v>
       </c>
     </row>
@@ -3425,15 +3610,15 @@
         <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="3">
+        <v>312</v>
+      </c>
+      <c r="D109">
         <v>-2102.27</v>
       </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>-2102.27</v>
       </c>
     </row>
@@ -3445,15 +3630,15 @@
         <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D110" s="3">
+        <v>312</v>
+      </c>
+      <c r="D110">
         <v>-2075.82</v>
       </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
         <v>-2075.82</v>
       </c>
     </row>
@@ -3465,15 +3650,15 @@
         <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D111" s="3">
+        <v>315</v>
+      </c>
+      <c r="D111">
         <v>-591.25</v>
       </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>-591.25</v>
       </c>
     </row>
@@ -3485,15 +3670,15 @@
         <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D112" s="3">
+        <v>309</v>
+      </c>
+      <c r="D112">
         <v>-631.36</v>
       </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
         <v>-631.36</v>
       </c>
     </row>
@@ -3505,15 +3690,15 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D113" s="3">
+        <v>307</v>
+      </c>
+      <c r="D113">
         <v>-1849.27</v>
       </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>-1849.27</v>
       </c>
     </row>
@@ -3525,15 +3710,15 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D114" s="3">
+        <v>315</v>
+      </c>
+      <c r="D114">
         <v>-519.99</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>-519.99</v>
       </c>
     </row>
@@ -3545,15 +3730,15 @@
         <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D115" s="3">
+        <v>309</v>
+      </c>
+      <c r="D115">
         <v>-631.36</v>
       </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>-631.36</v>
       </c>
     </row>
@@ -3565,15 +3750,15 @@
         <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" s="3">
+        <v>309</v>
+      </c>
+      <c r="D116">
         <v>-631.36</v>
       </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>-631.36</v>
       </c>
     </row>
@@ -3585,15 +3770,15 @@
         <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D117" s="3">
+        <v>324</v>
+      </c>
+      <c r="D117">
         <v>-1203.41</v>
       </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>-1203.41</v>
       </c>
     </row>
@@ -3605,15 +3790,15 @@
         <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" s="3">
+        <v>315</v>
+      </c>
+      <c r="D118">
         <v>-523.3</v>
       </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>-523.3</v>
       </c>
     </row>
@@ -3625,15 +3810,15 @@
         <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D119" s="3">
+        <v>309</v>
+      </c>
+      <c r="D119">
         <v>-631.36</v>
       </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
         <v>-631.36</v>
       </c>
     </row>
@@ -3645,15 +3830,15 @@
         <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="3">
+        <v>324</v>
+      </c>
+      <c r="D120">
         <v>-333.18</v>
       </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
         <v>-333.18</v>
       </c>
     </row>
@@ -3665,15 +3850,15 @@
         <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" s="3">
+        <v>307</v>
+      </c>
+      <c r="D121">
         <v>-1914.14</v>
       </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
         <v>-1914.14</v>
       </c>
     </row>
@@ -3685,15 +3870,15 @@
         <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D122" s="3">
+        <v>309</v>
+      </c>
+      <c r="D122">
         <v>-631.36</v>
       </c>
-      <c r="E122" s="3">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
         <v>-631.36</v>
       </c>
     </row>
@@ -3705,15 +3890,15 @@
         <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" s="3">
+        <v>309</v>
+      </c>
+      <c r="D123">
         <v>-625.68</v>
       </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>-625.68</v>
       </c>
     </row>
@@ -3725,15 +3910,15 @@
         <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="3">
+        <v>309</v>
+      </c>
+      <c r="D124">
         <v>-625.68</v>
       </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>-625.68</v>
       </c>
     </row>
@@ -3745,15 +3930,15 @@
         <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D125" s="3">
+        <v>309</v>
+      </c>
+      <c r="D125">
         <v>-625.68</v>
       </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>-625.68</v>
       </c>
     </row>
@@ -3765,15 +3950,15 @@
         <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="3">
+        <v>312</v>
+      </c>
+      <c r="D126">
         <v>-1859.14</v>
       </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>-1859.14</v>
       </c>
     </row>
@@ -3785,15 +3970,15 @@
         <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" s="3">
+        <v>307</v>
+      </c>
+      <c r="D127">
         <v>-2086.04</v>
       </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>-2086.04</v>
       </c>
     </row>
@@ -3805,15 +3990,15 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" s="3">
+        <v>312</v>
+      </c>
+      <c r="D128">
         <v>-1859.14</v>
       </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>-1859.14</v>
       </c>
     </row>
@@ -3825,15 +4010,15 @@
         <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D129" s="3">
+        <v>307</v>
+      </c>
+      <c r="D129">
         <v>-1704.5</v>
       </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>-1704.5</v>
       </c>
     </row>
@@ -3845,15 +4030,15 @@
         <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D130" s="3">
+        <v>307</v>
+      </c>
+      <c r="D130">
         <v>-593.6</v>
       </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
         <v>-593.6</v>
       </c>
     </row>
@@ -3865,15 +4050,15 @@
         <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D131" s="3">
+        <v>312</v>
+      </c>
+      <c r="D131">
         <v>-1954.95</v>
       </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
         <v>-1954.95</v>
       </c>
     </row>
@@ -3885,15 +4070,15 @@
         <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D132" s="3">
+        <v>314</v>
+      </c>
+      <c r="D132">
         <v>-1538.42</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
         <v>-1538.42</v>
       </c>
     </row>
@@ -3905,15 +4090,15 @@
         <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D133" s="3">
+        <v>319</v>
+      </c>
+      <c r="D133">
         <v>-1531.53</v>
       </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
         <v>-1531.53</v>
       </c>
     </row>
@@ -3925,15 +4110,15 @@
         <v>122</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D134" s="3">
+        <v>315</v>
+      </c>
+      <c r="D134">
         <v>-486.86</v>
       </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3">
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
         <v>-486.86</v>
       </c>
     </row>
@@ -3945,15 +4130,15 @@
         <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D135" s="3">
+        <v>309</v>
+      </c>
+      <c r="D135">
         <v>-625.68</v>
       </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>-625.68</v>
       </c>
     </row>
@@ -3965,15 +4150,15 @@
         <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="3">
+        <v>307</v>
+      </c>
+      <c r="D136">
         <v>-1880.27</v>
       </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
         <v>-1880.27</v>
       </c>
     </row>
@@ -3985,15 +4170,15 @@
         <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D137" s="3">
+        <v>309</v>
+      </c>
+      <c r="D137">
         <v>-625.68</v>
       </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>-625.68</v>
       </c>
     </row>
@@ -4005,15 +4190,15 @@
         <v>138</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D138" s="3">
+        <v>309</v>
+      </c>
+      <c r="D138">
         <v>-625.68</v>
       </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
         <v>-625.68</v>
       </c>
     </row>
@@ -4025,15 +4210,15 @@
         <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D139" s="3">
+        <v>315</v>
+      </c>
+      <c r="D139">
         <v>-615.87</v>
       </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
         <v>-615.87</v>
       </c>
     </row>
@@ -4045,15 +4230,15 @@
         <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D140" s="3">
+        <v>322</v>
+      </c>
+      <c r="D140">
         <v>-630.63</v>
       </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
         <v>-630.63</v>
       </c>
     </row>
@@ -4065,15 +4250,15 @@
         <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D141" s="3">
+        <v>325</v>
+      </c>
+      <c r="D141">
         <v>-668.47</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>-668.47</v>
       </c>
     </row>
@@ -4085,15 +4270,15 @@
         <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D142" s="3">
+        <v>326</v>
+      </c>
+      <c r="D142">
         <v>-1621.62</v>
       </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
         <v>-1621.62</v>
       </c>
     </row>
@@ -4105,15 +4290,15 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D143" s="3">
+        <v>307</v>
+      </c>
+      <c r="D143">
         <v>-1755.69</v>
       </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
         <v>-1755.69</v>
       </c>
     </row>
@@ -4125,15 +4310,15 @@
         <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D144" s="3">
+        <v>307</v>
+      </c>
+      <c r="D144">
         <v>-1490.92</v>
       </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
         <v>-1490.92</v>
       </c>
     </row>
@@ -4145,16 +4330,16 @@
         <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D145" s="3">
-        <v>-2295.92</v>
-      </c>
-      <c r="E145" s="3">
-        <v>-935.44</v>
-      </c>
-      <c r="F145" s="3">
-        <v>-3231.36</v>
+        <v>327</v>
+      </c>
+      <c r="D145">
+        <v>-947.97</v>
+      </c>
+      <c r="E145">
+        <v>-467.72</v>
+      </c>
+      <c r="F145">
+        <v>-1415.69</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4162,19 +4347,19 @@
         <v>41791</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D146" s="3">
-        <v>-625.68</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>-625.68</v>
+        <v>328</v>
+      </c>
+      <c r="D146">
+        <v>-947.97</v>
+      </c>
+      <c r="E146">
+        <v>-467.7</v>
+      </c>
+      <c r="F146">
+        <v>-1415.67</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4182,18 +4367,18 @@
         <v>41791</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D147" s="3">
+        <v>309</v>
+      </c>
+      <c r="D147">
         <v>-625.68</v>
       </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>-625.68</v>
       </c>
     </row>
@@ -4202,38 +4387,38 @@
         <v>41791</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="3">
-        <v>-1950.9</v>
-      </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
-        <v>-1950.9</v>
+        <v>309</v>
+      </c>
+      <c r="D148">
+        <v>-625.68</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>-625.68</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D149" s="3">
+        <v>312</v>
+      </c>
+      <c r="D149">
         <v>-1950.9</v>
       </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>-1950.9</v>
       </c>
     </row>
@@ -4242,19 +4427,19 @@
         <v>41821</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D150" s="3">
-        <v>-625.68</v>
-      </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
-        <v>-625.68</v>
+        <v>312</v>
+      </c>
+      <c r="D150">
+        <v>-1950.9</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>-1950.9</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4262,19 +4447,19 @@
         <v>41821</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D151" s="3">
-        <v>-469.59</v>
-      </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3">
-        <v>-469.59</v>
+        <v>309</v>
+      </c>
+      <c r="D151">
+        <v>-625.68</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>-625.68</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4282,19 +4467,19 @@
         <v>41821</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D152" s="3">
-        <v>-1963.06306306306</v>
-      </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
-        <v>-1963.06306306306</v>
+        <v>325</v>
+      </c>
+      <c r="D152">
+        <v>-469.59</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>-469.59</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4302,19 +4487,19 @@
         <v>41821</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D153" s="3">
-        <v>-330.18</v>
-      </c>
-      <c r="E153" s="3">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3">
-        <v>-330.18</v>
+        <v>324</v>
+      </c>
+      <c r="D153">
+        <v>-1963.06306306306</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>-1963.06306306306</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4322,19 +4507,19 @@
         <v>41821</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D154" s="3">
-        <v>-1951.53</v>
-      </c>
-      <c r="E154" s="3">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
-        <v>-1951.53</v>
+        <v>315</v>
+      </c>
+      <c r="D154">
+        <v>-330.18</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>-330.18</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4342,19 +4527,19 @@
         <v>41821</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-1806.35</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
-        <v>-1806.35</v>
+        <v>312</v>
+      </c>
+      <c r="D155">
+        <v>-1951.53</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4362,19 +4547,19 @@
         <v>41821</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D156" s="3">
-        <v>-1951.53</v>
-      </c>
-      <c r="E156" s="3">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3">
-        <v>-1951.53</v>
+        <v>312</v>
+      </c>
+      <c r="D156">
+        <v>-1806.35</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>-1806.35</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4382,19 +4567,19 @@
         <v>41821</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D157" s="3">
-        <v>-1607.36</v>
-      </c>
-      <c r="E157" s="3">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3">
-        <v>-1607.36</v>
+        <v>312</v>
+      </c>
+      <c r="D157">
+        <v>-1951.53</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>-1951.53</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4402,19 +4587,19 @@
         <v>41821</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D158" s="3">
-        <v>-563.96</v>
-      </c>
-      <c r="E158" s="3">
-        <v>0</v>
-      </c>
-      <c r="F158" s="3">
-        <v>-563.96</v>
+        <v>307</v>
+      </c>
+      <c r="D158">
+        <v>-1607.36</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>-1607.36</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4422,19 +4607,19 @@
         <v>41821</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D159" s="3">
-        <v>-540.54</v>
-      </c>
-      <c r="E159" s="3">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3">
-        <v>-540.54</v>
+        <v>314</v>
+      </c>
+      <c r="D159">
+        <v>-563.96</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>-563.96</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4442,19 +4627,19 @@
         <v>41821</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D160" s="3">
-        <v>-2044.51</v>
-      </c>
-      <c r="E160" s="3">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
-        <v>-2044.51</v>
+        <v>329</v>
+      </c>
+      <c r="D160">
+        <v>-540.54</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>-540.54</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4462,19 +4647,19 @@
         <v>41821</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D161" s="3">
-        <v>-625.675675675676</v>
-      </c>
-      <c r="E161" s="3">
-        <v>0</v>
-      </c>
-      <c r="F161" s="3">
-        <v>-625.675675675676</v>
+        <v>307</v>
+      </c>
+      <c r="D161">
+        <v>-2044.51</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>-2044.51</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4482,19 +4667,19 @@
         <v>41821</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D162" s="3">
-        <v>-552.43</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>-552.43</v>
+        <v>309</v>
+      </c>
+      <c r="D162">
+        <v>-625.675675675676</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>-625.675675675676</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4502,19 +4687,19 @@
         <v>41821</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D163" s="3">
-        <v>-45.05</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
-        <v>-45.05</v>
+        <v>319</v>
+      </c>
+      <c r="D163">
+        <v>-552.43</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>-552.43</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4522,18 +4707,18 @@
         <v>41821</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D164" s="3">
+        <v>329</v>
+      </c>
+      <c r="D164">
         <v>-45.05</v>
       </c>
-      <c r="E164" s="3">
-        <v>0</v>
-      </c>
-      <c r="F164" s="3">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
         <v>-45.05</v>
       </c>
     </row>
@@ -4542,18 +4727,18 @@
         <v>41821</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D165" s="3">
+        <v>329</v>
+      </c>
+      <c r="D165">
         <v>-45.05</v>
       </c>
-      <c r="E165" s="3">
-        <v>0</v>
-      </c>
-      <c r="F165" s="3">
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
         <v>-45.05</v>
       </c>
     </row>
@@ -4562,18 +4747,18 @@
         <v>41821</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D166" s="3">
+        <v>329</v>
+      </c>
+      <c r="D166">
         <v>-45.05</v>
       </c>
-      <c r="E166" s="3">
-        <v>0</v>
-      </c>
-      <c r="F166" s="3">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
         <v>-45.05</v>
       </c>
     </row>
@@ -4582,18 +4767,18 @@
         <v>41821</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D167" s="3">
+        <v>329</v>
+      </c>
+      <c r="D167">
         <v>-45.05</v>
       </c>
-      <c r="E167" s="3">
-        <v>0</v>
-      </c>
-      <c r="F167" s="3">
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
         <v>-45.05</v>
       </c>
     </row>
@@ -4602,18 +4787,18 @@
         <v>41821</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D168" s="3">
+        <v>329</v>
+      </c>
+      <c r="D168">
         <v>-45.05</v>
       </c>
-      <c r="E168" s="3">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
         <v>-45.05</v>
       </c>
     </row>
@@ -4622,18 +4807,18 @@
         <v>41821</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D169" s="3">
+        <v>329</v>
+      </c>
+      <c r="D169">
         <v>-45.05</v>
       </c>
-      <c r="E169" s="3">
-        <v>0</v>
-      </c>
-      <c r="F169" s="3">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
         <v>-45.05</v>
       </c>
     </row>
@@ -4642,18 +4827,18 @@
         <v>41821</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D170" s="3">
+        <v>329</v>
+      </c>
+      <c r="D170">
         <v>-45.05</v>
       </c>
-      <c r="E170" s="3">
-        <v>0</v>
-      </c>
-      <c r="F170" s="3">
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
         <v>-45.05</v>
       </c>
     </row>
@@ -4662,18 +4847,18 @@
         <v>41821</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D171" s="3">
+        <v>329</v>
+      </c>
+      <c r="D171">
         <v>-45.05</v>
       </c>
-      <c r="E171" s="3">
-        <v>0</v>
-      </c>
-      <c r="F171" s="3">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
         <v>-45.05</v>
       </c>
     </row>
@@ -4682,18 +4867,18 @@
         <v>41821</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D172" s="3">
+        <v>329</v>
+      </c>
+      <c r="D172">
         <v>-45.05</v>
       </c>
-      <c r="E172" s="3">
-        <v>0</v>
-      </c>
-      <c r="F172" s="3">
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
         <v>-45.05</v>
       </c>
     </row>
@@ -4702,18 +4887,18 @@
         <v>41821</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D173" s="3">
+        <v>329</v>
+      </c>
+      <c r="D173">
         <v>-45.05</v>
       </c>
-      <c r="E173" s="3">
-        <v>0</v>
-      </c>
-      <c r="F173" s="3">
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
         <v>-45.05</v>
       </c>
     </row>
@@ -4722,18 +4907,18 @@
         <v>41821</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D174" s="3">
+        <v>329</v>
+      </c>
+      <c r="D174">
         <v>-45.05</v>
       </c>
-      <c r="E174" s="3">
-        <v>0</v>
-      </c>
-      <c r="F174" s="3">
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
         <v>-45.05</v>
       </c>
     </row>
@@ -4742,19 +4927,19 @@
         <v>41821</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D175" s="3">
-        <v>-625.68</v>
-      </c>
-      <c r="E175" s="3">
-        <v>0</v>
-      </c>
-      <c r="F175" s="3">
-        <v>-625.68</v>
+        <v>329</v>
+      </c>
+      <c r="D175">
+        <v>-45.05</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>-45.05</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4762,39 +4947,39 @@
         <v>41821</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D176" s="3">
-        <v>-1577.20720720721</v>
-      </c>
-      <c r="E176" s="3">
-        <v>0</v>
-      </c>
-      <c r="F176" s="3">
-        <v>-1577.20720720721</v>
+        <v>309</v>
+      </c>
+      <c r="D176">
+        <v>-625.68</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>-625.68</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D177" s="3">
-        <v>-6.51555555555556</v>
-      </c>
-      <c r="E177" s="3">
-        <v>0</v>
-      </c>
-      <c r="F177" s="3">
-        <v>-6.51555555555556</v>
+        <v>312</v>
+      </c>
+      <c r="D177">
+        <v>-1577.20720720721</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>-1577.20720720721</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4802,19 +4987,19 @@
         <v>41852</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D178" s="3">
-        <v>-1292.44444444444</v>
-      </c>
-      <c r="E178" s="3">
-        <v>0</v>
-      </c>
-      <c r="F178" s="3">
-        <v>-1292.44444444444</v>
+        <v>322</v>
+      </c>
+      <c r="D178">
+        <v>-6.51555555555556</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>-6.51555555555556</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4822,19 +5007,19 @@
         <v>41852</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D179" s="3">
-        <v>-1155.55555555556</v>
-      </c>
-      <c r="E179" s="3">
-        <v>0</v>
-      </c>
-      <c r="F179" s="3">
-        <v>-1155.55555555556</v>
+        <v>313</v>
+      </c>
+      <c r="D179">
+        <v>-1292.44444444444</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>-1292.44444444444</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4842,19 +5027,19 @@
         <v>41852</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D180" s="3">
-        <v>-625.68</v>
-      </c>
-      <c r="E180" s="3">
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
-        <v>-625.68</v>
+        <v>329</v>
+      </c>
+      <c r="D180">
+        <v>-1155.55555555556</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>-1155.55555555556</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4862,19 +5047,19 @@
         <v>41852</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D181" s="3">
-        <v>-433.035555555556</v>
-      </c>
-      <c r="E181" s="3">
-        <v>0</v>
-      </c>
-      <c r="F181" s="3">
-        <v>-433.035555555556</v>
+        <v>330</v>
+      </c>
+      <c r="D181">
+        <v>-12.4444444444444</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>-12.4444444444444</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4885,16 +5070,16 @@
         <v>179</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D182" s="3">
-        <v>-1629.99</v>
-      </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-      <c r="F182" s="3">
-        <v>-1629.99</v>
+        <v>309</v>
+      </c>
+      <c r="D182">
+        <v>-625.68</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>-625.68</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4902,19 +5087,19 @@
         <v>41852</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D183" s="3">
-        <v>-612.355555555555</v>
-      </c>
-      <c r="E183" s="3">
-        <v>0</v>
-      </c>
-      <c r="F183" s="3">
-        <v>-612.355555555555</v>
+        <v>325</v>
+      </c>
+      <c r="D183">
+        <v>-433.035555555556</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>-433.035555555556</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4922,19 +5107,19 @@
         <v>41852</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D184" s="3">
-        <v>-1908.03555555556</v>
-      </c>
-      <c r="E184" s="3">
-        <v>0</v>
-      </c>
-      <c r="F184" s="3">
-        <v>-1908.03555555556</v>
+        <v>331</v>
+      </c>
+      <c r="D184">
+        <v>-1629.99</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>-1629.99</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4942,19 +5127,19 @@
         <v>41852</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D185" s="3">
-        <v>-335.404444444444</v>
-      </c>
-      <c r="E185" s="3">
-        <v>0</v>
-      </c>
-      <c r="F185" s="3">
-        <v>-335.404444444444</v>
+        <v>329</v>
+      </c>
+      <c r="D185">
+        <v>-612.355555555555</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>-612.355555555555</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4962,19 +5147,19 @@
         <v>41852</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D186" s="3">
-        <v>-405.41</v>
-      </c>
-      <c r="E186" s="3">
-        <v>0</v>
-      </c>
-      <c r="F186" s="3">
-        <v>-405.41</v>
+        <v>332</v>
+      </c>
+      <c r="D186">
+        <v>-1908.03555555556</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>-1908.03555555556</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4982,39 +5167,39 @@
         <v>41852</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D187" s="3">
-        <v>-12.4444444444444</v>
-      </c>
-      <c r="E187" s="3">
-        <v>0</v>
-      </c>
-      <c r="F187" s="3">
-        <v>-12.4444444444444</v>
+        <v>333</v>
+      </c>
+      <c r="D187">
+        <v>-335.404444444444</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>-335.404444444444</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D188" s="3">
-        <v>-1992.44444444444</v>
-      </c>
-      <c r="E188" s="3">
-        <v>0</v>
-      </c>
-      <c r="F188" s="3">
-        <v>-1992.44444444444</v>
+        <v>334</v>
+      </c>
+      <c r="D188">
+        <v>-405.41</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>-405.41</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5022,19 +5207,19 @@
         <v>41883</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D189" s="3">
-        <v>-1883.28888888889</v>
-      </c>
-      <c r="E189" s="3">
-        <v>0</v>
-      </c>
-      <c r="F189" s="3">
-        <v>-1883.28888888889</v>
+        <v>332</v>
+      </c>
+      <c r="D189">
+        <v>-1992.44444444444</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>-1992.44444444444</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5042,19 +5227,19 @@
         <v>41883</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D190" s="3">
-        <v>-44.4444444444444</v>
-      </c>
-      <c r="E190" s="3">
-        <v>0</v>
-      </c>
-      <c r="F190" s="3">
-        <v>-44.4444444444444</v>
+        <v>312</v>
+      </c>
+      <c r="D190">
+        <v>-1883.28888888889</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>-1883.28888888889</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5062,18 +5247,18 @@
         <v>41883</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D191" s="3">
+        <v>329</v>
+      </c>
+      <c r="D191">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E191" s="3">
-        <v>0</v>
-      </c>
-      <c r="F191" s="3">
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5082,18 +5267,18 @@
         <v>41883</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D192" s="3">
+        <v>329</v>
+      </c>
+      <c r="D192">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E192" s="3">
-        <v>0</v>
-      </c>
-      <c r="F192" s="3">
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5102,18 +5287,18 @@
         <v>41883</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D193" s="3">
+        <v>329</v>
+      </c>
+      <c r="D193">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E193" s="3">
-        <v>0</v>
-      </c>
-      <c r="F193" s="3">
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5122,18 +5307,18 @@
         <v>41883</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D194" s="3">
+        <v>329</v>
+      </c>
+      <c r="D194">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E194" s="3">
-        <v>0</v>
-      </c>
-      <c r="F194" s="3">
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5142,18 +5327,18 @@
         <v>41883</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D195" s="3">
+        <v>329</v>
+      </c>
+      <c r="D195">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E195" s="3">
-        <v>0</v>
-      </c>
-      <c r="F195" s="3">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5162,18 +5347,18 @@
         <v>41883</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D196" s="3">
+        <v>329</v>
+      </c>
+      <c r="D196">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E196" s="3">
-        <v>0</v>
-      </c>
-      <c r="F196" s="3">
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5182,18 +5367,18 @@
         <v>41883</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D197" s="3">
+        <v>329</v>
+      </c>
+      <c r="D197">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E197" s="3">
-        <v>0</v>
-      </c>
-      <c r="F197" s="3">
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5202,18 +5387,18 @@
         <v>41883</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D198" s="3">
+        <v>329</v>
+      </c>
+      <c r="D198">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E198" s="3">
-        <v>0</v>
-      </c>
-      <c r="F198" s="3">
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5222,18 +5407,18 @@
         <v>41883</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D199" s="3">
+        <v>329</v>
+      </c>
+      <c r="D199">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E199" s="3">
-        <v>0</v>
-      </c>
-      <c r="F199" s="3">
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5242,18 +5427,18 @@
         <v>41883</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D200" s="3">
+        <v>329</v>
+      </c>
+      <c r="D200">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E200" s="3">
-        <v>0</v>
-      </c>
-      <c r="F200" s="3">
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5262,18 +5447,18 @@
         <v>41883</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D201" s="3">
+        <v>329</v>
+      </c>
+      <c r="D201">
         <v>-44.4444444444444</v>
       </c>
-      <c r="E201" s="3">
-        <v>0</v>
-      </c>
-      <c r="F201" s="3">
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
         <v>-44.4444444444444</v>
       </c>
     </row>
@@ -5282,19 +5467,19 @@
         <v>41883</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D202" s="3">
-        <v>-618.515555555556</v>
-      </c>
-      <c r="E202" s="3">
-        <v>0</v>
-      </c>
-      <c r="F202" s="3">
-        <v>-618.515555555556</v>
+        <v>329</v>
+      </c>
+      <c r="D202">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>-44.4444444444444</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5302,19 +5487,19 @@
         <v>41883</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D203" s="3">
-        <v>-815.946666666667</v>
-      </c>
-      <c r="E203" s="3">
-        <v>0</v>
-      </c>
-      <c r="F203" s="3">
-        <v>-815.946666666667</v>
+        <v>309</v>
+      </c>
+      <c r="D203">
+        <v>-618.515555555556</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>-618.515555555556</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5322,19 +5507,19 @@
         <v>41883</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D204" s="3">
-        <v>-1739.28888888889</v>
-      </c>
-      <c r="E204" s="3">
-        <v>0</v>
-      </c>
-      <c r="F204" s="3">
-        <v>-1739.28888888889</v>
+        <v>332</v>
+      </c>
+      <c r="D204">
+        <v>-815.946666666667</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>-815.946666666667</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5342,19 +5527,19 @@
         <v>41883</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D205" s="3">
-        <v>-2498.88888888889</v>
-      </c>
-      <c r="E205" s="3">
-        <v>0</v>
-      </c>
-      <c r="F205" s="3">
-        <v>-2498.88888888889</v>
+        <v>312</v>
+      </c>
+      <c r="D205">
+        <v>-1739.28888888889</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>-1739.28888888889</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5362,19 +5547,19 @@
         <v>41883</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D206" s="3">
-        <v>-618.888888888889</v>
-      </c>
-      <c r="E206" s="3">
-        <v>0</v>
-      </c>
-      <c r="F206" s="3">
-        <v>-618.888888888889</v>
+        <v>312</v>
+      </c>
+      <c r="D206">
+        <v>-2498.88888888889</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>-2498.88888888889</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5382,19 +5567,19 @@
         <v>41883</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D207" s="3">
-        <v>-850.22</v>
-      </c>
-      <c r="E207" s="3">
-        <v>0</v>
-      </c>
-      <c r="F207" s="3">
-        <v>-850.22</v>
+        <v>309</v>
+      </c>
+      <c r="D207">
+        <v>-618.888888888889</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>-618.888888888889</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5402,19 +5587,19 @@
         <v>41883</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D208" s="3">
-        <v>-578.071111111111</v>
-      </c>
-      <c r="E208" s="3">
-        <v>0</v>
-      </c>
-      <c r="F208" s="3">
-        <v>-578.071111111111</v>
+        <v>309</v>
+      </c>
+      <c r="D208">
+        <v>-850.22</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>-850.22</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5422,19 +5607,19 @@
         <v>41883</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D209" s="3">
-        <v>-1289.2</v>
-      </c>
-      <c r="E209" s="3">
-        <v>0</v>
-      </c>
-      <c r="F209" s="3">
-        <v>-1289.2</v>
+        <v>325</v>
+      </c>
+      <c r="D209">
+        <v>-578.071111111111</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>-578.071111111111</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5442,19 +5627,19 @@
         <v>41883</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D210" s="3">
-        <v>-729.626666666667</v>
-      </c>
-      <c r="E210" s="3">
-        <v>0</v>
-      </c>
-      <c r="F210" s="3">
-        <v>-729.626666666667</v>
+        <v>335</v>
+      </c>
+      <c r="D210">
+        <v>-1289.2</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>-1289.2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5462,19 +5647,19 @@
         <v>41883</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D211" s="3">
-        <v>-683.848888888889</v>
-      </c>
-      <c r="E211" s="3">
-        <v>0</v>
-      </c>
-      <c r="F211" s="3">
-        <v>-683.848888888889</v>
+        <v>309</v>
+      </c>
+      <c r="D211">
+        <v>-729.626666666667</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>-729.626666666667</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5482,39 +5667,39 @@
         <v>41883</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D212" s="3">
-        <v>-2138.97777777778</v>
-      </c>
-      <c r="E212" s="3">
-        <v>0</v>
-      </c>
-      <c r="F212" s="3">
-        <v>-2138.97777777778</v>
+        <v>336</v>
+      </c>
+      <c r="D212">
+        <v>-683.848888888889</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>-683.848888888889</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D213" s="3">
-        <v>-1196.83673469388</v>
-      </c>
-      <c r="E213" s="3">
-        <v>0</v>
-      </c>
-      <c r="F213" s="3">
-        <v>-1196.83673469388</v>
+        <v>337</v>
+      </c>
+      <c r="D213">
+        <v>-2138.97777777778</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>-2138.97777777778</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5522,19 +5707,19 @@
         <v>41913</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D214" s="3">
-        <v>-332.755102040816</v>
-      </c>
-      <c r="E214" s="3">
-        <v>0</v>
-      </c>
-      <c r="F214" s="3">
-        <v>-332.755102040816</v>
+        <v>329</v>
+      </c>
+      <c r="D214">
+        <v>-1196.83673469388</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>-1196.83673469388</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5542,19 +5727,19 @@
         <v>41913</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D215" s="3">
-        <v>-1980.9</v>
-      </c>
-      <c r="E215" s="3">
-        <v>-34.98</v>
-      </c>
-      <c r="F215" s="3">
-        <v>-2015.88</v>
+        <v>338</v>
+      </c>
+      <c r="D215">
+        <v>-332.755102040816</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>-332.755102040816</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5562,19 +5747,19 @@
         <v>41913</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D216" s="3">
-        <v>-882.040816326531</v>
-      </c>
-      <c r="E216" s="3">
-        <v>0</v>
-      </c>
-      <c r="F216" s="3">
-        <v>-882.040816326531</v>
+        <v>336</v>
+      </c>
+      <c r="D216">
+        <v>-1980.9</v>
+      </c>
+      <c r="E216">
+        <v>-34.98</v>
+      </c>
+      <c r="F216">
+        <v>-2015.88</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5582,19 +5767,19 @@
         <v>41913</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D217" s="3">
-        <v>-937.408163265306</v>
-      </c>
-      <c r="E217" s="3">
-        <v>0</v>
-      </c>
-      <c r="F217" s="3">
-        <v>-937.408163265306</v>
+        <v>321</v>
+      </c>
+      <c r="D217">
+        <v>-882.040816326531</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>-882.040816326531</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5602,19 +5787,19 @@
         <v>41913</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D218" s="3">
-        <v>-1226.88</v>
-      </c>
-      <c r="E218" s="3">
-        <v>0</v>
-      </c>
-      <c r="F218" s="3">
-        <v>-1226.88</v>
+        <v>312</v>
+      </c>
+      <c r="D218">
+        <v>-937.408163265306</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>-937.408163265306</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5622,19 +5807,19 @@
         <v>41913</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D219" s="3">
-        <v>-1077.24489795918</v>
-      </c>
-      <c r="E219" s="3">
-        <v>0</v>
-      </c>
-      <c r="F219" s="3">
-        <v>-1077.24489795918</v>
+        <v>339</v>
+      </c>
+      <c r="D219">
+        <v>-1226.88</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>-1226.88</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5642,19 +5827,19 @@
         <v>41913</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D220" s="3">
-        <v>-734.69387755102</v>
-      </c>
-      <c r="E220" s="3">
-        <v>0</v>
-      </c>
-      <c r="F220" s="3">
-        <v>-734.69387755102</v>
+        <v>329</v>
+      </c>
+      <c r="D220">
+        <v>-1077.24489795918</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>-1077.24489795918</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5662,19 +5847,19 @@
         <v>41913</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D221" s="3">
-        <v>0</v>
-      </c>
-      <c r="E221" s="3">
-        <v>-35</v>
-      </c>
-      <c r="F221" s="3">
-        <v>-35</v>
+        <v>340</v>
+      </c>
+      <c r="D221">
+        <v>-734.69387755102</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>-734.69387755102</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5682,19 +5867,19 @@
         <v>41913</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D222" s="3">
-        <v>-1522.04081632653</v>
-      </c>
-      <c r="E222" s="3">
-        <v>0</v>
-      </c>
-      <c r="F222" s="3">
-        <v>-1522.04081632653</v>
+        <v>331</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>-35</v>
+      </c>
+      <c r="F222">
+        <v>-35</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5702,19 +5887,19 @@
         <v>41913</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D223" s="3">
-        <v>-832.877551020408</v>
-      </c>
-      <c r="E223" s="3">
-        <v>0</v>
-      </c>
-      <c r="F223" s="3">
-        <v>-832.877551020408</v>
+        <v>312</v>
+      </c>
+      <c r="D223">
+        <v>-1522.04081632653</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>-1522.04081632653</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5722,19 +5907,19 @@
         <v>41913</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D224" s="3">
-        <v>-1099.69387755102</v>
-      </c>
-      <c r="E224" s="3">
-        <v>0</v>
-      </c>
-      <c r="F224" s="3">
-        <v>-1099.69387755102</v>
+        <v>341</v>
+      </c>
+      <c r="D224">
+        <v>-832.877551020408</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>-832.877551020408</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5742,19 +5927,19 @@
         <v>41913</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D225" s="3">
-        <v>-371.938775510204</v>
-      </c>
-      <c r="E225" s="3">
-        <v>0</v>
-      </c>
-      <c r="F225" s="3">
-        <v>-371.938775510204</v>
+        <v>320</v>
+      </c>
+      <c r="D225">
+        <v>-1099.69387755102</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>-1099.69387755102</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5762,19 +5947,19 @@
         <v>41913</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D226" s="3">
-        <v>-566.938775510204</v>
-      </c>
-      <c r="E226" s="3">
-        <v>0</v>
-      </c>
-      <c r="F226" s="3">
-        <v>-566.938775510204</v>
+        <v>342</v>
+      </c>
+      <c r="D226">
+        <v>-371.938775510204</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>-371.938775510204</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5782,19 +5967,19 @@
         <v>41913</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D227" s="3">
-        <v>-731.942857142857</v>
-      </c>
-      <c r="E227" s="3">
-        <v>0</v>
-      </c>
-      <c r="F227" s="3">
-        <v>-731.942857142857</v>
+        <v>309</v>
+      </c>
+      <c r="D227">
+        <v>-566.938775510204</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>-566.938775510204</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5802,19 +5987,19 @@
         <v>41913</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D228" s="3">
-        <v>-1041.32653061224</v>
-      </c>
-      <c r="E228" s="3">
-        <v>0</v>
-      </c>
-      <c r="F228" s="3">
-        <v>-1041.32653061224</v>
+        <v>315</v>
+      </c>
+      <c r="D228">
+        <v>-731.942857142857</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>-731.942857142857</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5822,19 +6007,19 @@
         <v>41913</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D229" s="3">
-        <v>-283.469387755102</v>
-      </c>
-      <c r="E229" s="3">
-        <v>0</v>
-      </c>
-      <c r="F229" s="3">
-        <v>-283.469387755102</v>
+        <v>320</v>
+      </c>
+      <c r="D229">
+        <v>-1041.32653061224</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>-1041.32653061224</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5842,19 +6027,19 @@
         <v>41913</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D230" s="3">
-        <v>-369.489795918367</v>
-      </c>
-      <c r="E230" s="3">
-        <v>0</v>
-      </c>
-      <c r="F230" s="3">
-        <v>-369.489795918367</v>
+        <v>309</v>
+      </c>
+      <c r="D230">
+        <v>-283.469387755102</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>-283.469387755102</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5862,19 +6047,19 @@
         <v>41913</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D231" s="3">
-        <v>-1169.08163265306</v>
-      </c>
-      <c r="E231" s="3">
-        <v>0</v>
-      </c>
-      <c r="F231" s="3">
-        <v>-1169.08163265306</v>
+        <v>338</v>
+      </c>
+      <c r="D231">
+        <v>-369.489795918367</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>-369.489795918367</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5882,19 +6067,19 @@
         <v>41913</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D232" s="3">
-        <v>-209.387755102041</v>
-      </c>
-      <c r="E232" s="3">
-        <v>0</v>
-      </c>
-      <c r="F232" s="3">
-        <v>-209.387755102041</v>
+        <v>312</v>
+      </c>
+      <c r="D232">
+        <v>-1169.08163265306</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>-1169.08163265306</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5905,15 +6090,15 @@
         <v>226</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D233" s="3">
+        <v>307</v>
+      </c>
+      <c r="D233">
         <v>-209.387755102041</v>
       </c>
-      <c r="E233" s="3">
-        <v>0</v>
-      </c>
-      <c r="F233" s="3">
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
         <v>-209.387755102041</v>
       </c>
     </row>
@@ -5922,39 +6107,39 @@
         <v>41913</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D234" s="3">
-        <v>-1256.95510204082</v>
-      </c>
-      <c r="E234" s="3">
-        <v>0</v>
-      </c>
-      <c r="F234" s="3">
-        <v>-1256.95510204082</v>
+        <v>325</v>
+      </c>
+      <c r="D234">
+        <v>-209.387755102041</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>-209.387755102041</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D235" s="3">
-        <v>-409.12</v>
-      </c>
-      <c r="E235" s="3">
-        <v>0</v>
-      </c>
-      <c r="F235" s="3">
-        <v>-409.12</v>
+        <v>332</v>
+      </c>
+      <c r="D235">
+        <v>-1256.95510204082</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>-1256.95510204082</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5962,19 +6147,19 @@
         <v>41944</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D236" s="3">
-        <v>-360</v>
-      </c>
-      <c r="E236" s="3">
-        <v>0</v>
-      </c>
-      <c r="F236" s="3">
-        <v>-360</v>
+        <v>343</v>
+      </c>
+      <c r="D236">
+        <v>-409.12</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>-409.12</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5982,19 +6167,19 @@
         <v>41944</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D237" s="3">
-        <v>-555.6</v>
-      </c>
-      <c r="E237" s="3">
-        <v>0</v>
-      </c>
-      <c r="F237" s="3">
-        <v>-555.6</v>
+        <v>338</v>
+      </c>
+      <c r="D237">
+        <v>-360</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>-360</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6002,19 +6187,19 @@
         <v>41944</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D238" s="3">
-        <v>-1478.2</v>
-      </c>
-      <c r="E238" s="3">
-        <v>0</v>
-      </c>
-      <c r="F238" s="3">
-        <v>-1478.2</v>
+        <v>309</v>
+      </c>
+      <c r="D238">
+        <v>-555.6</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>-555.6</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6022,19 +6207,19 @@
         <v>41944</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D239" s="3">
-        <v>-555.6</v>
-      </c>
-      <c r="E239" s="3">
-        <v>0</v>
-      </c>
-      <c r="F239" s="3">
-        <v>-555.6</v>
+        <v>332</v>
+      </c>
+      <c r="D239">
+        <v>-1478.2</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>-1478.2</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6042,19 +6227,19 @@
         <v>41944</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D240" s="3">
-        <v>-408</v>
-      </c>
-      <c r="E240" s="3">
-        <v>0</v>
-      </c>
-      <c r="F240" s="3">
-        <v>-408</v>
+        <v>309</v>
+      </c>
+      <c r="D240">
+        <v>-555.6</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>-555.6</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6062,19 +6247,19 @@
         <v>41944</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D241" s="3">
-        <v>-360</v>
-      </c>
-      <c r="E241" s="3">
-        <v>0</v>
-      </c>
-      <c r="F241" s="3">
-        <v>-360</v>
+        <v>325</v>
+      </c>
+      <c r="D241">
+        <v>-408</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>-408</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6082,19 +6267,19 @@
         <v>41944</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D242" s="3">
-        <v>-435.12</v>
-      </c>
-      <c r="E242" s="3">
-        <v>0</v>
-      </c>
-      <c r="F242" s="3">
-        <v>-435.12</v>
+        <v>344</v>
+      </c>
+      <c r="D242">
+        <v>-360</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>-360</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6102,19 +6287,19 @@
         <v>41944</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D243" s="3">
-        <v>-410.1</v>
-      </c>
-      <c r="E243" s="3">
-        <v>0</v>
-      </c>
-      <c r="F243" s="3">
-        <v>-410.1</v>
+        <v>325</v>
+      </c>
+      <c r="D243">
+        <v>-435.12</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>-435.12</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6122,19 +6307,19 @@
         <v>41944</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D244" s="3">
-        <v>-555.6</v>
-      </c>
-      <c r="E244" s="3">
-        <v>0</v>
-      </c>
-      <c r="F244" s="3">
-        <v>-555.6</v>
+        <v>343</v>
+      </c>
+      <c r="D244">
+        <v>-410.1</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>-410.1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6142,19 +6327,19 @@
         <v>41944</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D245" s="3">
-        <v>-1554.048</v>
-      </c>
-      <c r="E245" s="3">
-        <v>0</v>
-      </c>
-      <c r="F245" s="3">
-        <v>-1554.048</v>
+        <v>309</v>
+      </c>
+      <c r="D245">
+        <v>-555.6</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>-555.6</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6162,19 +6347,19 @@
         <v>41944</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D246" s="3">
-        <v>-360</v>
-      </c>
-      <c r="E246" s="3">
-        <v>0</v>
-      </c>
-      <c r="F246" s="3">
-        <v>-360</v>
+        <v>332</v>
+      </c>
+      <c r="D246">
+        <v>-1554.048</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>-1554.048</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6182,19 +6367,19 @@
         <v>41944</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D247" s="3">
-        <v>-168</v>
-      </c>
-      <c r="E247" s="3">
-        <v>0</v>
-      </c>
-      <c r="F247" s="3">
-        <v>-168</v>
+        <v>330</v>
+      </c>
+      <c r="D247">
+        <v>-216</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>-216</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6202,19 +6387,19 @@
         <v>41944</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D248" s="3">
-        <v>-408</v>
-      </c>
-      <c r="E248" s="3">
-        <v>0</v>
-      </c>
-      <c r="F248" s="3">
-        <v>-408</v>
+        <v>345</v>
+      </c>
+      <c r="D248">
+        <v>-360</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>-360</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6222,19 +6407,19 @@
         <v>41944</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D249" s="3">
-        <v>-555.6</v>
-      </c>
-      <c r="E249" s="3">
-        <v>0</v>
-      </c>
-      <c r="F249" s="3">
-        <v>-555.6</v>
+        <v>343</v>
+      </c>
+      <c r="D249">
+        <v>-168</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>-168</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6242,19 +6427,19 @@
         <v>41944</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D250" s="3">
-        <v>-640</v>
-      </c>
-      <c r="E250" s="3">
-        <v>0</v>
-      </c>
-      <c r="F250" s="3">
-        <v>-640</v>
+        <v>343</v>
+      </c>
+      <c r="D250">
+        <v>-408</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>-408</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6262,19 +6447,19 @@
         <v>41944</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D251" s="3">
-        <v>-1904.848</v>
-      </c>
-      <c r="E251" s="3">
-        <v>0</v>
-      </c>
-      <c r="F251" s="3">
-        <v>-1904.848</v>
+        <v>309</v>
+      </c>
+      <c r="D251">
+        <v>-555.6</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>-555.6</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6282,19 +6467,19 @@
         <v>41944</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D252" s="3">
-        <v>-1807.6</v>
-      </c>
-      <c r="E252" s="3">
-        <v>0</v>
-      </c>
-      <c r="F252" s="3">
-        <v>-1807.6</v>
+        <v>346</v>
+      </c>
+      <c r="D252">
+        <v>-640</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>-640</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6302,19 +6487,19 @@
         <v>41944</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D253" s="3">
-        <v>-1447.2</v>
-      </c>
-      <c r="E253" s="3">
-        <v>0</v>
-      </c>
-      <c r="F253" s="3">
-        <v>-1447.2</v>
+        <v>332</v>
+      </c>
+      <c r="D253">
+        <v>-1904.848</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>-1904.848</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6322,19 +6507,19 @@
         <v>41944</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D254" s="3">
-        <v>-555.6</v>
-      </c>
-      <c r="E254" s="3">
-        <v>0</v>
-      </c>
-      <c r="F254" s="3">
-        <v>-555.6</v>
+        <v>324</v>
+      </c>
+      <c r="D254">
+        <v>-1807.6</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>-1807.6</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6342,19 +6527,19 @@
         <v>41944</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D255" s="3">
-        <v>-408</v>
-      </c>
-      <c r="E255" s="3">
-        <v>0</v>
-      </c>
-      <c r="F255" s="3">
-        <v>-408</v>
+        <v>326</v>
+      </c>
+      <c r="D255">
+        <v>-1447.2</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>-1447.2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6362,19 +6547,19 @@
         <v>41944</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D256" s="3">
-        <v>-360</v>
-      </c>
-      <c r="E256" s="3">
-        <v>0</v>
-      </c>
-      <c r="F256" s="3">
-        <v>-360</v>
+        <v>309</v>
+      </c>
+      <c r="D256">
+        <v>-555.6</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>-555.6</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6382,19 +6567,19 @@
         <v>41944</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D257" s="3">
-        <v>-360</v>
-      </c>
-      <c r="E257" s="3">
-        <v>0</v>
-      </c>
-      <c r="F257" s="3">
-        <v>-360</v>
+        <v>343</v>
+      </c>
+      <c r="D257">
+        <v>-408</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>-408</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6402,19 +6587,19 @@
         <v>41944</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D258" s="3">
-        <v>-216</v>
-      </c>
-      <c r="E258" s="3">
-        <v>0</v>
-      </c>
-      <c r="F258" s="3">
-        <v>-216</v>
+        <v>338</v>
+      </c>
+      <c r="D258">
+        <v>-360</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>-360</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6422,19 +6607,19 @@
         <v>41944</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D259" s="3">
-        <v>-1431.2</v>
-      </c>
-      <c r="E259" s="3">
-        <v>0</v>
-      </c>
-      <c r="F259" s="3">
-        <v>-1431.2</v>
+        <v>344</v>
+      </c>
+      <c r="D259">
+        <v>-360</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>-360</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6442,39 +6627,39 @@
         <v>41944</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D260" s="3">
-        <v>-1628.8</v>
-      </c>
-      <c r="E260" s="3">
-        <v>0</v>
-      </c>
-      <c r="F260" s="3">
-        <v>-1628.8</v>
+        <v>329</v>
+      </c>
+      <c r="D260">
+        <v>-1431.2</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>-1431.2</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D261" s="3">
-        <v>-762.645914396887</v>
-      </c>
-      <c r="E261" s="3">
-        <v>0</v>
-      </c>
-      <c r="F261" s="3">
-        <v>-762.645914396887</v>
+        <v>312</v>
+      </c>
+      <c r="D261">
+        <v>-1628.8</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>-1628.8</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6482,19 +6667,19 @@
         <v>41974</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D262" s="3">
-        <v>-256.809338521401</v>
-      </c>
-      <c r="E262" s="3">
-        <v>0</v>
-      </c>
-      <c r="F262" s="3">
-        <v>-256.809338521401</v>
+        <v>307</v>
+      </c>
+      <c r="D262">
+        <v>-762.645914396887</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>-762.645914396887</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6502,19 +6687,19 @@
         <v>41974</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D263" s="3">
-        <v>-540.466926070039</v>
-      </c>
-      <c r="E263" s="3">
-        <v>0</v>
-      </c>
-      <c r="F263" s="3">
-        <v>-540.466926070039</v>
+        <v>347</v>
+      </c>
+      <c r="D263">
+        <v>-256.809338521401</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>-256.809338521401</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6522,18 +6707,18 @@
         <v>41974</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D264" s="3">
+        <v>309</v>
+      </c>
+      <c r="D264">
         <v>-540.466926070039</v>
       </c>
-      <c r="E264" s="3">
-        <v>0</v>
-      </c>
-      <c r="F264" s="3">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
         <v>-540.466926070039</v>
       </c>
     </row>
@@ -6542,19 +6727,19 @@
         <v>41974</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D265" s="3">
-        <v>-1244.94163424125</v>
-      </c>
-      <c r="E265" s="3">
-        <v>0</v>
-      </c>
-      <c r="F265" s="3">
-        <v>-1244.94163424125</v>
+        <v>309</v>
+      </c>
+      <c r="D265">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>-540.466926070039</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6562,19 +6747,19 @@
         <v>41974</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D266" s="3">
-        <v>-350.194552529183</v>
-      </c>
-      <c r="E266" s="3">
-        <v>0</v>
-      </c>
-      <c r="F266" s="3">
-        <v>-350.194552529183</v>
+        <v>341</v>
+      </c>
+      <c r="D266">
+        <v>-1244.94163424125</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>-1244.94163424125</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6582,19 +6767,19 @@
         <v>41974</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D267" s="3">
-        <v>-247.081712062257</v>
-      </c>
-      <c r="E267" s="3">
-        <v>0</v>
-      </c>
-      <c r="F267" s="3">
-        <v>-247.081712062257</v>
+        <v>348</v>
+      </c>
+      <c r="D267">
+        <v>-350.194552529183</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>-350.194552529183</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6605,15 +6790,15 @@
         <v>258</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D268" s="3">
+        <v>315</v>
+      </c>
+      <c r="D268">
         <v>-247.081712062257</v>
       </c>
-      <c r="E268" s="3">
-        <v>0</v>
-      </c>
-      <c r="F268" s="3">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
         <v>-247.081712062257</v>
       </c>
     </row>
@@ -6622,18 +6807,18 @@
         <v>41974</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D269" s="3">
+        <v>325</v>
+      </c>
+      <c r="D269">
         <v>-247.081712062257</v>
       </c>
-      <c r="E269" s="3">
-        <v>0</v>
-      </c>
-      <c r="F269" s="3">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
         <v>-247.081712062257</v>
       </c>
     </row>
@@ -6645,15 +6830,15 @@
         <v>259</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D270" s="3">
+        <v>315</v>
+      </c>
+      <c r="D270">
         <v>-247.081712062257</v>
       </c>
-      <c r="E270" s="3">
-        <v>0</v>
-      </c>
-      <c r="F270" s="3">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
         <v>-247.081712062257</v>
       </c>
     </row>
@@ -6662,19 +6847,19 @@
         <v>41974</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D271" s="3">
-        <v>-1069.64980544747</v>
-      </c>
-      <c r="E271" s="3">
-        <v>0</v>
-      </c>
-      <c r="F271" s="3">
-        <v>-1069.64980544747</v>
+        <v>325</v>
+      </c>
+      <c r="D271">
+        <v>-247.081712062257</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>-247.081712062257</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6682,19 +6867,19 @@
         <v>41974</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D272" s="3">
-        <v>-922.568093385214</v>
-      </c>
-      <c r="E272" s="3">
-        <v>0</v>
-      </c>
-      <c r="F272" s="3">
-        <v>-922.568093385214</v>
+        <v>307</v>
+      </c>
+      <c r="D272">
+        <v>-1069.64980544747</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>-1069.64980544747</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6702,19 +6887,19 @@
         <v>41974</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D273" s="3">
-        <v>-540.466926070039</v>
-      </c>
-      <c r="E273" s="3">
-        <v>0</v>
-      </c>
-      <c r="F273" s="3">
-        <v>-540.466926070039</v>
+        <v>332</v>
+      </c>
+      <c r="D273">
+        <v>-769.42</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>-769.42</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6722,19 +6907,19 @@
         <v>41974</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D274" s="3">
-        <v>-1563.81322957198</v>
-      </c>
-      <c r="E274" s="3">
-        <v>0</v>
-      </c>
-      <c r="F274" s="3">
-        <v>-1563.81322957198</v>
+        <v>343</v>
+      </c>
+      <c r="D274">
+        <v>-540.466926070039</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>-540.466926070039</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6742,19 +6927,19 @@
         <v>41974</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D275" s="3">
-        <v>-1036.18677042802</v>
-      </c>
-      <c r="E275" s="3">
-        <v>0</v>
-      </c>
-      <c r="F275" s="3">
-        <v>-1036.18677042802</v>
+        <v>312</v>
+      </c>
+      <c r="D275">
+        <v>-1563.81322957198</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>-1563.81322957198</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6762,19 +6947,19 @@
         <v>41974</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D276" s="3">
-        <v>-116.731517509728</v>
-      </c>
-      <c r="E276" s="3">
-        <v>0</v>
-      </c>
-      <c r="F276" s="3">
-        <v>-116.731517509728</v>
+        <v>329</v>
+      </c>
+      <c r="D276">
+        <v>-685.603112840467</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>-685.603112840467</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6782,39 +6967,999 @@
         <v>41974</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D277" s="3">
-        <v>-622.568093385214</v>
-      </c>
-      <c r="E277" s="3">
-        <v>0</v>
-      </c>
-      <c r="F277" s="3">
-        <v>-622.568093385214</v>
+        <v>326</v>
+      </c>
+      <c r="D277">
+        <v>-1036.18677042802</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>-1036.18677042802</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D278">
+        <v>-622.568093385214</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>-622.568093385214</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
         <v>42005</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B279" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D279">
+        <v>-0.53639846743295</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>-0.53639846743295</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D280">
+        <v>-532.183908045977</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>-532.183908045977</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D281">
+        <v>-500</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D282">
+        <v>-651.340996168582</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>-651.340996168582</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D278" s="3">
-        <v>-540.466926070039</v>
-      </c>
-      <c r="E278" s="3">
-        <v>0</v>
-      </c>
-      <c r="F278" s="3">
-        <v>-540.466926070039</v>
+      <c r="C283" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D283">
+        <v>-1567.43295019157</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>-1567.43295019157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D284">
+        <v>-1558.62068965517</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>-1558.62068965517</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D285">
+        <v>-195.402298850575</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>-195.402298850575</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D286">
+        <v>-197.187739463602</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>-197.187739463602</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D287">
+        <v>-1458.23754789272</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>-1458.23754789272</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D288">
+        <v>-1010.07</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>-1010.07</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D289">
+        <v>-500</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D290">
+        <v>-1000</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D291">
+        <v>-500</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D292">
+        <v>-1005.36</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>-1005.36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D293">
+        <v>-500</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D294">
+        <v>-1000</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D295">
+        <v>-500</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D296">
+        <v>-1000</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D297">
+        <v>-250</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D298">
+        <v>-500</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D299">
+        <v>-500</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D300">
+        <v>-500</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301">
+        <v>-3.92982456140351</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>-3.92982456140351</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D302">
+        <v>-4.91228070175439</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>-4.91228070175439</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D303">
+        <v>-1000</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D304">
+        <v>-500</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D305">
+        <v>-1003.9298245614</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>-1003.9298245614</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D306">
+        <v>-500</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D307">
+        <v>-1009.82456140351</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>-1009.82456140351</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D308">
+        <v>-3.92982456140351</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>-3.92982456140351</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309">
+        <v>-1009.82456140351</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>-1009.82456140351</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D310">
+        <v>-250</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D311">
+        <v>-250</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D312">
+        <v>-1000</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D313">
+        <v>-1000</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D314">
+        <v>-3.92982456140351</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>-3.92982456140351</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D315">
+        <v>-500</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D316">
+        <v>-1000</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D317">
+        <v>-1000</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D318">
+        <v>-500</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D319">
+        <v>-1000</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D320">
+        <v>-500</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D321">
+        <v>-500</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D322">
+        <v>-500</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D323">
+        <v>-1000</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D324">
+        <v>-1000</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D325">
+        <v>-1000</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D326">
+        <v>-1000</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
